--- a/publipostage2/0377z4z10/liste_essais_cliniques_identifies_0377z4z10.xlsx
+++ b/publipostage2/0377z4z10/liste_essais_cliniques_identifies_0377z4z10.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>status_label</t>
+          <t>statut_label</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/publipostage2/0377z4z10/liste_essais_cliniques_identifies_0377z4z10.xlsx
+++ b/publipostage2/0377z4z10/liste_essais_cliniques_identifies_0377z4z10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L121"/>
+  <dimension ref="A1:M121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,50 +446,55 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>statut_name</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>CTIS</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>intervention_type</t>
         </is>
@@ -508,32 +513,37 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>NCT00851760</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Idiopathic Epiretinal Macular Membrane and Cataract Extraction : Combined vs Consecutive Surgery</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="b">
         <v>0</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -552,32 +562,37 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>NCT00658463</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Effects of Rosuvastatin on the, in Vivo, Kinetic of VLDL apoB, IDL apoB, LDL apoB and HDL apoA1, Using Stable Isotopes, in Type 2 Diabetic Patients</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="b">
         <v>0</v>
       </c>
       <c r="K3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" t="b">
         <v>1</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -596,32 +611,37 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>NCT00629044</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Etude du Polymorphysme génétique de la cholestérol 24S Hydroxylase et Des Teneurs en 24S hydroxycholestérol Chez Des Patients Atteints de Glaucome ou de dégénérescence Maculaire liée à l'âge.</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="b">
         <v>0</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -640,32 +660,37 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>NCT01481987</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Retinal Sensitivity and Optical Coherence Tomography Findings in Eyes With Idiopathic Epiretinal Membrane</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="b">
         <v>0</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -684,28 +709,33 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>NCT01907620</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="b">
         <v>0</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="L6" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -724,36 +754,41 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>NCT02873858</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Elucidation of Sensory Characteristics and Food Preferences in the Elderly</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>AUPALESENS</t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
       <c r="J7" t="b">
         <v>0</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -772,32 +807,37 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>NCT01599338</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Influence du Victoza (Liraglutide,Analogue GLP-1) Sur Les Performances Gustatives, le Rassasiement Sensoriel spécifique, le Liking et le Wanting Chez Les Patients diabétiques de Type 2.</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="b">
         <v>0</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="L8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -816,36 +856,41 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>NCT03657979</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Transversus Abdominis Plane (TAP) Block in Open Abdominal Aortic Surgery : Randomized Controlled Doubled-blind Trial Comparing Ropivacaine 0.2% Versus Placebo</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>TAP-CACAO</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
       <c r="J9" t="b">
         <v>0</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -864,32 +909,37 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>NCT00354237</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Effect of Strict Glycemic Control on Improvement of Exercise Capacities (VO2 Peak, Peak Workload After Cardiac Rehabilitation, in Patients With Type 2 Diabetes Mellitus With Coronary Artery Disease.</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="b">
         <v>1</v>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -908,32 +958,37 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>NCT01040559</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Chemoembolisation of Non Resectable, Non Metastatic Hepatocellular Carcinomas Combining DC Bead Microspheres Loaded With Idarubicin (Zavedos®): Phase I Trial</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="b">
         <v>1</v>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -952,28 +1007,33 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>NCT01907477</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="b">
         <v>0</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="L12" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -992,32 +1052,37 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>NCT00953498</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Influence of Glitazones on the Vasodilatory Effect of HDL Lipoproteins and on Phospholipase A2</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="b">
         <v>0</v>
       </c>
       <c r="K13" t="b">
+        <v>0</v>
+      </c>
+      <c r="L13" t="b">
         <v>1</v>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1036,36 +1101,41 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>NCT03656900</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Monocentric Pilot Study, for a Randomized, Crossover, Blinded Trial: Comparison of the Therapeutic Efficacy of Low Frequency Repeated Transcranial Magnetic Stimulation on Cortical Area 9 Compared to Brodmann Area 46 in the Treatment of Depressive Disorders.</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>rTMS</t>
         </is>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
       <c r="J14" t="b">
         <v>0</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L14" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" t="inlineStr">
         <is>
           <t>RADIATION</t>
         </is>
@@ -1084,36 +1154,41 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>NCT01963299</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Prospective Randomised Double-blind Study to Compare Ropivacaine 10mg/mL Alone Versus Ropivacaine 10mg/mL Associated With Clonidine 1µg/kg for Peribulbar Anesthesia in Posterior Eye Surgery</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>CRAPO</t>
         </is>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
       <c r="J15" t="b">
         <v>0</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1132,32 +1207,37 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>NCT01907399</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr">
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
         <is>
           <t>IMMUNOBEDIA</t>
         </is>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
       <c r="J16" t="b">
         <v>0</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="L16" t="b">
+        <v>0</v>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1176,36 +1256,41 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>NCT02028936</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>Study of the Impact of the Regular Consumption of Polyphenol-rich Grape Juice on the Biological Parameters of Oxidative Stress and on Endothelial Function in Healthy Subjects: a Prospective Randomised Double-blind Study</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>Fijus Raisol</t>
         </is>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
       <c r="J17" t="b">
         <v>0</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="L17" t="b">
+        <v>0</v>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1224,36 +1309,41 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>NCT01510314</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>Comparison of C-reactive Protein and Procalcitonin to Detect Infectious Complications After Elective Colorectal Surgery</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>IMACORS</t>
         </is>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
       <c r="J18" t="b">
         <v>0</v>
       </c>
       <c r="K18" t="b">
         <v>0</v>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="L18" t="b">
+        <v>0</v>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -1272,32 +1362,37 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>NCT02080728</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>Transversus Abdominis Plane Block During Kidney Transplant Surgery: Prospective Controlled Randomized Double-blind Trial Comparing Ropivacaine 0.2% With Placebo.</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="b">
         <v>0</v>
       </c>
       <c r="K19" t="b">
         <v>0</v>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="L19" t="b">
+        <v>0</v>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1316,36 +1411,41 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>NCT02859090</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>Single-centre Study of the Expression of Heat Shock Proteins in the Lymphocytes From the Tonsils of Patients With Various Diseases Requiring Tonsillectomy</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>HOTLYMPHO</t>
         </is>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
       <c r="J20" t="b">
         <v>0</v>
       </c>
       <c r="K20" t="b">
         <v>0</v>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="L20" t="b">
+        <v>0</v>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -1364,36 +1464,41 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>NCT01768078</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>Interest of Intravitreal Corticotherapy as the First-line Treatment for Post-operative Endophthalmitis.</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>Endophtalmitis</t>
         </is>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
       <c r="J21" t="b">
         <v>0</v>
       </c>
       <c r="K21" t="b">
         <v>0</v>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="L21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1410,38 +1515,43 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
         <is>
           <t>2013-000950-23</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>Intérêt de la cryothérapie ou de l'aérosolisation par corticoïdes sur les troubles de la déglutition en post-opératoire précose après thyroïdectomie totale.</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>DEGLUTHYR</t>
         </is>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
       <c r="J22" t="b">
         <v>0</v>
       </c>
       <c r="K22" t="b">
         <v>0</v>
       </c>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1456,36 +1566,41 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>NCT02814240</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr">
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>Hepatic Steatosis and Pituitary Gland Failure, Evaluation by NMR Imaging</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>SHAH</t>
         </is>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
       <c r="J23" t="b">
         <v>0</v>
       </c>
       <c r="K23" t="b">
         <v>0</v>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="L23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -1504,32 +1619,37 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>NCT01904812</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr">
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
         <is>
           <t>EQUAL</t>
         </is>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
       <c r="J24" t="b">
         <v>0</v>
       </c>
       <c r="K24" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" t="b">
         <v>1</v>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1548,36 +1668,41 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>NCT01340222</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>Evaluation of the Prognostic Value of Monocytes and Lymphocyte Phenotyping, Along With Intracellular MCP-1 Expression, to Predict Preterm Delivery for Women Hospitalized for Threat of Preterm Labor Between 24 and 34 Weeks of Amenorrhea: PhenoMAP Study</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>PHENOMAP</t>
         </is>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
       <c r="J25" t="b">
         <v>0</v>
       </c>
       <c r="K25" t="b">
         <v>0</v>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="L25" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -1596,36 +1721,41 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>NCT01767038</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>Study of Anatomical and Functional Recovery Following Retinal Detachment: Identify Correlations Between Visual Acuity and SD-OCT and Microperimetry Findings.</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>DOREFA</t>
         </is>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
       <c r="J26" t="b">
         <v>0</v>
       </c>
       <c r="K26" t="b">
         <v>0</v>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="L26" t="b">
+        <v>0</v>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1644,36 +1774,41 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>NCT01766362</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>Incidence of Macular Edema After Panretinal Photocoagulation (PRPC) Performed in a Single Session Versus Four Sessions in Diabetic Patients.</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>Pascal</t>
         </is>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
       <c r="J27" t="b">
         <v>0</v>
       </c>
       <c r="K27" t="b">
         <v>0</v>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="L27" t="b">
+        <v>0</v>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1692,36 +1827,41 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>NCT02855866</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>Interest of Cryotherapy or Cortisone Aerosol Therapy in Early Post-operative Swallowing Disorders Following Total Thyroidectomy</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>DEGLUTHYR</t>
         </is>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
       <c r="J28" t="b">
         <v>0</v>
       </c>
       <c r="K28" t="b">
         <v>0</v>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="L28" t="b">
+        <v>0</v>
+      </c>
+      <c r="M28" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -1740,36 +1880,41 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>NCT02810041</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>Randomized Controlled Double-blind Clinical Trial for the Effect of Yoghurts Enriched in XXS vs Without XXS on the Evolution of Weight in Overweight Subjects Aged 50 to 65 Years.</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>VITALIM Senior</t>
         </is>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
       <c r="J29" t="b">
         <v>0</v>
       </c>
       <c r="K29" t="b">
         <v>0</v>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="L29" t="b">
+        <v>0</v>
+      </c>
+      <c r="M29" t="inlineStr">
         <is>
           <t>DIETARY_SUPPLEMENT</t>
         </is>
@@ -1788,28 +1933,30 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>NCT01962116</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>Citrate Versus Heparin for the Lock of Non-tunneled Hemodialysis Catheters in Patients Hospitalised in ICU = Multicentre, Controlled, Randomised Superiority Trial</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>VERROU-REA</t>
         </is>
-      </c>
-      <c r="I30" t="b">
-        <v>1</v>
       </c>
       <c r="J30" t="b">
         <v>1</v>
@@ -1817,7 +1964,10 @@
       <c r="K30" t="b">
         <v>1</v>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="L30" t="b">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1836,36 +1986,41 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>NCT01900717</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>Evaluation of Bevacizumab in Combination With First-Line Chemotherapy in Patients Aged 75 Years of Older With Metastatic Colorectal Adenocarcinoma</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>Prodige20</t>
         </is>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
       <c r="J31" t="b">
         <v>0</v>
       </c>
       <c r="K31" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" t="b">
         <v>1</v>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="M31" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1884,36 +2039,41 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>NCT02167724</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>Multicentre Evaluation of Bucco-dental Health in Patients With Schizophrenia in Côte d'Or</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>BUCCODOR</t>
         </is>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
       <c r="J32" t="b">
         <v>0</v>
       </c>
       <c r="K32" t="b">
         <v>0</v>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="L32" t="b">
+        <v>0</v>
+      </c>
+      <c r="M32" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -1932,36 +2092,41 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>NCT01910038</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>Evaluation of Tocilizumab as an add-on Therapy to Corticoids in Giant Cell Arteritis: Proof of Concept Study.</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>HORTOCI</t>
         </is>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
       <c r="J33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" t="b">
         <v>1</v>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="L33" t="b">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -1980,36 +2145,41 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>NCT02806882</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr">
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>Open and Exploratory Trial to Investigate the Pharmacokinetic of Ceftaroline in Patients With CSF Device</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>Ceftaroline</t>
         </is>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
       <c r="J34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" t="b">
         <v>1</v>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="L34" t="b">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2028,36 +2198,41 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>NCT01618981</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>LEft Atrial Pacing in Diastolic Heart Failure</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>LEAD</t>
         </is>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
       <c r="J35" t="b">
         <v>0</v>
       </c>
       <c r="K35" t="b">
         <v>0</v>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="L35" t="b">
+        <v>0</v>
+      </c>
+      <c r="M35" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -2076,36 +2251,41 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>NCT02443818</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>Non-randomised Open Label Pilot Study of Sirolimus Therapy for Segmental Overgrowth Due to PIK3CA- Related Overgrowth</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>PROMISE</t>
         </is>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
       <c r="J36" t="b">
         <v>0</v>
       </c>
       <c r="K36" t="b">
         <v>0</v>
       </c>
-      <c r="L36" t="inlineStr">
+      <c r="L36" t="b">
+        <v>0</v>
+      </c>
+      <c r="M36" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2124,36 +2304,41 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>NCT01904929</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>Evaluation of the Psychometric Properties of the 400m-walk-test at a Self-selected Speed (400m WT) for Stable Coronary Patients</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>TML 400 m</t>
         </is>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
       <c r="J37" t="b">
         <v>0</v>
       </c>
       <c r="K37" t="b">
         <v>0</v>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="L37" t="b">
+        <v>0</v>
+      </c>
+      <c r="M37" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2170,38 +2355,43 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr">
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
         <is>
           <t>2014-005320-10</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr">
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>Non-randomised Open Label Pilot Study of Sirolimus Therapy for Segmental Overgrowth Due to PIK3CA- Related Overgrowth</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>PROMISE</t>
         </is>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
       <c r="J38" t="b">
         <v>0</v>
       </c>
       <c r="K38" t="b">
         <v>0</v>
       </c>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="b">
+        <v>0</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2216,36 +2406,41 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>NCT01610258</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr">
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>Contribution of the Study of Maternal Plasmatic Regulator T Cells and Th17 for the Diagnosis of Acute Chorioanmionitis Among Women Hospitalized for Premature Rupture of Fetal Membranes (PPROM) Between 24 and 34 Gestation Weeks</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>ICAR</t>
         </is>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
       <c r="J39" t="b">
         <v>0</v>
       </c>
       <c r="K39" t="b">
         <v>0</v>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="L39" t="b">
+        <v>0</v>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2264,32 +2459,37 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>NCT03227887</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr">
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>Evaluation of the Link Between the Characteristics of Oral Physiology and Formation of the Food Bolus During the Consumption of Cereal Products in Elderly People Via a Modelling Approach.</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="b">
         <v>0</v>
       </c>
       <c r="K40" t="b">
         <v>0</v>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="L40" t="b">
+        <v>0</v>
+      </c>
+      <c r="M40" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2308,36 +2508,41 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>NCT02856009</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>Impact of Nutritional Status and Frailty on the Prognosis of Patients Over 75 Years Old Who Suffered a Stroke</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>INFRA</t>
         </is>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
       <c r="J41" t="b">
         <v>0</v>
       </c>
       <c r="K41" t="b">
         <v>0</v>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="L41" t="b">
+        <v>0</v>
+      </c>
+      <c r="M41" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2356,36 +2561,41 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>NCT01762683</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>Study of Role of Mononuclear Cells of Maternal Peripheric Blood in Human Myometrial Primar Cell Lines Differentiation Toward a Contratyl Phenotype: Influence of Preconceptional Obesity</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>ObeDi</t>
         </is>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
       <c r="J42" t="b">
         <v>0</v>
       </c>
       <c r="K42" t="b">
         <v>0</v>
       </c>
-      <c r="L42" t="inlineStr">
+      <c r="L42" t="b">
+        <v>0</v>
+      </c>
+      <c r="M42" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2404,32 +2614,37 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>NCT02028949</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>LIDA-B: Treatment of Cirrhosis-related Hepatocellular Carcinoma With the Intrahepatic Arterial Injection of an Emulsion of Lipiodol and Idarubicin (Zavedos®): Phase I Study</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="b">
         <v>0</v>
       </c>
       <c r="K43" t="b">
         <v>0</v>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="L43" t="b">
+        <v>0</v>
+      </c>
+      <c r="M43" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2448,36 +2663,41 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>NCT02851602</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr">
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>Phospholipid and Sphingolipid Composition of High-density Lipoproteins (HDL) in Obese Non-diabetic Patients With Metabolic Syndrome</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>SPHINGO</t>
         </is>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
       <c r="J44" t="b">
         <v>0</v>
       </c>
       <c r="K44" t="b">
         <v>0</v>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="L44" t="b">
+        <v>0</v>
+      </c>
+      <c r="M44" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -2496,36 +2716,41 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>NCT02862899</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr">
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>Use of a Heating Cable to Obtain Hyperthermia During Intraperitoneal Chemotherapy</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>CHIPOFIL</t>
         </is>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
-      </c>
       <c r="J45" t="b">
         <v>0</v>
       </c>
       <c r="K45" t="b">
         <v>0</v>
       </c>
-      <c r="L45" t="inlineStr">
+      <c r="L45" t="b">
+        <v>0</v>
+      </c>
+      <c r="M45" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -2544,36 +2769,41 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>NCT02851394</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>Evaluation Of The Efficacy Of A Bolus Infiltration Of The Anaesthetic Tramadol Associated With Continuous Local Anaesthesia Administered Via A Wound Catheter Following Heart Surgery Via Sternotomy At Dijon Chu Single-Centre, Double-Blind, Randomized, Controlled Clinical Trial</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>ATLAS</t>
         </is>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
       <c r="J46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46" t="b">
         <v>1</v>
       </c>
-      <c r="L46" t="inlineStr">
+      <c r="L46" t="b">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2592,36 +2822,41 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>NCT02656654</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>Pilot Study to Evaluate the Efficacy of and the Tolerance to a Body Bandage to Maintain Fluid Balance in Patients With Severe Sepsis or in Septic Shock in an ICU</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>COCOON</t>
         </is>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
       <c r="J47" t="b">
         <v>0</v>
       </c>
       <c r="K47" t="b">
         <v>0</v>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="L47" t="b">
+        <v>0</v>
+      </c>
+      <c r="M47" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2640,36 +2875,41 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>NCT03201328</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr">
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>Prospective, Single Centre Cohort Study on the Impact of Binaural Audition on Postural Performance and Orientation in Healthy Subjects and Patients With Cochlear Implants.</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>AUDIPIC</t>
         </is>
       </c>
-      <c r="I48" t="b">
-        <v>0</v>
-      </c>
       <c r="J48" t="b">
         <v>0</v>
       </c>
       <c r="K48" t="b">
         <v>0</v>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="L48" t="b">
+        <v>0</v>
+      </c>
+      <c r="M48" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2688,36 +2928,41 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>NCT02851433</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr">
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>Evaluate the Protective Effect of Conditioning With Sevoflurane Versus Propofol on the Myocardium in Scheduled Aortic Valve Replacement Surgery</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>SUPRA</t>
         </is>
       </c>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
       <c r="J49" t="b">
         <v>0</v>
       </c>
       <c r="K49" t="b">
         <v>0</v>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="L49" t="b">
+        <v>0</v>
+      </c>
+      <c r="M49" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -2736,36 +2981,41 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>NCT01907581</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr">
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>Impact of Socio-economic Vulnerability on Initial Severity and Prognosis in Patients Admitted to an ICU. Prospective, Multi-centre Cohort Study</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>IVOIRE</t>
         </is>
       </c>
-      <c r="I50" t="b">
-        <v>0</v>
-      </c>
       <c r="J50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" t="b">
         <v>1</v>
       </c>
-      <c r="L50" t="inlineStr">
+      <c r="L50" t="b">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2784,36 +3034,41 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>NCT02851524</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr">
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>Proof of Concept Study Concerning Vestibular Stimulation Using a New Method of Dynamic Posturography.</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>POSTURODYN</t>
         </is>
       </c>
-      <c r="I51" t="b">
-        <v>0</v>
-      </c>
       <c r="J51" t="b">
         <v>0</v>
       </c>
       <c r="K51" t="b">
         <v>0</v>
       </c>
-      <c r="L51" t="inlineStr">
+      <c r="L51" t="b">
+        <v>0</v>
+      </c>
+      <c r="M51" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2832,36 +3087,41 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>NCT02730832</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>Validation of Scale to Evaluate the Perception of Oral Health in Patients With Schizophrenia</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>QUALITY</t>
         </is>
       </c>
-      <c r="I52" t="b">
-        <v>0</v>
-      </c>
       <c r="J52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" t="b">
         <v>1</v>
       </c>
-      <c r="L52" t="inlineStr">
+      <c r="L52" t="b">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -2880,36 +3140,41 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>NCT03215420</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr">
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>Diagnostic Agreement of Electrophysiological Audiovestibular Examinations With Magnetic Resonance Imaging (MRI) of the Inner Ear in Revealing Endolymphatic Hydrops (EH) in Patients With Certain or Probable Meniere's Disease (MD)</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>MRI Meniere</t>
         </is>
       </c>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
       <c r="J53" t="b">
         <v>0</v>
       </c>
       <c r="K53" t="b">
         <v>0</v>
       </c>
-      <c r="L53" t="inlineStr">
+      <c r="L53" t="b">
+        <v>0</v>
+      </c>
+      <c r="M53" t="inlineStr">
         <is>
           <t>DIAGNOSTIC_TEST</t>
         </is>
@@ -2928,36 +3193,41 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>NCT01798173</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr">
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>CIRCE: Environmental, Metabolic and Nutritional Factors of Hepatocellular Carcinoma in Cirrhotic Patients</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>CIRCE</t>
         </is>
       </c>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
       <c r="J54" t="b">
         <v>0</v>
       </c>
       <c r="K54" t="b">
         <v>0</v>
       </c>
-      <c r="L54" t="inlineStr">
+      <c r="L54" t="b">
+        <v>0</v>
+      </c>
+      <c r="M54" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -2976,36 +3246,41 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>NCT02826083</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr">
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>Randomized, Double-blind Study to Evaluate the Effects of XXS on Oxidative Stress in Patients With Mild or Moderate Hyperlipidemia and on Lipoprotein Kinetics</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>XXS SYMPA</t>
         </is>
       </c>
-      <c r="I55" t="b">
-        <v>0</v>
-      </c>
       <c r="J55" t="b">
         <v>0</v>
       </c>
       <c r="K55" t="b">
         <v>0</v>
       </c>
-      <c r="L55" t="inlineStr">
+      <c r="L55" t="b">
+        <v>0</v>
+      </c>
+      <c r="M55" t="inlineStr">
         <is>
           <t>DIETARY_SUPPLEMENT</t>
         </is>
@@ -3024,36 +3299,41 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>NCT02171897</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>Comparison of Functional Recovery After Pertrochanter Fracture Treated With Either Total Hip Replacement or Centromedullary Nailing</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>PAVO</t>
         </is>
       </c>
-      <c r="I56" t="b">
-        <v>0</v>
-      </c>
       <c r="J56" t="b">
         <v>0</v>
       </c>
       <c r="K56" t="b">
         <v>0</v>
       </c>
-      <c r="L56" t="inlineStr">
+      <c r="L56" t="b">
+        <v>0</v>
+      </c>
+      <c r="M56" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -3072,36 +3352,41 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>NCT02862860</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr">
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>Influence of Glycaemic Variability on Oxidative Stress and High-density Lipoprotein (HDL) Function in Type-1 Diabetes</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>Holter Gly</t>
         </is>
       </c>
-      <c r="I57" t="b">
-        <v>0</v>
-      </c>
       <c r="J57" t="b">
         <v>0</v>
       </c>
       <c r="K57" t="b">
         <v>0</v>
       </c>
-      <c r="L57" t="inlineStr">
+      <c r="L57" t="b">
+        <v>0</v>
+      </c>
+      <c r="M57" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -3118,38 +3403,43 @@
           <t>rouge</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr">
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
         <is>
           <t>2012-002817-20</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr">
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>Etude préliminaire visant à étudier l’effet de la rTMS et des antidépresseurs ISRS sur l’expression leucocytaire des gènes C-FOS et DUSP1 des patients traités pour un état dépressif</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>TMSFOS</t>
         </is>
       </c>
-      <c r="I58" t="b">
-        <v>0</v>
-      </c>
       <c r="J58" t="b">
         <v>0</v>
       </c>
       <c r="K58" t="b">
+        <v>0</v>
+      </c>
+      <c r="L58" t="b">
         <v>1</v>
       </c>
-      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3164,36 +3454,41 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>NCT03215446</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>Evaluation of Total (Pre and Post) Conditioning on Rhabdomyolysis of Sedation With Sevoflurane Versus Propofol in Vascular Surgery With Clamping</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>PHAR</t>
         </is>
       </c>
-      <c r="I59" t="b">
-        <v>0</v>
-      </c>
       <c r="J59" t="b">
         <v>0</v>
       </c>
       <c r="K59" t="b">
         <v>0</v>
       </c>
-      <c r="L59" t="inlineStr">
+      <c r="L59" t="b">
+        <v>0</v>
+      </c>
+      <c r="M59" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3212,36 +3507,41 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 36 mois</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>NCT03864016</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr">
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>Ability of Pupillometry to Reduce Sufentanil Consumption in Planned Cardiac Surgery: Randomized, Controlled, Single-center Clinical Superiority Trial</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>PUCCAR</t>
         </is>
       </c>
-      <c r="I60" t="b">
-        <v>0</v>
-      </c>
       <c r="J60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K60" t="b">
         <v>1</v>
       </c>
-      <c r="L60" t="inlineStr">
+      <c r="L60" t="b">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3260,36 +3560,41 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>NCT02824107</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr">
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>INEqualities in Health Psychosocial Determinants of Neuro and Cardio-V@scuLar Disease: Identification of Novel Levers for Secondary Prevention</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>INEV@L</t>
         </is>
       </c>
-      <c r="I61" t="b">
-        <v>0</v>
-      </c>
       <c r="J61" t="b">
         <v>0</v>
       </c>
       <c r="K61" t="b">
         <v>0</v>
       </c>
-      <c r="L61" t="inlineStr">
+      <c r="L61" t="b">
+        <v>0</v>
+      </c>
+      <c r="M61" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -3308,36 +3613,41 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>NCT03830580</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr">
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>Benefit of Singing in the Care of Premature Children Undergoing Screening for Retinopathy of Prematurity in the Neonatology and Neonatal Resuscitation Unit of the Dijon University Hospital</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>Voix Chantée</t>
         </is>
       </c>
-      <c r="I62" t="b">
-        <v>0</v>
-      </c>
       <c r="J62" t="b">
         <v>0</v>
       </c>
       <c r="K62" t="b">
         <v>0</v>
       </c>
-      <c r="L62" t="inlineStr">
+      <c r="L62" t="b">
+        <v>0</v>
+      </c>
+      <c r="M62" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3356,36 +3666,41 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>NCT03491423</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr">
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>Short and Fast Step Test: Feasibility, Validity and Tolerance of a Functional Evaluation Test of Lactic Anaerobic Capacities in Patients With Coronary Artery Disease</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>CORANAE</t>
         </is>
       </c>
-      <c r="I63" t="b">
-        <v>0</v>
-      </c>
       <c r="J63" t="b">
         <v>0</v>
       </c>
       <c r="K63" t="b">
         <v>0</v>
       </c>
-      <c r="L63" t="inlineStr">
+      <c r="L63" t="b">
+        <v>0</v>
+      </c>
+      <c r="M63" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -3404,36 +3719,41 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>NCT02851420</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr">
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>Interest of Spectroscopy in the Diagnosis of Cancerous and Precancerous Lesions of the Upper Airways (UA): Pilot Study</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>SpectrORL1</t>
         </is>
       </c>
-      <c r="I64" t="b">
-        <v>0</v>
-      </c>
       <c r="J64" t="b">
         <v>0</v>
       </c>
       <c r="K64" t="b">
         <v>0</v>
       </c>
-      <c r="L64" t="inlineStr">
+      <c r="L64" t="b">
+        <v>0</v>
+      </c>
+      <c r="M64" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3452,36 +3772,41 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>NCT02156245</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr">
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>Evaluation of the Effects of Eccentric Training on a Cycle Ergometer, Versus Conventional Concentric Training</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>ENERGETIC</t>
         </is>
       </c>
-      <c r="I65" t="b">
-        <v>0</v>
-      </c>
       <c r="J65" t="b">
         <v>0</v>
       </c>
       <c r="K65" t="b">
         <v>0</v>
       </c>
-      <c r="L65" t="inlineStr">
+      <c r="L65" t="b">
+        <v>0</v>
+      </c>
+      <c r="M65" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3500,36 +3825,41 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>NCT03317093</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr">
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>Open and Exploratory Trial to Investigate the Pharmacokinetic of Ceftobiprole Medocaril in Patients With CSF Device</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>BASILE</t>
         </is>
       </c>
-      <c r="I66" t="b">
-        <v>0</v>
-      </c>
       <c r="J66" t="b">
         <v>0</v>
       </c>
       <c r="K66" t="b">
         <v>0</v>
       </c>
-      <c r="L66" t="inlineStr">
+      <c r="L66" t="b">
+        <v>0</v>
+      </c>
+      <c r="M66" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -3548,36 +3878,41 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>NCT02859506</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr">
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>Eating Behaviour and Gustatory Sensitivity Before and After Liver Transplant in Cirrhotic Patients</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>GREFFE</t>
         </is>
       </c>
-      <c r="I67" t="b">
-        <v>0</v>
-      </c>
       <c r="J67" t="b">
         <v>0</v>
       </c>
       <c r="K67" t="b">
         <v>0</v>
       </c>
-      <c r="L67" t="inlineStr">
+      <c r="L67" t="b">
+        <v>0</v>
+      </c>
+      <c r="M67" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3596,36 +3931,41 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>NCT02857192</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr">
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>Study of Phenotypic and Functional Characteristics of Regulatory T Lymphocytes in Giant Cell Arteritis (Horton's Disease)</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>ACG et TREG</t>
         </is>
       </c>
-      <c r="I68" t="b">
-        <v>0</v>
-      </c>
       <c r="J68" t="b">
         <v>0</v>
       </c>
       <c r="K68" t="b">
+        <v>0</v>
+      </c>
+      <c r="L68" t="b">
         <v>1</v>
       </c>
-      <c r="L68" t="inlineStr">
+      <c r="M68" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -3642,34 +3982,39 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr">
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
         <is>
           <t>2016-003917-83</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr">
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>Open and exploratory trial to investigate the pharmacokinetic of ceftobiprole medocaril  in patients with CSF device</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="b">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="b">
         <v>0</v>
       </c>
       <c r="K69" t="b">
         <v>0</v>
       </c>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="b">
+        <v>0</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3684,32 +4029,37 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>NCT01904799</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr">
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr">
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
         <is>
           <t>Casper</t>
         </is>
       </c>
-      <c r="I70" t="b">
-        <v>0</v>
-      </c>
       <c r="J70" t="b">
         <v>0</v>
       </c>
       <c r="K70" t="b">
         <v>0</v>
       </c>
-      <c r="L70" t="inlineStr">
+      <c r="L70" t="b">
+        <v>0</v>
+      </c>
+      <c r="M70" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3728,36 +4078,41 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>NCT01766596</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr">
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>Study the Signs of Ocular Degeneration in a Population Cohort (Dijon 3C Montrachet Cohort): Seek Correlations Between Signs of Neurological and Vascular Degeneration and Signs of Ocular Aging</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>3C</t>
         </is>
       </c>
-      <c r="I71" t="b">
-        <v>0</v>
-      </c>
       <c r="J71" t="b">
         <v>0</v>
       </c>
       <c r="K71" t="b">
         <v>0</v>
       </c>
-      <c r="L71" t="inlineStr">
+      <c r="L71" t="b">
+        <v>0</v>
+      </c>
+      <c r="M71" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -3776,28 +4131,30 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>NCT02859753</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr">
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>Prospective Randomized Controlled Study Comparing Response and Recurrence Rates Following Percutaneous Microwave Coagulation Therapy (MCT) Versus Percutaneous Radiofrequency Ablation (RFA) in Patients With Chronic Liver Disease and Hepatocellular Carcinoma</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>Thermoablation</t>
         </is>
-      </c>
-      <c r="I72" t="b">
-        <v>1</v>
       </c>
       <c r="J72" t="b">
         <v>1</v>
@@ -3805,7 +4162,10 @@
       <c r="K72" t="b">
         <v>1</v>
       </c>
-      <c r="L72" t="inlineStr">
+      <c r="L72" t="b">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3824,36 +4184,41 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>NCT02856074</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr">
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>Prognosis After Revascularization Therapy in the Dijon Ischemic Stroke Evaluation Study</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>PARADISE</t>
         </is>
       </c>
-      <c r="I73" t="b">
-        <v>0</v>
-      </c>
       <c r="J73" t="b">
         <v>0</v>
       </c>
       <c r="K73" t="b">
         <v>0</v>
       </c>
-      <c r="L73" t="inlineStr">
+      <c r="L73" t="b">
+        <v>0</v>
+      </c>
+      <c r="M73" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -3872,36 +4237,41 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>NCT04888143</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr">
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>Optimization of Cochlear Implant Fitting in Patients With Functional Contralateral Hearing Using an Evolutionary Algorithm.</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>Algo Fréq</t>
         </is>
       </c>
-      <c r="I74" t="b">
-        <v>0</v>
-      </c>
       <c r="J74" t="b">
         <v>0</v>
       </c>
       <c r="K74" t="b">
         <v>0</v>
       </c>
-      <c r="L74" t="inlineStr">
+      <c r="L74" t="b">
+        <v>0</v>
+      </c>
+      <c r="M74" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3920,32 +4290,37 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>NCT02402855</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr">
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>Impact of Conditional Financial Support on Pregnancy Outcomes in Pregnant Women With Low Incomes: Pragmatic Randomized Cluster Trial, With Parallel Arms</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="b">
-        <v>1</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="b">
         <v>1</v>
       </c>
       <c r="K75" t="b">
         <v>1</v>
       </c>
-      <c r="L75" t="inlineStr">
+      <c r="L75" t="b">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -3964,28 +4339,30 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>NCT03951519</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr">
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>Effect of Oral Water on the Quality of Volume Expansion in Resuscitation Patients: Pilot Study (The Water Study)</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>WATER</t>
         </is>
-      </c>
-      <c r="I76" t="b">
-        <v>1</v>
       </c>
       <c r="J76" t="b">
         <v>1</v>
@@ -3993,7 +4370,10 @@
       <c r="K76" t="b">
         <v>1</v>
       </c>
-      <c r="L76" t="inlineStr">
+      <c r="L76" t="b">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4012,28 +4392,30 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>NCT02505126</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr">
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>A Randomized Double-blind Clinical Trial on the Efficacy of Transcranial Direct Current Stimulation (tDCS) in Reducing Alcohol Consumption in Non-abstinent Patients With Alcohol Use Disorder</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>REDSTIM</t>
         </is>
-      </c>
-      <c r="I77" t="b">
-        <v>1</v>
       </c>
       <c r="J77" t="b">
         <v>1</v>
@@ -4041,7 +4423,10 @@
       <c r="K77" t="b">
         <v>1</v>
       </c>
-      <c r="L77" t="inlineStr">
+      <c r="L77" t="b">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -4060,36 +4445,41 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>NCT03269058</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr">
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>Effects of Dapagliflozin on Lipoprotein Kinetics in Patients With Type 2 Diabetes</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>Cinétique DAPA</t>
         </is>
       </c>
-      <c r="I78" t="b">
-        <v>0</v>
-      </c>
       <c r="J78" t="b">
         <v>0</v>
       </c>
       <c r="K78" t="b">
         <v>0</v>
       </c>
-      <c r="L78" t="inlineStr">
+      <c r="L78" t="b">
+        <v>0</v>
+      </c>
+      <c r="M78" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -4108,36 +4498,41 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
           <t>NCT03280875</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr">
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>Personalisation of Exercise by Muscle Modulation, Step 1: Construction and Validation of an Algorithm for Personalisation for Pedalling Exercises</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>EXOMODE</t>
         </is>
       </c>
-      <c r="I79" t="b">
-        <v>0</v>
-      </c>
       <c r="J79" t="b">
         <v>0</v>
       </c>
       <c r="K79" t="b">
         <v>0</v>
       </c>
-      <c r="L79" t="inlineStr">
+      <c r="L79" t="b">
+        <v>0</v>
+      </c>
+      <c r="M79" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4156,36 +4551,41 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>NCT04860414</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr">
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>Prospective Monocentric Study of Taste in Patients With Minor or Major Cognitive Disorders Such as Alzheimer's, Through the Analysis of Gustatory Evoked Potentials</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>MAPEG</t>
         </is>
       </c>
-      <c r="I80" t="b">
-        <v>0</v>
-      </c>
       <c r="J80" t="b">
         <v>0</v>
       </c>
       <c r="K80" t="b">
         <v>0</v>
       </c>
-      <c r="L80" t="inlineStr">
+      <c r="L80" t="b">
+        <v>0</v>
+      </c>
+      <c r="M80" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -4204,36 +4604,41 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
           <t>NCT03288727</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr">
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>Incidental Findings Produced by Diagnostic HTS: From the Needs of Patients to Organisational Considerations</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>FIND</t>
         </is>
       </c>
-      <c r="I81" t="b">
-        <v>0</v>
-      </c>
       <c r="J81" t="b">
         <v>0</v>
       </c>
       <c r="K81" t="b">
         <v>0</v>
       </c>
-      <c r="L81" t="inlineStr">
+      <c r="L81" t="b">
+        <v>0</v>
+      </c>
+      <c r="M81" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4252,36 +4657,41 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
           <t>NCT03097276</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr">
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>Management of Patients With High C-reactive Protein After Scheduled Resection of Colorectal Cancer: Pilot Study</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>GESPACE</t>
         </is>
       </c>
-      <c r="I82" t="b">
-        <v>0</v>
-      </c>
       <c r="J82" t="b">
         <v>0</v>
       </c>
       <c r="K82" t="b">
         <v>0</v>
       </c>
-      <c r="L82" t="inlineStr">
+      <c r="L82" t="b">
+        <v>0</v>
+      </c>
+      <c r="M82" t="inlineStr">
         <is>
           <t>RADIATION</t>
         </is>
@@ -4300,36 +4710,41 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>NCT04820959</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr">
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>Validation of New Therapeutic Targets to Prevent Collagen Accumulation During Cardiac Fibrosis: Procollagen C-proteinase Enhancers</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>CARDIACTIV</t>
         </is>
       </c>
-      <c r="I83" t="b">
-        <v>0</v>
-      </c>
       <c r="J83" t="b">
         <v>0</v>
       </c>
       <c r="K83" t="b">
         <v>0</v>
       </c>
-      <c r="L83" t="inlineStr">
+      <c r="L83" t="b">
+        <v>0</v>
+      </c>
+      <c r="M83" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -4348,28 +4763,30 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>NCT02816099</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr">
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>Study of the Influence of Glycaemic Balance on the Ability of Apolipoprotein C1 to Inhibit Cholesterol Ester Transfer Protein (CETP) in Type-1 Diabetes Patients</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>ApoC1</t>
         </is>
-      </c>
-      <c r="I84" t="b">
-        <v>1</v>
       </c>
       <c r="J84" t="b">
         <v>1</v>
@@ -4377,7 +4794,10 @@
       <c r="K84" t="b">
         <v>1</v>
       </c>
-      <c r="L84" t="inlineStr">
+      <c r="L84" t="b">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -4396,32 +4816,37 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
           <t>NCT03334526</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr">
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>Corticospinal and Neuromuscular Plasticity Induced by Real and Imaginary Contractions.</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="b">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="b">
         <v>0</v>
       </c>
       <c r="K85" t="b">
         <v>0</v>
       </c>
-      <c r="L85" t="inlineStr">
+      <c r="L85" t="b">
+        <v>0</v>
+      </c>
+      <c r="M85" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4440,36 +4865,41 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>NCT04591743</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr">
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>Effectiveness of Transcranial Magnetic Stimulation (TMS) in Smoking Cessation, Combining Withdrawal Stimulation Followed by Maintenance Stimulation to Prevent Relapse: Single-center, Randomized, Controlled, Blinded Pilot Study</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>TabacStim2</t>
         </is>
       </c>
-      <c r="I86" t="b">
-        <v>0</v>
-      </c>
       <c r="J86" t="b">
         <v>0</v>
       </c>
       <c r="K86" t="b">
         <v>0</v>
       </c>
-      <c r="L86" t="inlineStr">
+      <c r="L86" t="b">
+        <v>0</v>
+      </c>
+      <c r="M86" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -4488,36 +4918,41 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
           <t>NCT03818269</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr">
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>Study of Subcutaneous Interstitial Pressure During Sepsis</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>PISEP</t>
         </is>
       </c>
-      <c r="I87" t="b">
-        <v>0</v>
-      </c>
       <c r="J87" t="b">
         <v>0</v>
       </c>
       <c r="K87" t="b">
         <v>0</v>
       </c>
-      <c r="L87" t="inlineStr">
+      <c r="L87" t="b">
+        <v>0</v>
+      </c>
+      <c r="M87" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -4536,36 +4971,41 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>NCT02085772</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr">
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>Is Impaired Activation and Migration of Circulating Leukocytes Associated With Overdue Birth in Obese Women?</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>LOST</t>
         </is>
       </c>
-      <c r="I88" t="b">
-        <v>0</v>
-      </c>
       <c r="J88" t="b">
         <v>0</v>
       </c>
       <c r="K88" t="b">
         <v>0</v>
       </c>
-      <c r="L88" t="inlineStr">
+      <c r="L88" t="b">
+        <v>0</v>
+      </c>
+      <c r="M88" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4584,28 +5024,30 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
           <t>NCT05032521</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr">
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>Treatment of Hyperlactatemia in Acute Circulatory Failure Based on Analysis of CO2: a Prospective Randomized Superiority Study (The LACTEL Study)</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>LACTEL</t>
         </is>
-      </c>
-      <c r="I89" t="b">
-        <v>1</v>
       </c>
       <c r="J89" t="b">
         <v>1</v>
@@ -4613,7 +5055,10 @@
       <c r="K89" t="b">
         <v>1</v>
       </c>
-      <c r="L89" t="inlineStr">
+      <c r="L89" t="b">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -4632,36 +5077,41 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
           <t>NCT05739448</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr">
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>Impact of an Intervention Combining Fortified Meals and Physical Activity in the Prevention of Undernutrition in Seniors : a Randomized Controlled Trial</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>FORTIPHY</t>
         </is>
       </c>
-      <c r="I90" t="b">
-        <v>0</v>
-      </c>
       <c r="J90" t="b">
         <v>0</v>
       </c>
       <c r="K90" t="b">
         <v>0</v>
       </c>
-      <c r="L90" t="inlineStr">
+      <c r="L90" t="b">
+        <v>0</v>
+      </c>
+      <c r="M90" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4680,28 +5130,30 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
           <t>NCT04886180</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr">
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>Evaluation of Oxiris Membrane as a Treatment for Ischemia-reperfusion Syndrome in Cardiogenic Shock Treated With Extracorporeal Life Support (ECMO/ECLS): A Randomized Pilot Study ECMORIX</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>ECMORIX</t>
         </is>
-      </c>
-      <c r="I91" t="b">
-        <v>1</v>
       </c>
       <c r="J91" t="b">
         <v>1</v>
@@ -4709,7 +5161,10 @@
       <c r="K91" t="b">
         <v>1</v>
       </c>
-      <c r="L91" t="inlineStr">
+      <c r="L91" t="b">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -4728,36 +5183,41 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>NCT03498001</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr">
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>Effects of GLP-1 Agonists on CArdiac Steatosis Evaluated by Magnetic Resonance Imaging</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>LICAS-MR</t>
         </is>
       </c>
-      <c r="I92" t="b">
-        <v>0</v>
-      </c>
       <c r="J92" t="b">
         <v>0</v>
       </c>
       <c r="K92" t="b">
         <v>0</v>
       </c>
-      <c r="L92" t="inlineStr">
+      <c r="L92" t="b">
+        <v>0</v>
+      </c>
+      <c r="M92" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -4776,36 +5236,41 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
           <t>NCT03773198</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr">
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>Effectiveness of Energy Resonance by Skin Stimulation in the Management of Anxious Patients Who Require Scheduled Orthopaedic Surgery</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>ERESCAO</t>
         </is>
       </c>
-      <c r="I93" t="b">
-        <v>0</v>
-      </c>
       <c r="J93" t="b">
         <v>0</v>
       </c>
       <c r="K93" t="b">
         <v>0</v>
       </c>
-      <c r="L93" t="inlineStr">
+      <c r="L93" t="b">
+        <v>0</v>
+      </c>
+      <c r="M93" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -4824,36 +5289,41 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
           <t>NCT03711448</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr">
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>Ustekinumab for the Treatment of Relapse of Refractory Giant Cell Arteritis</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>ULTRA</t>
         </is>
       </c>
-      <c r="I94" t="b">
-        <v>0</v>
-      </c>
       <c r="J94" t="b">
         <v>0</v>
       </c>
       <c r="K94" t="b">
         <v>0</v>
       </c>
-      <c r="L94" t="inlineStr">
+      <c r="L94" t="b">
+        <v>0</v>
+      </c>
+      <c r="M94" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -4872,36 +5342,41 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
           <t>NCT04886453</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
-      <c r="F95" t="inlineStr">
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>Evaluation of Non-opioid Balanced General Anesthesia in Cardiac Surgery With Extracorporeal Circulation: a Randomized, Controlled, Multicenter Superiority Trial</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>OFACAR</t>
         </is>
       </c>
-      <c r="I95" t="b">
-        <v>0</v>
-      </c>
       <c r="J95" t="b">
         <v>0</v>
       </c>
       <c r="K95" t="b">
         <v>0</v>
       </c>
-      <c r="L95" t="inlineStr">
+      <c r="L95" t="b">
+        <v>0</v>
+      </c>
+      <c r="M95" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -4920,28 +5395,30 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté dans les 12 mois</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
           <t>NCT03480191</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr"/>
-      <c r="F96" t="inlineStr">
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>Adjunction of Daptomycin for the Treatment of Pneumococcal Meningitis: AddaMAP Study</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>AddaMAP</t>
         </is>
-      </c>
-      <c r="I96" t="b">
-        <v>1</v>
       </c>
       <c r="J96" t="b">
         <v>1</v>
@@ -4949,7 +5426,10 @@
       <c r="K96" t="b">
         <v>1</v>
       </c>
-      <c r="L96" t="inlineStr">
+      <c r="L96" t="b">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -4968,36 +5448,41 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>NCT04312178</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr">
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>Combined Incentive Actions, Focusing on Primary Care, to Improve Cervical Cancer Screening in Women Residing in Socio-economically Disadvantaged and Untracked Geographical Areas: a Hybrid Efficacy and Implementation Trial</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>RESISTE</t>
         </is>
       </c>
-      <c r="I97" t="b">
-        <v>0</v>
-      </c>
       <c r="J97" t="b">
         <v>0</v>
       </c>
       <c r="K97" t="b">
         <v>0</v>
       </c>
-      <c r="L97" t="inlineStr">
+      <c r="L97" t="b">
+        <v>0</v>
+      </c>
+      <c r="M97" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -5016,32 +5501,37 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
           <t>NCT02557451</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr">
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr">
         <is>
           <t>Subretinal Haematoma in AMD: Randomized Controlled Study of 2 Therapeutic Approaches in the Antiangiogenic Era</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>STAR</t>
         </is>
       </c>
-      <c r="I98" t="b">
-        <v>0</v>
-      </c>
       <c r="J98" t="b">
         <v>0</v>
       </c>
       <c r="K98" t="b">
         <v>0</v>
       </c>
-      <c r="L98" t="inlineStr">
+      <c r="L98" t="b">
+        <v>0</v>
+      </c>
+      <c r="M98" t="inlineStr">
         <is>
           <t>PROCEDURE</t>
         </is>
@@ -5060,28 +5550,33 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
           <t>NCT02814747</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr">
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr">
         <is>
           <t>Preferences and Representations Concerning High-throughput Sequencing Technologies in Medical Genetics. The Case of Development Anomalies.</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr"/>
-      <c r="I99" t="b">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="b">
         <v>0</v>
       </c>
       <c r="K99" t="b">
         <v>0</v>
       </c>
-      <c r="L99" t="inlineStr">
+      <c r="L99" t="b">
+        <v>0</v>
+      </c>
+      <c r="M99" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -5100,36 +5595,41 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
           <t>NCT01358747</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>2010-022844-19</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr"/>
-      <c r="G100" t="inlineStr">
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr">
         <is>
           <t>Randomized Phase III Study of a Treatment Driven by Early PET Response Compared to a Treatment Not Monitored by Early PET in Patients With Ann Arbor Stage III-IV or High Risk IIB Hodgkin Lymphoma</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>AHL 2011</t>
         </is>
       </c>
-      <c r="I100" t="b">
-        <v>0</v>
-      </c>
       <c r="J100" t="b">
         <v>0</v>
       </c>
       <c r="K100" t="b">
+        <v>0</v>
+      </c>
+      <c r="L100" t="b">
         <v>1</v>
       </c>
-      <c r="L100" t="inlineStr">
+      <c r="M100" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -5148,32 +5648,37 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
           <t>NCT01950754</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr">
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr">
         <is>
           <t>Study of the Effect of a Cognitive Task on Static Balance in Depressive Elderly Subjects According to the Double Task Principle</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>DOUBLE TACHE</t>
         </is>
       </c>
-      <c r="I101" t="b">
-        <v>0</v>
-      </c>
       <c r="J101" t="b">
         <v>0</v>
       </c>
       <c r="K101" t="b">
         <v>0</v>
       </c>
-      <c r="L101" t="inlineStr">
+      <c r="L101" t="b">
+        <v>0</v>
+      </c>
+      <c r="M101" t="inlineStr">
         <is>
           <t>BEHAVIORAL</t>
         </is>
@@ -5192,32 +5697,37 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
           <t>NCT01884883</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr">
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr">
         <is>
           <t>Evaluation of a Distraction-rotation Knee Unloader Brace in Patients With Medial Knee Osteoarthritis.</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
+      <c r="I102" t="inlineStr">
         <is>
           <t>ORFEVRE</t>
         </is>
       </c>
-      <c r="I102" t="b">
-        <v>0</v>
-      </c>
       <c r="J102" t="b">
         <v>0</v>
       </c>
       <c r="K102" t="b">
         <v>0</v>
       </c>
-      <c r="L102" t="inlineStr">
+      <c r="L102" t="b">
+        <v>0</v>
+      </c>
+      <c r="M102" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -5236,32 +5746,37 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
           <t>NCT02855970</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr">
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr">
         <is>
           <t>Development and Validation of a French Quality Of Life Scale Specific to Patients Who Have Suffered a Stroke</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
+      <c r="I103" t="inlineStr">
         <is>
           <t>QUALI STROKE</t>
         </is>
       </c>
-      <c r="I103" t="b">
-        <v>0</v>
-      </c>
       <c r="J103" t="b">
         <v>0</v>
       </c>
       <c r="K103" t="b">
         <v>0</v>
       </c>
-      <c r="L103" t="inlineStr">
+      <c r="L103" t="b">
+        <v>0</v>
+      </c>
+      <c r="M103" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -5280,32 +5795,37 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
           <t>NCT02080793</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr">
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr">
         <is>
           <t>STUDY OF PREFERENCES IN MEN FACED WITH THE DIFFERENT TREATMENT OPTIONS FOR LOCALIZED PROSTRATE CANCER WITH A GOOD OR INTERMEDIATE PROGNOSIS</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
+      <c r="I104" t="inlineStr">
         <is>
           <t>CALIPSO</t>
         </is>
       </c>
-      <c r="I104" t="b">
-        <v>0</v>
-      </c>
       <c r="J104" t="b">
         <v>0</v>
       </c>
       <c r="K104" t="b">
         <v>0</v>
       </c>
-      <c r="L104" t="inlineStr">
+      <c r="L104" t="b">
+        <v>0</v>
+      </c>
+      <c r="M104" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -5324,28 +5844,33 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
           <t>NCT02046707</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr">
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr">
         <is>
           <t>Evaluation of the Effects of Eccentric Muscle Training Versus Conventional Concentric Training in Chronic Heart Failure</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr"/>
-      <c r="I105" t="b">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="b">
         <v>0</v>
       </c>
       <c r="K105" t="b">
         <v>0</v>
       </c>
-      <c r="L105" t="inlineStr">
+      <c r="L105" t="b">
+        <v>0</v>
+      </c>
+      <c r="M105" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -5364,32 +5889,37 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
           <t>NCT02055664</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr">
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr">
         <is>
           <t>THE TAP BLOCK TECHNIQUE VIA THE ANTERIOR APPROACH IN ELECTIVE SURGERY OF THE SPINE: Prospective, Randomised, Double Blind Trial, Comparing TAP BLOCK With Continuous Infiltration of Ropivacaine Versus Placebo</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
+      <c r="I106" t="inlineStr">
         <is>
           <t>TAPBloc Rachis</t>
         </is>
       </c>
-      <c r="I106" t="b">
-        <v>0</v>
-      </c>
       <c r="J106" t="b">
         <v>0</v>
       </c>
       <c r="K106" t="b">
         <v>0</v>
       </c>
-      <c r="L106" t="inlineStr">
+      <c r="L106" t="b">
+        <v>0</v>
+      </c>
+      <c r="M106" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -5408,28 +5938,33 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
           <t>NCT02042508</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr">
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr">
         <is>
           <t>Evaluation of a Hybrid Prototype Strategy (Electrostimulation of Lower Limb Muscles Associated With Voluntary Strengthening of the Upper Limbs) in Reconditioning to Effort in Patients With Chronic Paraplegia.</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr"/>
-      <c r="I107" t="b">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="b">
         <v>0</v>
       </c>
       <c r="K107" t="b">
         <v>0</v>
       </c>
-      <c r="L107" t="inlineStr">
+      <c r="L107" t="b">
+        <v>0</v>
+      </c>
+      <c r="M107" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -5448,32 +5983,37 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
           <t>NCT02860299</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr">
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr">
         <is>
           <t>Evaluation of Systemic Leakage When a Heparin or Citrate Lock is Injected and Biological and Clinical Repercussions: Ancillary Study of the VERROU-REA Randomized Controlled Trial</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
+      <c r="I108" t="inlineStr">
         <is>
           <t>VERROU HEMOST</t>
         </is>
       </c>
-      <c r="I108" t="b">
-        <v>0</v>
-      </c>
       <c r="J108" t="b">
         <v>0</v>
       </c>
       <c r="K108" t="b">
         <v>0</v>
       </c>
-      <c r="L108" t="inlineStr">
+      <c r="L108" t="b">
+        <v>0</v>
+      </c>
+      <c r="M108" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -5492,32 +6032,37 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
           <t>NCT02866474</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr">
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr">
         <is>
           <t>Efficacy of the Implementation of a Food and Nutritional Support Strategy Adapted to Dependent Elderly Subjects: Controlled Trial.</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
+      <c r="I109" t="inlineStr">
         <is>
           <t>RENES+</t>
         </is>
       </c>
-      <c r="I109" t="b">
-        <v>0</v>
-      </c>
       <c r="J109" t="b">
         <v>0</v>
       </c>
       <c r="K109" t="b">
         <v>0</v>
       </c>
-      <c r="L109" t="inlineStr">
+      <c r="L109" t="b">
+        <v>0</v>
+      </c>
+      <c r="M109" t="inlineStr">
         <is>
           <t>DIETARY_SUPPLEMENT</t>
         </is>
@@ -5536,32 +6081,37 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
           <t>NCT02765685</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr">
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr">
         <is>
           <t>Randomized Controlled Trial in Internal Compartment Knee Osteoarthritis: ODRA Made-to-measure Hinged Knee Brace Versus Usual Care.</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
+      <c r="I110" t="inlineStr">
         <is>
           <t>ERGONOMIE</t>
         </is>
       </c>
-      <c r="I110" t="b">
-        <v>0</v>
-      </c>
       <c r="J110" t="b">
         <v>0</v>
       </c>
       <c r="K110" t="b">
         <v>0</v>
       </c>
-      <c r="L110" t="inlineStr">
+      <c r="L110" t="b">
+        <v>0</v>
+      </c>
+      <c r="M110" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -5580,32 +6130,37 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
+          <t>résultat et / ou publication posté</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
           <t>NCT01950975</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr">
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr">
         <is>
           <t>Screening for Chromosomal Microarrangements by CGH-array in Developmental Anomalies of the Skin Suggestive of Mosaicism. National Multicentre Descriptive Study.</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
+      <c r="I111" t="inlineStr">
         <is>
           <t>MOSAÏQUE</t>
         </is>
       </c>
-      <c r="I111" t="b">
-        <v>0</v>
-      </c>
       <c r="J111" t="b">
         <v>0</v>
       </c>
       <c r="K111" t="b">
+        <v>0</v>
+      </c>
+      <c r="L111" t="b">
         <v>1</v>
       </c>
-      <c r="L111" t="inlineStr">
+      <c r="M111" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -5624,32 +6179,37 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
           <t>NCT02870010</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr">
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr">
         <is>
           <t>Chemoembolization of Non-resectable Non-metastatic Hepatocellular Carcinoma Using Embolization Microspheres (DC Bead™) Loaded With Idarubicin (Zavedos®): Phase 1 Study</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
+      <c r="I112" t="inlineStr">
         <is>
           <t>IDASPHERE</t>
         </is>
       </c>
-      <c r="I112" t="b">
-        <v>0</v>
-      </c>
       <c r="J112" t="b">
         <v>0</v>
       </c>
       <c r="K112" t="b">
         <v>0</v>
       </c>
-      <c r="L112" t="inlineStr">
+      <c r="L112" t="b">
+        <v>0</v>
+      </c>
+      <c r="M112" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -5668,32 +6228,37 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
           <t>NCT02862886</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr">
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr">
         <is>
           <t>Study of the Effect of Beta-3 Adrenergic Receptor Agonists on Oxidative Stress and Signalling Pathways Implicated in Remodelling of the Uteroplacental Space: Experimental in Vitro Approach on Myometrial Tissue Explants</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
+      <c r="I113" t="inlineStr">
         <is>
           <t>STRESSOX</t>
         </is>
       </c>
-      <c r="I113" t="b">
-        <v>0</v>
-      </c>
       <c r="J113" t="b">
         <v>0</v>
       </c>
       <c r="K113" t="b">
         <v>0</v>
       </c>
-      <c r="L113" t="inlineStr">
+      <c r="L113" t="b">
+        <v>0</v>
+      </c>
+      <c r="M113" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -5712,32 +6277,37 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
           <t>NCT02820662</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr">
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr">
         <is>
           <t>Study of the Implication of Omega-3 Polyunsaturated Fatty Acids in Retinopathy of Prematurity in Newborns</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
+      <c r="I114" t="inlineStr">
         <is>
           <t>OMEGAROP</t>
         </is>
       </c>
-      <c r="I114" t="b">
-        <v>0</v>
-      </c>
       <c r="J114" t="b">
         <v>0</v>
       </c>
       <c r="K114" t="b">
         <v>0</v>
       </c>
-      <c r="L114" t="inlineStr">
+      <c r="L114" t="b">
+        <v>0</v>
+      </c>
+      <c r="M114" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -5756,32 +6326,37 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
           <t>NCT02856191</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr">
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr">
         <is>
           <t>Prospective Study on the Frequency of de Novo Atrial Fibrillation in Septic Shock in Medical Intensive Care</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
+      <c r="I115" t="inlineStr">
         <is>
           <t>FACS</t>
         </is>
       </c>
-      <c r="I115" t="b">
-        <v>0</v>
-      </c>
       <c r="J115" t="b">
         <v>0</v>
       </c>
       <c r="K115" t="b">
         <v>0</v>
       </c>
-      <c r="L115" t="inlineStr">
+      <c r="L115" t="b">
+        <v>0</v>
+      </c>
+      <c r="M115" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -5800,32 +6375,37 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
           <t>NCT02860260</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr">
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr">
         <is>
           <t>Kinetics of Plasma and Serum Levels of Brain-Derived Neurotrophic Factor (BDNF) in Patients With Ischemic Stroke: Effect of Intravenous Fibrinolysis With Rt-PA</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
+      <c r="I116" t="inlineStr">
         <is>
           <t>BDNF</t>
         </is>
       </c>
-      <c r="I116" t="b">
-        <v>0</v>
-      </c>
       <c r="J116" t="b">
         <v>0</v>
       </c>
       <c r="K116" t="b">
         <v>0</v>
       </c>
-      <c r="L116" t="inlineStr">
+      <c r="L116" t="b">
+        <v>0</v>
+      </c>
+      <c r="M116" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -5844,32 +6424,37 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
           <t>NCT02812810</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
-      <c r="G117" t="inlineStr">
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr">
         <is>
           <t>Evaluation of the Efficacy of Low-frequency rTMS on Craving in Smoking Dependence: Single-centre Randomized, Controlled Blinded Pilot Study</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
+      <c r="I117" t="inlineStr">
         <is>
           <t>rTMS TABAC</t>
         </is>
       </c>
-      <c r="I117" t="b">
-        <v>0</v>
-      </c>
       <c r="J117" t="b">
         <v>0</v>
       </c>
       <c r="K117" t="b">
         <v>0</v>
       </c>
-      <c r="L117" t="inlineStr">
+      <c r="L117" t="b">
+        <v>0</v>
+      </c>
+      <c r="M117" t="inlineStr">
         <is>
           <t>DEVICE</t>
         </is>
@@ -5888,24 +6473,29 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
           <t>NCT01903694</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr"/>
-      <c r="I118" t="b">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="b">
         <v>0</v>
       </c>
       <c r="K118" t="b">
         <v>0</v>
       </c>
-      <c r="L118" t="inlineStr">
+      <c r="L118" t="b">
+        <v>0</v>
+      </c>
+      <c r="M118" t="inlineStr">
         <is>
           <t>DRUG</t>
         </is>
@@ -5924,32 +6514,37 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
           <t>NCT01950962</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr"/>
-      <c r="G119" t="inlineStr">
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr">
         <is>
           <t>ROLE OF PHOSPHOLIPID TRANSFER PROTEINS (PLTP) ON ENDOTOXEMIA CAUSED BY BUCCAL INFLAMMATION</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
+      <c r="I119" t="inlineStr">
         <is>
           <t>TOXIB</t>
         </is>
       </c>
-      <c r="I119" t="b">
-        <v>0</v>
-      </c>
       <c r="J119" t="b">
         <v>0</v>
       </c>
       <c r="K119" t="b">
         <v>0</v>
       </c>
-      <c r="L119" t="inlineStr">
+      <c r="L119" t="b">
+        <v>0</v>
+      </c>
+      <c r="M119" t="inlineStr">
         <is>
           <t>OTHER</t>
         </is>
@@ -5968,32 +6563,37 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
           <t>NCT02851680</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr">
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr">
         <is>
           <t>Prospective Study on the Interest of ß 1-3 D Glucan Assays in Screening for the Onset of Invasive Aspergillosis in Neutropenic Patients With Acute Leukaemia.</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
+      <c r="I120" t="inlineStr">
         <is>
           <t>BETA GLUCAN</t>
         </is>
       </c>
-      <c r="I120" t="b">
-        <v>0</v>
-      </c>
       <c r="J120" t="b">
         <v>0</v>
       </c>
       <c r="K120" t="b">
         <v>0</v>
       </c>
-      <c r="L120" t="inlineStr">
+      <c r="L120" t="b">
+        <v>0</v>
+      </c>
+      <c r="M120" t="inlineStr">
         <is>
           <t>BIOLOGICAL</t>
         </is>
@@ -6010,34 +6610,39 @@
           <t>noir</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr"/>
-      <c r="D121" t="inlineStr">
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>pas de résultat ni de publication</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr">
         <is>
           <t>2021-000066-16</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr"/>
-      <c r="G121" t="inlineStr">
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr">
         <is>
           <t>ÉVALUATION D’UNE ANESTHÉSIE GÉNÉRALE BALANCÉE NON OPIOÏDE EN CHIRURGIE CARDIAQUE AVEC CIRCULATION EXTRA-CORPORELLE : ESSAI CLINIQUE RANDOMISÉ, CONTRÔLE, MULTICENTRIQUE DE SUPÉRIORITÉ</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
+      <c r="I121" t="inlineStr">
         <is>
           <t>OFACAR</t>
         </is>
       </c>
-      <c r="I121" t="b">
-        <v>0</v>
-      </c>
       <c r="J121" t="b">
         <v>0</v>
       </c>
       <c r="K121" t="b">
         <v>0</v>
       </c>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="b">
+        <v>0</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/publipostage2/0377z4z10/liste_essais_cliniques_identifies_0377z4z10.xlsx
+++ b/publipostage2/0377z4z10/liste_essais_cliniques_identifies_0377z4z10.xlsx
@@ -55,19 +55,19 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>⬛</t>
-  </si>
-  <si>
-    <t>🟥</t>
-  </si>
-  <si>
-    <t>🟧</t>
-  </si>
-  <si>
-    <t>🟩</t>
-  </si>
-  <si>
-    <t>noir</t>
+    <t>📘</t>
+  </si>
+  <si>
+    <t>📕</t>
+  </si>
+  <si>
+    <t>📙</t>
+  </si>
+  <si>
+    <t>📗</t>
+  </si>
+  <si>
+    <t>bleu</t>
   </si>
   <si>
     <t>rouge</t>

--- a/publipostage2/0377z4z10/liste_essais_cliniques_identifies_0377z4z10.xlsx
+++ b/publipostage2/0377z4z10/liste_essais_cliniques_identifies_0377z4z10.xlsx
@@ -55,16 +55,16 @@
     <t>intervention_type</t>
   </si>
   <si>
-    <t>📘</t>
-  </si>
-  <si>
-    <t>📕</t>
-  </si>
-  <si>
-    <t>📙</t>
-  </si>
-  <si>
-    <t>📗</t>
+    <t>⚠️</t>
+  </si>
+  <si>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>+3</t>
+  </si>
+  <si>
+    <t>✅</t>
   </si>
   <si>
     <t>bleu</t>

--- a/publipostage2/0377z4z10/liste_essais_cliniques_identifies_0377z4z10.xlsx
+++ b/publipostage2/0377z4z10/liste_essais_cliniques_identifies_0377z4z10.xlsx
@@ -67,7 +67,7 @@
     <t>✅</t>
   </si>
   <si>
-    <t>bleu</t>
+    <t>noir</t>
   </si>
   <si>
     <t>rouge</t>
@@ -79,16 +79,16 @@
     <t>vert</t>
   </si>
   <si>
-    <t>pas de résultat ni de publication</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 36 mois</t>
-  </si>
-  <si>
-    <t>résultat et / ou publication posté dans les 12 mois</t>
+    <t>pas de résultat postés ni publiés</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 36 mois</t>
+  </si>
+  <si>
+    <t>résultat postés ou publiés dans les 12 mois</t>
   </si>
   <si>
     <t>NCT00851760</t>

--- a/publipostage2/0377z4z10/liste_essais_cliniques_identifies_0377z4z10.xlsx
+++ b/publipostage2/0377z4z10/liste_essais_cliniques_identifies_0377z4z10.xlsx
@@ -43,63 +43,63 @@
     <t>intervention_type</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
+    <t>3: résultats postés ou publiés après les 36 mois</t>
+  </si>
+  <si>
     <t>4: pas de résultats postés ni publiés</t>
   </si>
   <si>
-    <t>3: résultats postés ou publiés après les 36 mois</t>
-  </si>
-  <si>
     <t>2: résultats postés ou publiés entre 12 et 36 mois</t>
   </si>
   <si>
     <t>1: résultats postés ou publiés dans les 12 mois</t>
   </si>
   <si>
+    <t>NCT00658463</t>
+  </si>
+  <si>
     <t>NCT00851760</t>
   </si>
   <si>
-    <t>NCT00658463</t>
-  </si>
-  <si>
     <t>NCT00629044</t>
   </si>
   <si>
     <t>NCT01481987</t>
   </si>
   <si>
+    <t>NCT02873858</t>
+  </si>
+  <si>
     <t>NCT01907620</t>
   </si>
   <si>
-    <t>NCT02873858</t>
-  </si>
-  <si>
     <t>NCT01599338</t>
   </si>
   <si>
+    <t>NCT01907477</t>
+  </si>
+  <si>
+    <t>NCT01040559</t>
+  </si>
+  <si>
+    <t>NCT00354237</t>
+  </si>
+  <si>
     <t>NCT03657979</t>
   </si>
   <si>
-    <t>NCT00354237</t>
-  </si>
-  <si>
-    <t>NCT01040559</t>
-  </si>
-  <si>
-    <t>NCT01907477</t>
-  </si>
-  <si>
     <t>NCT00953498</t>
   </si>
   <si>
@@ -109,43 +109,55 @@
     <t>NCT01963299</t>
   </si>
   <si>
+    <t>NCT02859090</t>
+  </si>
+  <si>
+    <t>NCT02028936</t>
+  </si>
+  <si>
+    <t>NCT01510314</t>
+  </si>
+  <si>
+    <t>NCT02080728</t>
+  </si>
+  <si>
     <t>NCT01907399</t>
   </si>
   <si>
-    <t>NCT02028936</t>
-  </si>
-  <si>
-    <t>NCT01510314</t>
-  </si>
-  <si>
-    <t>NCT02080728</t>
-  </si>
-  <si>
-    <t>NCT02859090</t>
-  </si>
-  <si>
     <t>NCT01768078</t>
   </si>
   <si>
     <t>NCT02814240</t>
   </si>
   <si>
+    <t>NCT01767038</t>
+  </si>
+  <si>
     <t>NCT01904812</t>
   </si>
   <si>
+    <t>NCT02855866</t>
+  </si>
+  <si>
+    <t>NCT02810041</t>
+  </si>
+  <si>
     <t>NCT01340222</t>
   </si>
   <si>
-    <t>NCT01767038</t>
-  </si>
-  <si>
     <t>NCT01766362</t>
   </si>
   <si>
-    <t>NCT02855866</t>
-  </si>
-  <si>
-    <t>NCT02810041</t>
+    <t>NCT02856009</t>
+  </si>
+  <si>
+    <t>NCT02443818</t>
+  </si>
+  <si>
+    <t>NCT02167724</t>
+  </si>
+  <si>
+    <t>NCT02028949</t>
   </si>
   <si>
     <t>NCT01962116</t>
@@ -154,123 +166,111 @@
     <t>NCT01900717</t>
   </si>
   <si>
-    <t>NCT02167724</t>
+    <t>NCT01618981</t>
+  </si>
+  <si>
+    <t>NCT02851602</t>
+  </si>
+  <si>
+    <t>NCT01762683</t>
+  </si>
+  <si>
+    <t>NCT02851394</t>
+  </si>
+  <si>
+    <t>NCT02806882</t>
+  </si>
+  <si>
+    <t>NCT01610258</t>
+  </si>
+  <si>
+    <t>NCT01904929</t>
+  </si>
+  <si>
+    <t>NCT02862899</t>
   </si>
   <si>
     <t>NCT01910038</t>
   </si>
   <si>
-    <t>NCT02806882</t>
-  </si>
-  <si>
-    <t>NCT01618981</t>
-  </si>
-  <si>
-    <t>NCT02443818</t>
-  </si>
-  <si>
-    <t>NCT01904929</t>
-  </si>
-  <si>
-    <t>NCT01610258</t>
-  </si>
-  <si>
     <t>NCT03227887</t>
   </si>
   <si>
-    <t>NCT02856009</t>
-  </si>
-  <si>
-    <t>NCT01762683</t>
-  </si>
-  <si>
-    <t>NCT02028949</t>
-  </si>
-  <si>
-    <t>NCT02851602</t>
-  </si>
-  <si>
-    <t>NCT02862899</t>
-  </si>
-  <si>
-    <t>NCT02851394</t>
+    <t>NCT02851433</t>
+  </si>
+  <si>
+    <t>NCT03201328</t>
+  </si>
+  <si>
+    <t>NCT02730832</t>
+  </si>
+  <si>
+    <t>NCT01907581</t>
+  </si>
+  <si>
+    <t>NCT02851524</t>
   </si>
   <si>
     <t>NCT02656654</t>
   </si>
   <si>
-    <t>NCT03201328</t>
-  </si>
-  <si>
-    <t>NCT02851433</t>
-  </si>
-  <si>
-    <t>NCT01907581</t>
-  </si>
-  <si>
-    <t>NCT02851524</t>
-  </si>
-  <si>
-    <t>NCT02730832</t>
+    <t>NCT02862860</t>
+  </si>
+  <si>
+    <t>NCT02826083</t>
+  </si>
+  <si>
+    <t>NCT03215446</t>
+  </si>
+  <si>
+    <t>NCT01798173</t>
   </si>
   <si>
     <t>NCT03215420</t>
   </si>
   <si>
-    <t>NCT01798173</t>
-  </si>
-  <si>
-    <t>NCT02826083</t>
-  </si>
-  <si>
     <t>NCT02171897</t>
   </si>
   <si>
-    <t>NCT02862860</t>
-  </si>
-  <si>
-    <t>NCT03215446</t>
+    <t>NCT03491423</t>
+  </si>
+  <si>
+    <t>NCT02156245</t>
+  </si>
+  <si>
+    <t>NCT02851420</t>
+  </si>
+  <si>
+    <t>NCT02824107</t>
+  </si>
+  <si>
+    <t>NCT03317093</t>
+  </si>
+  <si>
+    <t>NCT03830580</t>
+  </si>
+  <si>
+    <t>NCT01766596</t>
+  </si>
+  <si>
+    <t>NCT02857192</t>
   </si>
   <si>
     <t>NCT03864016</t>
   </si>
   <si>
-    <t>NCT02824107</t>
-  </si>
-  <si>
-    <t>NCT03830580</t>
-  </si>
-  <si>
-    <t>NCT03491423</t>
-  </si>
-  <si>
-    <t>NCT02851420</t>
-  </si>
-  <si>
-    <t>NCT02156245</t>
-  </si>
-  <si>
-    <t>NCT03317093</t>
+    <t>NCT01904799</t>
   </si>
   <si>
     <t>NCT02859506</t>
   </si>
   <si>
-    <t>NCT02857192</t>
-  </si>
-  <si>
-    <t>NCT01904799</t>
-  </si>
-  <si>
-    <t>NCT01766596</t>
+    <t>NCT02856074</t>
   </si>
   <si>
     <t>NCT02859753</t>
   </si>
   <si>
-    <t>NCT02856074</t>
-  </si>
-  <si>
     <t>NCT04888143</t>
   </si>
   <si>
@@ -280,96 +280,99 @@
     <t>NCT03951519</t>
   </si>
   <si>
+    <t>NCT03288727</t>
+  </si>
+  <si>
+    <t>NCT03269058</t>
+  </si>
+  <si>
+    <t>NCT03097276</t>
+  </si>
+  <si>
+    <t>NCT04860414</t>
+  </si>
+  <si>
+    <t>NCT03280875</t>
+  </si>
+  <si>
     <t>NCT02505126</t>
   </si>
   <si>
-    <t>NCT03269058</t>
-  </si>
-  <si>
-    <t>NCT03280875</t>
-  </si>
-  <si>
-    <t>NCT04860414</t>
-  </si>
-  <si>
-    <t>NCT03288727</t>
-  </si>
-  <si>
-    <t>NCT03097276</t>
-  </si>
-  <si>
     <t>NCT04820959</t>
   </si>
   <si>
+    <t>NCT03334526</t>
+  </si>
+  <si>
+    <t>NCT04591743</t>
+  </si>
+  <si>
     <t>NCT02816099</t>
   </si>
   <si>
-    <t>NCT03334526</t>
-  </si>
-  <si>
-    <t>NCT04591743</t>
-  </si>
-  <si>
     <t>NCT03818269</t>
   </si>
   <si>
+    <t>NCT03773198</t>
+  </si>
+  <si>
+    <t>NCT05739448</t>
+  </si>
+  <si>
+    <t>NCT04886180</t>
+  </si>
+  <si>
+    <t>NCT05032521</t>
+  </si>
+  <si>
+    <t>NCT03498001</t>
+  </si>
+  <si>
     <t>NCT02085772</t>
   </si>
   <si>
-    <t>NCT05032521</t>
-  </si>
-  <si>
-    <t>NCT05739448</t>
-  </si>
-  <si>
-    <t>NCT04886180</t>
-  </si>
-  <si>
-    <t>NCT03498001</t>
-  </si>
-  <si>
-    <t>NCT03773198</t>
+    <t>NCT04886453</t>
+  </si>
+  <si>
+    <t>NCT04312178</t>
   </si>
   <si>
     <t>NCT03711448</t>
   </si>
   <si>
-    <t>NCT04886453</t>
-  </si>
-  <si>
     <t>NCT03480191</t>
   </si>
   <si>
-    <t>NCT04312178</t>
-  </si>
-  <si>
     <t>NCT02557451</t>
   </si>
   <si>
     <t>NCT02814747</t>
   </si>
   <si>
+    <t>NCT01884883</t>
+  </si>
+  <si>
+    <t>NCT01950754</t>
+  </si>
+  <si>
+    <t>NCT02046707</t>
+  </si>
+  <si>
+    <t>NCT02055664</t>
+  </si>
+  <si>
+    <t>NCT02765685</t>
+  </si>
+  <si>
+    <t>NCT02080793</t>
+  </si>
+  <si>
     <t>NCT01358747</t>
   </si>
   <si>
-    <t>NCT01950754</t>
-  </si>
-  <si>
-    <t>NCT01884883</t>
-  </si>
-  <si>
     <t>NCT02855970</t>
   </si>
   <si>
-    <t>NCT02080793</t>
-  </si>
-  <si>
-    <t>NCT02046707</t>
-  </si>
-  <si>
-    <t>NCT02055664</t>
-  </si>
-  <si>
     <t>NCT02042508</t>
   </si>
   <si>
@@ -379,30 +382,27 @@
     <t>NCT02866474</t>
   </si>
   <si>
-    <t>NCT02765685</t>
-  </si>
-  <si>
     <t>NCT01950975</t>
   </si>
   <si>
     <t>NCT02870010</t>
   </si>
   <si>
+    <t>NCT02812810</t>
+  </si>
+  <si>
+    <t>NCT02820662</t>
+  </si>
+  <si>
     <t>NCT02862886</t>
   </si>
   <si>
-    <t>NCT02820662</t>
+    <t>NCT02860260</t>
   </si>
   <si>
     <t>NCT02856191</t>
   </si>
   <si>
-    <t>NCT02860260</t>
-  </si>
-  <si>
-    <t>NCT02812810</t>
-  </si>
-  <si>
     <t>NCT01903694</t>
   </si>
   <si>
@@ -424,12 +424,12 @@
     <t>2016-003917-83</t>
   </si>
   <si>
+    <t>2021-000066-16</t>
+  </si>
+  <si>
     <t>2010-022844-19</t>
   </si>
   <si>
-    <t>2021-000066-16</t>
-  </si>
-  <si>
     <t>2007</t>
   </si>
   <si>
@@ -475,12 +475,12 @@
     <t>2024</t>
   </si>
   <si>
+    <t>Effects of Rosuvastatin on the, in Vivo, Kinetic of VLDL apoB, IDL apoB, LDL apoB and HDL apoA1, Using Stable Isotopes, in Type 2 Diabetic Patients</t>
+  </si>
+  <si>
     <t>Idiopathic Epiretinal Macular Membrane and Cataract Extraction : Combined vs Consecutive Surgery</t>
   </si>
   <si>
-    <t>Effects of Rosuvastatin on the, in Vivo, Kinetic of VLDL apoB, IDL apoB, LDL apoB and HDL apoA1, Using Stable Isotopes, in Type 2 Diabetic Patients</t>
-  </si>
-  <si>
     <t>Etude du Polymorphysme génétique de la cholestérol 24S Hydroxylase et Des Teneurs en 24S hydroxycholestérol Chez Des Patients Atteints de Glaucome ou de dégénérescence Maculaire liée à l'âge.</t>
   </si>
   <si>
@@ -493,15 +493,15 @@
     <t>Influence du Victoza (Liraglutide,Analogue GLP-1) Sur Les Performances Gustatives, le Rassasiement Sensoriel spécifique, le Liking et le Wanting Chez Les Patients diabétiques de Type 2.</t>
   </si>
   <si>
+    <t>Chemoembolisation of Non Resectable, Non Metastatic Hepatocellular Carcinomas Combining DC Bead Microspheres Loaded With Idarubicin (Zavedos®): Phase I Trial</t>
+  </si>
+  <si>
+    <t>Effect of Strict Glycemic Control on Improvement of Exercise Capacities (VO2 Peak, Peak Workload After Cardiac Rehabilitation, in Patients With Type 2 Diabetes Mellitus With Coronary Artery Disease.</t>
+  </si>
+  <si>
     <t>Transversus Abdominis Plane (TAP) Block in Open Abdominal Aortic Surgery : Randomized Controlled Doubled-blind Trial Comparing Ropivacaine 0.2% Versus Placebo</t>
   </si>
   <si>
-    <t>Effect of Strict Glycemic Control on Improvement of Exercise Capacities (VO2 Peak, Peak Workload After Cardiac Rehabilitation, in Patients With Type 2 Diabetes Mellitus With Coronary Artery Disease.</t>
-  </si>
-  <si>
-    <t>Chemoembolisation of Non Resectable, Non Metastatic Hepatocellular Carcinomas Combining DC Bead Microspheres Loaded With Idarubicin (Zavedos®): Phase I Trial</t>
-  </si>
-  <si>
     <t>Influence of Glitazones on the Vasodilatory Effect of HDL Lipoproteins and on Phospholipase A2</t>
   </si>
   <si>
@@ -511,6 +511,9 @@
     <t>Prospective Randomised Double-blind Study to Compare Ropivacaine 10mg/mL Alone Versus Ropivacaine 10mg/mL Associated With Clonidine 1µg/kg for Peribulbar Anesthesia in Posterior Eye Surgery</t>
   </si>
   <si>
+    <t>Single-centre Study of the Expression of Heat Shock Proteins in the Lymphocytes From the Tonsils of Patients With Various Diseases Requiring Tonsillectomy</t>
+  </si>
+  <si>
     <t>Study of the Impact of the Regular Consumption of Polyphenol-rich Grape Juice on the Biological Parameters of Oxidative Stress and on Endothelial Function in Healthy Subjects: a Prospective Randomised Double-blind Study</t>
   </si>
   <si>
@@ -520,31 +523,40 @@
     <t>Transversus Abdominis Plane Block During Kidney Transplant Surgery: Prospective Controlled Randomized Double-blind Trial Comparing Ropivacaine 0.2% With Placebo.</t>
   </si>
   <si>
-    <t>Single-centre Study of the Expression of Heat Shock Proteins in the Lymphocytes From the Tonsils of Patients With Various Diseases Requiring Tonsillectomy</t>
-  </si>
-  <si>
     <t>Interest of Intravitreal Corticotherapy as the First-line Treatment for Post-operative Endophthalmitis.</t>
   </si>
   <si>
+    <t>Hepatic Steatosis and Pituitary Gland Failure, Evaluation by NMR Imaging</t>
+  </si>
+  <si>
+    <t>Study of Anatomical and Functional Recovery Following Retinal Detachment: Identify Correlations Between Visual Acuity and SD-OCT and Microperimetry Findings.</t>
+  </si>
+  <si>
     <t>Intérêt de la cryothérapie ou de l'aérosolisation par corticoïdes sur les troubles de la déglutition en post-opératoire précose après thyroïdectomie totale.</t>
   </si>
   <si>
-    <t>Hepatic Steatosis and Pituitary Gland Failure, Evaluation by NMR Imaging</t>
+    <t>Interest of Cryotherapy or Cortisone Aerosol Therapy in Early Post-operative Swallowing Disorders Following Total Thyroidectomy</t>
+  </si>
+  <si>
+    <t>Randomized Controlled Double-blind Clinical Trial for the Effect of Yoghurts Enriched in XXS vs Without XXS on the Evolution of Weight in Overweight Subjects Aged 50 to 65 Years.</t>
   </si>
   <si>
     <t>Evaluation of the Prognostic Value of Monocytes and Lymphocyte Phenotyping, Along With Intracellular MCP-1 Expression, to Predict Preterm Delivery for Women Hospitalized for Threat of Preterm Labor Between 24 and 34 Weeks of Amenorrhea: PhenoMAP Study</t>
   </si>
   <si>
-    <t>Study of Anatomical and Functional Recovery Following Retinal Detachment: Identify Correlations Between Visual Acuity and SD-OCT and Microperimetry Findings.</t>
-  </si>
-  <si>
     <t>Incidence of Macular Edema After Panretinal Photocoagulation (PRPC) Performed in a Single Session Versus Four Sessions in Diabetic Patients.</t>
   </si>
   <si>
-    <t>Interest of Cryotherapy or Cortisone Aerosol Therapy in Early Post-operative Swallowing Disorders Following Total Thyroidectomy</t>
-  </si>
-  <si>
-    <t>Randomized Controlled Double-blind Clinical Trial for the Effect of Yoghurts Enriched in XXS vs Without XXS on the Evolution of Weight in Overweight Subjects Aged 50 to 65 Years.</t>
+    <t>Impact of Nutritional Status and Frailty on the Prognosis of Patients Over 75 Years Old Who Suffered a Stroke</t>
+  </si>
+  <si>
+    <t>Non-randomised Open Label Pilot Study of Sirolimus Therapy for Segmental Overgrowth Due to PIK3CA- Related Overgrowth</t>
+  </si>
+  <si>
+    <t>Multicentre Evaluation of Bucco-dental Health in Patients With Schizophrenia in Côte d'Or</t>
+  </si>
+  <si>
+    <t>LIDA-B: Treatment of Cirrhosis-related Hepatocellular Carcinoma With the Intrahepatic Arterial Injection of an Emulsion of Lipiodol and Idarubicin (Zavedos®): Phase I Study</t>
   </si>
   <si>
     <t>Citrate Versus Heparin for the Lock of Non-tunneled Hemodialysis Catheters in Patients Hospitalised in ICU = Multicentre, Controlled, Randomised Superiority Trial</t>
@@ -553,126 +565,114 @@
     <t>Evaluation of Bevacizumab in Combination With First-Line Chemotherapy in Patients Aged 75 Years of Older With Metastatic Colorectal Adenocarcinoma</t>
   </si>
   <si>
-    <t>Multicentre Evaluation of Bucco-dental Health in Patients With Schizophrenia in Côte d'Or</t>
+    <t>LEft Atrial Pacing in Diastolic Heart Failure</t>
+  </si>
+  <si>
+    <t>Phospholipid and Sphingolipid Composition of High-density Lipoproteins (HDL) in Obese Non-diabetic Patients With Metabolic Syndrome</t>
+  </si>
+  <si>
+    <t>Study of Role of Mononuclear Cells of Maternal Peripheric Blood in Human Myometrial Primar Cell Lines Differentiation Toward a Contratyl Phenotype: Influence of Preconceptional Obesity</t>
+  </si>
+  <si>
+    <t>Evaluation Of The Efficacy Of A Bolus Infiltration Of The Anaesthetic Tramadol Associated With Continuous Local Anaesthesia Administered Via A Wound Catheter Following Heart Surgery Via Sternotomy At Dijon Chu Single-Centre, Double-Blind, Randomized, Controlled Clinical Trial</t>
+  </si>
+  <si>
+    <t>Open and Exploratory Trial to Investigate the Pharmacokinetic of Ceftaroline in Patients With CSF Device</t>
+  </si>
+  <si>
+    <t>Contribution of the Study of Maternal Plasmatic Regulator T Cells and Th17 for the Diagnosis of Acute Chorioanmionitis Among Women Hospitalized for Premature Rupture of Fetal Membranes (PPROM) Between 24 and 34 Gestation Weeks</t>
+  </si>
+  <si>
+    <t>Evaluation of the Psychometric Properties of the 400m-walk-test at a Self-selected Speed (400m WT) for Stable Coronary Patients</t>
+  </si>
+  <si>
+    <t>Use of a Heating Cable to Obtain Hyperthermia During Intraperitoneal Chemotherapy</t>
   </si>
   <si>
     <t>Evaluation of Tocilizumab as an add-on Therapy to Corticoids in Giant Cell Arteritis: Proof of Concept Study.</t>
   </si>
   <si>
-    <t>Open and Exploratory Trial to Investigate the Pharmacokinetic of Ceftaroline in Patients With CSF Device</t>
-  </si>
-  <si>
-    <t>LEft Atrial Pacing in Diastolic Heart Failure</t>
-  </si>
-  <si>
-    <t>Non-randomised Open Label Pilot Study of Sirolimus Therapy for Segmental Overgrowth Due to PIK3CA- Related Overgrowth</t>
-  </si>
-  <si>
-    <t>Evaluation of the Psychometric Properties of the 400m-walk-test at a Self-selected Speed (400m WT) for Stable Coronary Patients</t>
-  </si>
-  <si>
-    <t>Contribution of the Study of Maternal Plasmatic Regulator T Cells and Th17 for the Diagnosis of Acute Chorioanmionitis Among Women Hospitalized for Premature Rupture of Fetal Membranes (PPROM) Between 24 and 34 Gestation Weeks</t>
-  </si>
-  <si>
     <t>Evaluation of the Link Between the Characteristics of Oral Physiology and Formation of the Food Bolus During the Consumption of Cereal Products in Elderly People Via a Modelling Approach.</t>
   </si>
   <si>
-    <t>Impact of Nutritional Status and Frailty on the Prognosis of Patients Over 75 Years Old Who Suffered a Stroke</t>
-  </si>
-  <si>
-    <t>Study of Role of Mononuclear Cells of Maternal Peripheric Blood in Human Myometrial Primar Cell Lines Differentiation Toward a Contratyl Phenotype: Influence of Preconceptional Obesity</t>
-  </si>
-  <si>
-    <t>LIDA-B: Treatment of Cirrhosis-related Hepatocellular Carcinoma With the Intrahepatic Arterial Injection of an Emulsion of Lipiodol and Idarubicin (Zavedos®): Phase I Study</t>
-  </si>
-  <si>
-    <t>Phospholipid and Sphingolipid Composition of High-density Lipoproteins (HDL) in Obese Non-diabetic Patients With Metabolic Syndrome</t>
-  </si>
-  <si>
-    <t>Use of a Heating Cable to Obtain Hyperthermia During Intraperitoneal Chemotherapy</t>
-  </si>
-  <si>
-    <t>Evaluation Of The Efficacy Of A Bolus Infiltration Of The Anaesthetic Tramadol Associated With Continuous Local Anaesthesia Administered Via A Wound Catheter Following Heart Surgery Via Sternotomy At Dijon Chu Single-Centre, Double-Blind, Randomized, Controlled Clinical Trial</t>
+    <t>Evaluate the Protective Effect of Conditioning With Sevoflurane Versus Propofol on the Myocardium in Scheduled Aortic Valve Replacement Surgery</t>
+  </si>
+  <si>
+    <t>Prospective, Single Centre Cohort Study on the Impact of Binaural Audition on Postural Performance and Orientation in Healthy Subjects and Patients With Cochlear Implants.</t>
+  </si>
+  <si>
+    <t>Validation of Scale to Evaluate the Perception of Oral Health in Patients With Schizophrenia</t>
+  </si>
+  <si>
+    <t>Impact of Socio-economic Vulnerability on Initial Severity and Prognosis in Patients Admitted to an ICU. Prospective, Multi-centre Cohort Study</t>
+  </si>
+  <si>
+    <t>Proof of Concept Study Concerning Vestibular Stimulation Using a New Method of Dynamic Posturography.</t>
   </si>
   <si>
     <t>Pilot Study to Evaluate the Efficacy of and the Tolerance to a Body Bandage to Maintain Fluid Balance in Patients With Severe Sepsis or in Septic Shock in an ICU</t>
   </si>
   <si>
-    <t>Prospective, Single Centre Cohort Study on the Impact of Binaural Audition on Postural Performance and Orientation in Healthy Subjects and Patients With Cochlear Implants.</t>
-  </si>
-  <si>
-    <t>Evaluate the Protective Effect of Conditioning With Sevoflurane Versus Propofol on the Myocardium in Scheduled Aortic Valve Replacement Surgery</t>
-  </si>
-  <si>
-    <t>Impact of Socio-economic Vulnerability on Initial Severity and Prognosis in Patients Admitted to an ICU. Prospective, Multi-centre Cohort Study</t>
-  </si>
-  <si>
-    <t>Proof of Concept Study Concerning Vestibular Stimulation Using a New Method of Dynamic Posturography.</t>
-  </si>
-  <si>
-    <t>Validation of Scale to Evaluate the Perception of Oral Health in Patients With Schizophrenia</t>
+    <t>Influence of Glycaemic Variability on Oxidative Stress and High-density Lipoprotein (HDL) Function in Type-1 Diabetes</t>
+  </si>
+  <si>
+    <t>Randomized, Double-blind Study to Evaluate the Effects of XXS on Oxidative Stress in Patients With Mild or Moderate Hyperlipidemia and on Lipoprotein Kinetics</t>
+  </si>
+  <si>
+    <t>Evaluation of Total (Pre and Post) Conditioning on Rhabdomyolysis of Sedation With Sevoflurane Versus Propofol in Vascular Surgery With Clamping</t>
+  </si>
+  <si>
+    <t>CIRCE: Environmental, Metabolic and Nutritional Factors of Hepatocellular Carcinoma in Cirrhotic Patients</t>
   </si>
   <si>
     <t>Diagnostic Agreement of Electrophysiological Audiovestibular Examinations With Magnetic Resonance Imaging (MRI) of the Inner Ear in Revealing Endolymphatic Hydrops (EH) in Patients With Certain or Probable Meniere's Disease (MD)</t>
   </si>
   <si>
-    <t>CIRCE: Environmental, Metabolic and Nutritional Factors of Hepatocellular Carcinoma in Cirrhotic Patients</t>
-  </si>
-  <si>
-    <t>Randomized, Double-blind Study to Evaluate the Effects of XXS on Oxidative Stress in Patients With Mild or Moderate Hyperlipidemia and on Lipoprotein Kinetics</t>
+    <t>Etude préliminaire visant à étudier l’effet de la rTMS et des antidépresseurs ISRS sur l’expression leucocytaire des gènes C-FOS et DUSP1 des patients traités pour un état dépressif</t>
   </si>
   <si>
     <t>Comparison of Functional Recovery After Pertrochanter Fracture Treated With Either Total Hip Replacement or Centromedullary Nailing</t>
   </si>
   <si>
-    <t>Influence of Glycaemic Variability on Oxidative Stress and High-density Lipoprotein (HDL) Function in Type-1 Diabetes</t>
-  </si>
-  <si>
-    <t>Etude préliminaire visant à étudier l’effet de la rTMS et des antidépresseurs ISRS sur l’expression leucocytaire des gènes C-FOS et DUSP1 des patients traités pour un état dépressif</t>
-  </si>
-  <si>
-    <t>Evaluation of Total (Pre and Post) Conditioning on Rhabdomyolysis of Sedation With Sevoflurane Versus Propofol in Vascular Surgery With Clamping</t>
+    <t>Short and Fast Step Test: Feasibility, Validity and Tolerance of a Functional Evaluation Test of Lactic Anaerobic Capacities in Patients With Coronary Artery Disease</t>
+  </si>
+  <si>
+    <t>Evaluation of the Effects of Eccentric Training on a Cycle Ergometer, Versus Conventional Concentric Training</t>
+  </si>
+  <si>
+    <t>Interest of Spectroscopy in the Diagnosis of Cancerous and Precancerous Lesions of the Upper Airways (UA): Pilot Study</t>
+  </si>
+  <si>
+    <t>Open and exploratory trial to investigate the pharmacokinetic of ceftobiprole medocaril  in patients with CSF device</t>
+  </si>
+  <si>
+    <t>INEqualities in Health Psychosocial Determinants of Neuro and Cardio-V@scuLar Disease: Identification of Novel Levers for Secondary Prevention</t>
+  </si>
+  <si>
+    <t>Open and Exploratory Trial to Investigate the Pharmacokinetic of Ceftobiprole Medocaril in Patients With CSF Device</t>
+  </si>
+  <si>
+    <t>Benefit of Singing in the Care of Premature Children Undergoing Screening for Retinopathy of Prematurity in the Neonatology and Neonatal Resuscitation Unit of the Dijon University Hospital</t>
+  </si>
+  <si>
+    <t>Study the Signs of Ocular Degeneration in a Population Cohort (Dijon 3C Montrachet Cohort): Seek Correlations Between Signs of Neurological and Vascular Degeneration and Signs of Ocular Aging</t>
+  </si>
+  <si>
+    <t>Study of Phenotypic and Functional Characteristics of Regulatory T Lymphocytes in Giant Cell Arteritis (Horton's Disease)</t>
   </si>
   <si>
     <t>Ability of Pupillometry to Reduce Sufentanil Consumption in Planned Cardiac Surgery: Randomized, Controlled, Single-center Clinical Superiority Trial</t>
   </si>
   <si>
-    <t>INEqualities in Health Psychosocial Determinants of Neuro and Cardio-V@scuLar Disease: Identification of Novel Levers for Secondary Prevention</t>
-  </si>
-  <si>
-    <t>Benefit of Singing in the Care of Premature Children Undergoing Screening for Retinopathy of Prematurity in the Neonatology and Neonatal Resuscitation Unit of the Dijon University Hospital</t>
-  </si>
-  <si>
-    <t>Short and Fast Step Test: Feasibility, Validity and Tolerance of a Functional Evaluation Test of Lactic Anaerobic Capacities in Patients With Coronary Artery Disease</t>
-  </si>
-  <si>
-    <t>Interest of Spectroscopy in the Diagnosis of Cancerous and Precancerous Lesions of the Upper Airways (UA): Pilot Study</t>
-  </si>
-  <si>
-    <t>Evaluation of the Effects of Eccentric Training on a Cycle Ergometer, Versus Conventional Concentric Training</t>
-  </si>
-  <si>
-    <t>Open and Exploratory Trial to Investigate the Pharmacokinetic of Ceftobiprole Medocaril in Patients With CSF Device</t>
-  </si>
-  <si>
     <t>Eating Behaviour and Gustatory Sensitivity Before and After Liver Transplant in Cirrhotic Patients</t>
   </si>
   <si>
-    <t>Study of Phenotypic and Functional Characteristics of Regulatory T Lymphocytes in Giant Cell Arteritis (Horton's Disease)</t>
-  </si>
-  <si>
-    <t>Open and exploratory trial to investigate the pharmacokinetic of ceftobiprole medocaril  in patients with CSF device</t>
-  </si>
-  <si>
-    <t>Study the Signs of Ocular Degeneration in a Population Cohort (Dijon 3C Montrachet Cohort): Seek Correlations Between Signs of Neurological and Vascular Degeneration and Signs of Ocular Aging</t>
+    <t>Prognosis After Revascularization Therapy in the Dijon Ischemic Stroke Evaluation Study</t>
   </si>
   <si>
     <t>Prospective Randomized Controlled Study Comparing Response and Recurrence Rates Following Percutaneous Microwave Coagulation Therapy (MCT) Versus Percutaneous Radiofrequency Ablation (RFA) in Patients With Chronic Liver Disease and Hepatocellular Carcinoma</t>
   </si>
   <si>
-    <t>Prognosis After Revascularization Therapy in the Dijon Ischemic Stroke Evaluation Study</t>
-  </si>
-  <si>
     <t>Optimization of Cochlear Implant Fitting in Patients With Functional Contralateral Hearing Using an Evolutionary Algorithm.</t>
   </si>
   <si>
@@ -682,96 +682,102 @@
     <t>Effect of Oral Water on the Quality of Volume Expansion in Resuscitation Patients: Pilot Study (The Water Study)</t>
   </si>
   <si>
+    <t>Incidental Findings Produced by Diagnostic HTS: From the Needs of Patients to Organisational Considerations</t>
+  </si>
+  <si>
+    <t>Effects of Dapagliflozin on Lipoprotein Kinetics in Patients With Type 2 Diabetes</t>
+  </si>
+  <si>
+    <t>Management of Patients With High C-reactive Protein After Scheduled Resection of Colorectal Cancer: Pilot Study</t>
+  </si>
+  <si>
+    <t>Prospective Monocentric Study of Taste in Patients With Minor or Major Cognitive Disorders Such as Alzheimer's, Through the Analysis of Gustatory Evoked Potentials</t>
+  </si>
+  <si>
+    <t>Personalisation of Exercise by Muscle Modulation, Step 1: Construction and Validation of an Algorithm for Personalisation for Pedalling Exercises</t>
+  </si>
+  <si>
     <t>A Randomized Double-blind Clinical Trial on the Efficacy of Transcranial Direct Current Stimulation (tDCS) in Reducing Alcohol Consumption in Non-abstinent Patients With Alcohol Use Disorder</t>
   </si>
   <si>
-    <t>Effects of Dapagliflozin on Lipoprotein Kinetics in Patients With Type 2 Diabetes</t>
-  </si>
-  <si>
-    <t>Personalisation of Exercise by Muscle Modulation, Step 1: Construction and Validation of an Algorithm for Personalisation for Pedalling Exercises</t>
-  </si>
-  <si>
-    <t>Prospective Monocentric Study of Taste in Patients With Minor or Major Cognitive Disorders Such as Alzheimer's, Through the Analysis of Gustatory Evoked Potentials</t>
-  </si>
-  <si>
-    <t>Incidental Findings Produced by Diagnostic HTS: From the Needs of Patients to Organisational Considerations</t>
-  </si>
-  <si>
-    <t>Management of Patients With High C-reactive Protein After Scheduled Resection of Colorectal Cancer: Pilot Study</t>
-  </si>
-  <si>
     <t>Validation of New Therapeutic Targets to Prevent Collagen Accumulation During Cardiac Fibrosis: Procollagen C-proteinase Enhancers</t>
   </si>
   <si>
+    <t>Corticospinal and Neuromuscular Plasticity Induced by Real and Imaginary Contractions.</t>
+  </si>
+  <si>
+    <t>Effectiveness of Transcranial Magnetic Stimulation (TMS) in Smoking Cessation, Combining Withdrawal Stimulation Followed by Maintenance Stimulation to Prevent Relapse: Single-center, Randomized, Controlled, Blinded Pilot Study</t>
+  </si>
+  <si>
     <t>Study of the Influence of Glycaemic Balance on the Ability of Apolipoprotein C1 to Inhibit Cholesterol Ester Transfer Protein (CETP) in Type-1 Diabetes Patients</t>
   </si>
   <si>
-    <t>Corticospinal and Neuromuscular Plasticity Induced by Real and Imaginary Contractions.</t>
-  </si>
-  <si>
-    <t>Effectiveness of Transcranial Magnetic Stimulation (TMS) in Smoking Cessation, Combining Withdrawal Stimulation Followed by Maintenance Stimulation to Prevent Relapse: Single-center, Randomized, Controlled, Blinded Pilot Study</t>
-  </si>
-  <si>
     <t>Study of Subcutaneous Interstitial Pressure During Sepsis</t>
   </si>
   <si>
+    <t>Effectiveness of Energy Resonance by Skin Stimulation in the Management of Anxious Patients Who Require Scheduled Orthopaedic Surgery</t>
+  </si>
+  <si>
+    <t>Impact of an Intervention Combining Fortified Meals and Physical Activity in the Prevention of Undernutrition in Seniors : a Randomized Controlled Trial</t>
+  </si>
+  <si>
+    <t>Evaluation of Oxiris Membrane as a Treatment for Ischemia-reperfusion Syndrome in Cardiogenic Shock Treated With Extracorporeal Life Support (ECMO/ECLS): A Randomized Pilot Study ECMORIX</t>
+  </si>
+  <si>
+    <t>Treatment of Hyperlactatemia in Acute Circulatory Failure Based on Analysis of CO2: a Prospective Randomized Superiority Study (The LACTEL Study)</t>
+  </si>
+  <si>
+    <t>Effects of GLP-1 Agonists on CArdiac Steatosis Evaluated by Magnetic Resonance Imaging</t>
+  </si>
+  <si>
     <t>Is Impaired Activation and Migration of Circulating Leukocytes Associated With Overdue Birth in Obese Women?</t>
   </si>
   <si>
-    <t>Treatment of Hyperlactatemia in Acute Circulatory Failure Based on Analysis of CO2: a Prospective Randomized Superiority Study (The LACTEL Study)</t>
-  </si>
-  <si>
-    <t>Impact of an Intervention Combining Fortified Meals and Physical Activity in the Prevention of Undernutrition in Seniors : a Randomized Controlled Trial</t>
-  </si>
-  <si>
-    <t>Evaluation of Oxiris Membrane as a Treatment for Ischemia-reperfusion Syndrome in Cardiogenic Shock Treated With Extracorporeal Life Support (ECMO/ECLS): A Randomized Pilot Study ECMORIX</t>
-  </si>
-  <si>
-    <t>Effects of GLP-1 Agonists on CArdiac Steatosis Evaluated by Magnetic Resonance Imaging</t>
-  </si>
-  <si>
-    <t>Effectiveness of Energy Resonance by Skin Stimulation in the Management of Anxious Patients Who Require Scheduled Orthopaedic Surgery</t>
+    <t>Evaluation of Non-opioid Balanced General Anesthesia in Cardiac Surgery With Extracorporeal Circulation: a Randomized, Controlled, Multicenter Superiority Trial</t>
+  </si>
+  <si>
+    <t>Combined Incentive Actions, Focusing on Primary Care, to Improve Cervical Cancer Screening in Women Residing in Socio-economically Disadvantaged and Untracked Geographical Areas: a Hybrid Efficacy and Implementation Trial</t>
   </si>
   <si>
     <t>Ustekinumab for the Treatment of Relapse of Refractory Giant Cell Arteritis</t>
   </si>
   <si>
-    <t>Evaluation of Non-opioid Balanced General Anesthesia in Cardiac Surgery With Extracorporeal Circulation: a Randomized, Controlled, Multicenter Superiority Trial</t>
-  </si>
-  <si>
     <t>Adjunction of Daptomycin for the Treatment of Pneumococcal Meningitis: AddaMAP Study</t>
   </si>
   <si>
-    <t>Combined Incentive Actions, Focusing on Primary Care, to Improve Cervical Cancer Screening in Women Residing in Socio-economically Disadvantaged and Untracked Geographical Areas: a Hybrid Efficacy and Implementation Trial</t>
-  </si>
-  <si>
     <t>Subretinal Haematoma in AMD: Randomized Controlled Study of 2 Therapeutic Approaches in the Antiangiogenic Era</t>
   </si>
   <si>
+    <t>ÉVALUATION D’UNE ANESTHÉSIE GÉNÉRALE BALANCÉE NON OPIOÏDE EN CHIRURGIE CARDIAQUE AVEC CIRCULATION EXTRA-CORPORELLE : ESSAI CLINIQUE RANDOMISÉ, CONTRÔLE, MULTICENTRIQUE DE SUPÉRIORITÉ</t>
+  </si>
+  <si>
     <t>Preferences and Representations Concerning High-throughput Sequencing Technologies in Medical Genetics. The Case of Development Anomalies.</t>
   </si>
   <si>
+    <t>Evaluation of a Distraction-rotation Knee Unloader Brace in Patients With Medial Knee Osteoarthritis.</t>
+  </si>
+  <si>
+    <t>Study of the Effect of a Cognitive Task on Static Balance in Depressive Elderly Subjects According to the Double Task Principle</t>
+  </si>
+  <si>
+    <t>Evaluation of the Effects of Eccentric Muscle Training Versus Conventional Concentric Training in Chronic Heart Failure</t>
+  </si>
+  <si>
+    <t>THE TAP BLOCK TECHNIQUE VIA THE ANTERIOR APPROACH IN ELECTIVE SURGERY OF THE SPINE: Prospective, Randomised, Double Blind Trial, Comparing TAP BLOCK With Continuous Infiltration of Ropivacaine Versus Placebo</t>
+  </si>
+  <si>
+    <t>Randomized Controlled Trial in Internal Compartment Knee Osteoarthritis: ODRA Made-to-measure Hinged Knee Brace Versus Usual Care.</t>
+  </si>
+  <si>
+    <t>STUDY OF PREFERENCES IN MEN FACED WITH THE DIFFERENT TREATMENT OPTIONS FOR LOCALIZED PROSTRATE CANCER WITH A GOOD OR INTERMEDIATE PROGNOSIS</t>
+  </si>
+  <si>
     <t>Randomized Phase III Study of a Treatment Driven by Early PET Response Compared to a Treatment Not Monitored by Early PET in Patients With Ann Arbor Stage III-IV or High Risk IIB Hodgkin Lymphoma</t>
   </si>
   <si>
-    <t>Study of the Effect of a Cognitive Task on Static Balance in Depressive Elderly Subjects According to the Double Task Principle</t>
-  </si>
-  <si>
-    <t>Evaluation of a Distraction-rotation Knee Unloader Brace in Patients With Medial Knee Osteoarthritis.</t>
-  </si>
-  <si>
     <t>Development and Validation of a French Quality Of Life Scale Specific to Patients Who Have Suffered a Stroke</t>
   </si>
   <si>
-    <t>STUDY OF PREFERENCES IN MEN FACED WITH THE DIFFERENT TREATMENT OPTIONS FOR LOCALIZED PROSTRATE CANCER WITH A GOOD OR INTERMEDIATE PROGNOSIS</t>
-  </si>
-  <si>
-    <t>Evaluation of the Effects of Eccentric Muscle Training Versus Conventional Concentric Training in Chronic Heart Failure</t>
-  </si>
-  <si>
-    <t>THE TAP BLOCK TECHNIQUE VIA THE ANTERIOR APPROACH IN ELECTIVE SURGERY OF THE SPINE: Prospective, Randomised, Double Blind Trial, Comparing TAP BLOCK With Continuous Infiltration of Ropivacaine Versus Placebo</t>
-  </si>
-  <si>
     <t>Evaluation of a Hybrid Prototype Strategy (Electrostimulation of Lower Limb Muscles Associated With Voluntary Strengthening of the Upper Limbs) in Reconditioning to Effort in Patients With Chronic Paraplegia.</t>
   </si>
   <si>
@@ -781,39 +787,33 @@
     <t>Efficacy of the Implementation of a Food and Nutritional Support Strategy Adapted to Dependent Elderly Subjects: Controlled Trial.</t>
   </si>
   <si>
-    <t>Randomized Controlled Trial in Internal Compartment Knee Osteoarthritis: ODRA Made-to-measure Hinged Knee Brace Versus Usual Care.</t>
-  </si>
-  <si>
     <t>Screening for Chromosomal Microarrangements by CGH-array in Developmental Anomalies of the Skin Suggestive of Mosaicism. National Multicentre Descriptive Study.</t>
   </si>
   <si>
     <t>Chemoembolization of Non-resectable Non-metastatic Hepatocellular Carcinoma Using Embolization Microspheres (DC Bead™) Loaded With Idarubicin (Zavedos®): Phase 1 Study</t>
   </si>
   <si>
+    <t>Evaluation of the Efficacy of Low-frequency rTMS on Craving in Smoking Dependence: Single-centre Randomized, Controlled Blinded Pilot Study</t>
+  </si>
+  <si>
+    <t>Study of the Implication of Omega-3 Polyunsaturated Fatty Acids in Retinopathy of Prematurity in Newborns</t>
+  </si>
+  <si>
     <t>Study of the Effect of Beta-3 Adrenergic Receptor Agonists on Oxidative Stress and Signalling Pathways Implicated in Remodelling of the Uteroplacental Space: Experimental in Vitro Approach on Myometrial Tissue Explants</t>
   </si>
   <si>
-    <t>Study of the Implication of Omega-3 Polyunsaturated Fatty Acids in Retinopathy of Prematurity in Newborns</t>
+    <t>Kinetics of Plasma and Serum Levels of Brain-Derived Neurotrophic Factor (BDNF) in Patients With Ischemic Stroke: Effect of Intravenous Fibrinolysis With Rt-PA</t>
   </si>
   <si>
     <t>Prospective Study on the Frequency of de Novo Atrial Fibrillation in Septic Shock in Medical Intensive Care</t>
   </si>
   <si>
-    <t>Kinetics of Plasma and Serum Levels of Brain-Derived Neurotrophic Factor (BDNF) in Patients With Ischemic Stroke: Effect of Intravenous Fibrinolysis With Rt-PA</t>
-  </si>
-  <si>
-    <t>Evaluation of the Efficacy of Low-frequency rTMS on Craving in Smoking Dependence: Single-centre Randomized, Controlled Blinded Pilot Study</t>
-  </si>
-  <si>
     <t>ROLE OF PHOSPHOLIPID TRANSFER PROTEINS (PLTP) ON ENDOTOXEMIA CAUSED BY BUCCAL INFLAMMATION</t>
   </si>
   <si>
     <t>Prospective Study on the Interest of ß 1-3 D Glucan Assays in Screening for the Onset of Invasive Aspergillosis in Neutropenic Patients With Acute Leukaemia.</t>
   </si>
   <si>
-    <t>ÉVALUATION D’UNE ANESTHÉSIE GÉNÉRALE BALANCÉE NON OPIOÏDE EN CHIRURGIE CARDIAQUE AVEC CIRCULATION EXTRA-CORPORELLE : ESSAI CLINIQUE RANDOMISÉ, CONTRÔLE, MULTICENTRIQUE DE SUPÉRIORITÉ</t>
-  </si>
-  <si>
     <t>AUPALESENS</t>
   </si>
   <si>
@@ -826,40 +826,49 @@
     <t>CRAPO</t>
   </si>
   <si>
+    <t>HOTLYMPHO</t>
+  </si>
+  <si>
+    <t>Fijus Raisol</t>
+  </si>
+  <si>
+    <t>IMACORS</t>
+  </si>
+  <si>
     <t>IMMUNOBEDIA</t>
   </si>
   <si>
-    <t>Fijus Raisol</t>
-  </si>
-  <si>
-    <t>IMACORS</t>
-  </si>
-  <si>
-    <t>HOTLYMPHO</t>
-  </si>
-  <si>
     <t>Endophtalmitis</t>
   </si>
   <si>
+    <t>SHAH</t>
+  </si>
+  <si>
+    <t>DOREFA</t>
+  </si>
+  <si>
     <t>DEGLUTHYR</t>
   </si>
   <si>
-    <t>SHAH</t>
-  </si>
-  <si>
     <t>EQUAL</t>
   </si>
   <si>
+    <t>VITALIM Senior</t>
+  </si>
+  <si>
     <t>PHENOMAP</t>
   </si>
   <si>
-    <t>DOREFA</t>
-  </si>
-  <si>
     <t>Pascal</t>
   </si>
   <si>
-    <t>VITALIM Senior</t>
+    <t>INFRA</t>
+  </si>
+  <si>
+    <t>PROMISE</t>
+  </si>
+  <si>
+    <t>BUCCODOR</t>
   </si>
   <si>
     <t>VERROU-REA</t>
@@ -868,247 +877,238 @@
     <t>Prodige20</t>
   </si>
   <si>
-    <t>BUCCODOR</t>
+    <t>LEAD</t>
+  </si>
+  <si>
+    <t>SPHINGO</t>
+  </si>
+  <si>
+    <t>ObeDi</t>
+  </si>
+  <si>
+    <t>ATLAS</t>
+  </si>
+  <si>
+    <t>Ceftaroline</t>
+  </si>
+  <si>
+    <t>ICAR</t>
+  </si>
+  <si>
+    <t>TML 400 m</t>
+  </si>
+  <si>
+    <t>CHIPOFIL</t>
   </si>
   <si>
     <t>HORTOCI</t>
   </si>
   <si>
-    <t>Ceftaroline</t>
-  </si>
-  <si>
-    <t>LEAD</t>
-  </si>
-  <si>
-    <t>PROMISE</t>
-  </si>
-  <si>
-    <t>TML 400 m</t>
-  </si>
-  <si>
-    <t>ICAR</t>
-  </si>
-  <si>
-    <t>INFRA</t>
-  </si>
-  <si>
-    <t>ObeDi</t>
-  </si>
-  <si>
-    <t>SPHINGO</t>
-  </si>
-  <si>
-    <t>CHIPOFIL</t>
-  </si>
-  <si>
-    <t>ATLAS</t>
+    <t>SUPRA</t>
+  </si>
+  <si>
+    <t>AUDIPIC</t>
+  </si>
+  <si>
+    <t>QUALITY</t>
+  </si>
+  <si>
+    <t>IVOIRE</t>
+  </si>
+  <si>
+    <t>POSTURODYN</t>
   </si>
   <si>
     <t>COCOON</t>
   </si>
   <si>
-    <t>AUDIPIC</t>
-  </si>
-  <si>
-    <t>SUPRA</t>
-  </si>
-  <si>
-    <t>IVOIRE</t>
-  </si>
-  <si>
-    <t>POSTURODYN</t>
-  </si>
-  <si>
-    <t>QUALITY</t>
+    <t>Holter Gly</t>
+  </si>
+  <si>
+    <t>XXS SYMPA</t>
+  </si>
+  <si>
+    <t>PHAR</t>
+  </si>
+  <si>
+    <t>CIRCE</t>
   </si>
   <si>
     <t>MRI Meniere</t>
   </si>
   <si>
-    <t>CIRCE</t>
-  </si>
-  <si>
-    <t>XXS SYMPA</t>
+    <t>TMSFOS</t>
   </si>
   <si>
     <t>PAVO</t>
   </si>
   <si>
-    <t>Holter Gly</t>
-  </si>
-  <si>
-    <t>TMSFOS</t>
-  </si>
-  <si>
-    <t>PHAR</t>
+    <t>CORANAE</t>
+  </si>
+  <si>
+    <t>ENERGETIC</t>
+  </si>
+  <si>
+    <t>SpectrORL1</t>
+  </si>
+  <si>
+    <t>INEV@L</t>
+  </si>
+  <si>
+    <t>BASILE</t>
+  </si>
+  <si>
+    <t>Voix Chantée</t>
+  </si>
+  <si>
+    <t>3C</t>
+  </si>
+  <si>
+    <t>ACG et TREG</t>
   </si>
   <si>
     <t>PUCCAR</t>
   </si>
   <si>
-    <t>INEV@L</t>
-  </si>
-  <si>
-    <t>Voix Chantée</t>
-  </si>
-  <si>
-    <t>CORANAE</t>
-  </si>
-  <si>
-    <t>SpectrORL1</t>
-  </si>
-  <si>
-    <t>ENERGETIC</t>
-  </si>
-  <si>
-    <t>BASILE</t>
+    <t>Casper</t>
   </si>
   <si>
     <t>GREFFE</t>
   </si>
   <si>
-    <t>ACG et TREG</t>
-  </si>
-  <si>
-    <t>Casper</t>
-  </si>
-  <si>
-    <t>3C</t>
+    <t>PARADISE</t>
   </si>
   <si>
     <t>Thermoablation</t>
   </si>
   <si>
-    <t>PARADISE</t>
-  </si>
-  <si>
     <t>Algo Fréq</t>
   </si>
   <si>
     <t>WATER</t>
   </si>
   <si>
+    <t>FIND</t>
+  </si>
+  <si>
+    <t>Cinétique DAPA</t>
+  </si>
+  <si>
+    <t>GESPACE</t>
+  </si>
+  <si>
+    <t>MAPEG</t>
+  </si>
+  <si>
+    <t>EXOMODE</t>
+  </si>
+  <si>
     <t>REDSTIM</t>
   </si>
   <si>
-    <t>Cinétique DAPA</t>
-  </si>
-  <si>
-    <t>EXOMODE</t>
-  </si>
-  <si>
-    <t>MAPEG</t>
-  </si>
-  <si>
-    <t>FIND</t>
-  </si>
-  <si>
-    <t>GESPACE</t>
-  </si>
-  <si>
     <t>CARDIACTIV</t>
   </si>
   <si>
+    <t>TabacStim2</t>
+  </si>
+  <si>
     <t>ApoC1</t>
   </si>
   <si>
-    <t>TabacStim2</t>
-  </si>
-  <si>
     <t>PISEP</t>
   </si>
   <si>
+    <t>ERESCAO</t>
+  </si>
+  <si>
+    <t>FORTIPHY</t>
+  </si>
+  <si>
+    <t>ECMORIX</t>
+  </si>
+  <si>
+    <t>LACTEL</t>
+  </si>
+  <si>
+    <t>LICAS-MR</t>
+  </si>
+  <si>
     <t>LOST</t>
   </si>
   <si>
-    <t>LACTEL</t>
-  </si>
-  <si>
-    <t>FORTIPHY</t>
-  </si>
-  <si>
-    <t>ECMORIX</t>
-  </si>
-  <si>
-    <t>LICAS-MR</t>
-  </si>
-  <si>
-    <t>ERESCAO</t>
+    <t>OFACAR</t>
+  </si>
+  <si>
+    <t>RESISTE</t>
   </si>
   <si>
     <t>ULTRA</t>
   </si>
   <si>
-    <t>OFACAR</t>
-  </si>
-  <si>
     <t>AddaMAP</t>
   </si>
   <si>
-    <t>RESISTE</t>
-  </si>
-  <si>
     <t>STAR</t>
   </si>
   <si>
+    <t>ORFEVRE</t>
+  </si>
+  <si>
+    <t>DOUBLE TACHE</t>
+  </si>
+  <si>
+    <t>TAPBloc Rachis</t>
+  </si>
+  <si>
+    <t>ERGONOMIE</t>
+  </si>
+  <si>
+    <t>CALIPSO</t>
+  </si>
+  <si>
     <t>AHL 2011</t>
   </si>
   <si>
-    <t>DOUBLE TACHE</t>
-  </si>
-  <si>
-    <t>ORFEVRE</t>
-  </si>
-  <si>
     <t>QUALI STROKE</t>
   </si>
   <si>
-    <t>CALIPSO</t>
-  </si>
-  <si>
-    <t>TAPBloc Rachis</t>
-  </si>
-  <si>
     <t>VERROU HEMOST</t>
   </si>
   <si>
     <t>RENES+</t>
   </si>
   <si>
-    <t>ERGONOMIE</t>
-  </si>
-  <si>
     <t>MOSAÏQUE</t>
   </si>
   <si>
     <t>IDASPHERE</t>
   </si>
   <si>
+    <t>rTMS TABAC</t>
+  </si>
+  <si>
+    <t>OMEGAROP</t>
+  </si>
+  <si>
     <t>STRESSOX</t>
   </si>
   <si>
-    <t>OMEGAROP</t>
+    <t>BDNF</t>
   </si>
   <si>
     <t>FACS</t>
   </si>
   <si>
-    <t>BDNF</t>
-  </si>
-  <si>
-    <t>rTMS TABAC</t>
-  </si>
-  <si>
     <t>TOXIB</t>
   </si>
   <si>
     <t>BETA GLUCAN</t>
   </si>
   <si>
+    <t>DRUG</t>
+  </si>
+  <si>
     <t>PROCEDURE</t>
-  </si>
-  <si>
-    <t>DRUG</t>
   </si>
   <si>
     <t>BIOLOGICAL</t>
@@ -1564,10 +1564,10 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
@@ -1584,10 +1584,10 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
@@ -1599,15 +1599,15 @@
         <v>156</v>
       </c>
       <c r="I5" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
@@ -1615,16 +1615,22 @@
       <c r="F6" t="s">
         <v>139</v>
       </c>
+      <c r="G6" t="s">
+        <v>157</v>
+      </c>
+      <c r="H6" t="s">
+        <v>266</v>
+      </c>
       <c r="I6" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
@@ -1632,22 +1638,16 @@
       <c r="F7" t="s">
         <v>139</v>
       </c>
-      <c r="G7" t="s">
-        <v>157</v>
-      </c>
-      <c r="H7" t="s">
-        <v>266</v>
-      </c>
       <c r="I7" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
@@ -1659,15 +1659,15 @@
         <v>158</v>
       </c>
       <c r="I8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
@@ -1675,14 +1675,8 @@
       <c r="F9" t="s">
         <v>140</v>
       </c>
-      <c r="G9" t="s">
-        <v>159</v>
-      </c>
-      <c r="H9" t="s">
-        <v>267</v>
-      </c>
       <c r="I9" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1699,10 +1693,10 @@
         <v>140</v>
       </c>
       <c r="G10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I10" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1719,18 +1713,18 @@
         <v>140</v>
       </c>
       <c r="G11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I11" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
@@ -1738,16 +1732,22 @@
       <c r="F12" t="s">
         <v>140</v>
       </c>
+      <c r="G12" t="s">
+        <v>161</v>
+      </c>
+      <c r="H12" t="s">
+        <v>267</v>
+      </c>
       <c r="I12" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1759,15 +1759,15 @@
         <v>162</v>
       </c>
       <c r="I13" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
@@ -1787,10 +1787,10 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
@@ -1805,15 +1805,15 @@
         <v>269</v>
       </c>
       <c r="I15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
         <v>31</v>
@@ -1821,19 +1821,22 @@
       <c r="F16" t="s">
         <v>142</v>
       </c>
+      <c r="G16" t="s">
+        <v>165</v>
+      </c>
       <c r="H16" t="s">
         <v>270</v>
       </c>
       <c r="I16" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
@@ -1842,7 +1845,7 @@
         <v>142</v>
       </c>
       <c r="G17" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H17" t="s">
         <v>271</v>
@@ -1853,10 +1856,10 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
         <v>33</v>
@@ -1865,7 +1868,7 @@
         <v>142</v>
       </c>
       <c r="G18" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H18" t="s">
         <v>272</v>
@@ -1876,10 +1879,10 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
         <v>34</v>
@@ -1888,18 +1891,18 @@
         <v>142</v>
       </c>
       <c r="G19" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I19" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
         <v>35</v>
@@ -1907,22 +1910,19 @@
       <c r="F20" t="s">
         <v>142</v>
       </c>
-      <c r="G20" t="s">
-        <v>168</v>
-      </c>
       <c r="H20" t="s">
         <v>273</v>
       </c>
       <c r="I20" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
         <v>36</v>
@@ -1937,18 +1937,18 @@
         <v>274</v>
       </c>
       <c r="I21" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" t="s">
-        <v>132</v>
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>37</v>
       </c>
       <c r="F22" t="s">
         <v>143</v>
@@ -1959,16 +1959,19 @@
       <c r="H22" t="s">
         <v>275</v>
       </c>
+      <c r="I22" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F23" t="s">
         <v>143</v>
@@ -1980,7 +1983,7 @@
         <v>276</v>
       </c>
       <c r="I23" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1990,17 +1993,17 @@
       <c r="B24" t="s">
         <v>14</v>
       </c>
-      <c r="C24" t="s">
-        <v>38</v>
+      <c r="D24" t="s">
+        <v>132</v>
       </c>
       <c r="F24" t="s">
         <v>143</v>
       </c>
+      <c r="G24" t="s">
+        <v>172</v>
+      </c>
       <c r="H24" t="s">
         <v>277</v>
-      </c>
-      <c r="I24" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2016,22 +2019,19 @@
       <c r="F25" t="s">
         <v>143</v>
       </c>
-      <c r="G25" t="s">
-        <v>172</v>
-      </c>
       <c r="H25" t="s">
         <v>278</v>
       </c>
       <c r="I25" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C26" t="s">
         <v>40</v>
@@ -2043,18 +2043,18 @@
         <v>173</v>
       </c>
       <c r="H26" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I26" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
         <v>41</v>
@@ -2066,18 +2066,18 @@
         <v>174</v>
       </c>
       <c r="H27" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I27" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
         <v>42</v>
@@ -2089,18 +2089,18 @@
         <v>175</v>
       </c>
       <c r="H28" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="I28" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C29" t="s">
         <v>43</v>
@@ -2115,15 +2115,15 @@
         <v>281</v>
       </c>
       <c r="I29" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C30" t="s">
         <v>44</v>
@@ -2138,7 +2138,7 @@
         <v>282</v>
       </c>
       <c r="I30" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2161,15 +2161,15 @@
         <v>283</v>
       </c>
       <c r="I31" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C32" t="s">
         <v>46</v>
@@ -2189,10 +2189,10 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C33" t="s">
         <v>47</v>
@@ -2203,19 +2203,16 @@
       <c r="G33" t="s">
         <v>180</v>
       </c>
-      <c r="H33" t="s">
-        <v>285</v>
-      </c>
       <c r="I33" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C34" t="s">
         <v>48</v>
@@ -2227,10 +2224,10 @@
         <v>181</v>
       </c>
       <c r="H34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I34" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2250,7 +2247,7 @@
         <v>182</v>
       </c>
       <c r="H35" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I35" t="s">
         <v>363</v>
@@ -2258,10 +2255,10 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C36" t="s">
         <v>50</v>
@@ -2273,7 +2270,7 @@
         <v>183</v>
       </c>
       <c r="H36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I36" t="s">
         <v>364</v>
@@ -2281,10 +2278,10 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C37" t="s">
         <v>51</v>
@@ -2296,61 +2293,61 @@
         <v>184</v>
       </c>
       <c r="H37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I37" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" t="s">
-        <v>133</v>
+        <v>14</v>
+      </c>
+      <c r="C38" t="s">
+        <v>52</v>
       </c>
       <c r="F38" t="s">
         <v>144</v>
       </c>
       <c r="G38" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H38" t="s">
-        <v>288</v>
+        <v>289</v>
+      </c>
+      <c r="I38" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" t="s">
-        <v>52</v>
+        <v>14</v>
+      </c>
+      <c r="D39" t="s">
+        <v>133</v>
       </c>
       <c r="F39" t="s">
         <v>144</v>
       </c>
       <c r="G39" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="H39" t="s">
-        <v>290</v>
-      </c>
-      <c r="I39" t="s">
-        <v>366</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C40" t="s">
         <v>53</v>
@@ -2361,16 +2358,19 @@
       <c r="G40" t="s">
         <v>186</v>
       </c>
+      <c r="H40" t="s">
+        <v>290</v>
+      </c>
       <c r="I40" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C41" t="s">
         <v>54</v>
@@ -2385,15 +2385,15 @@
         <v>291</v>
       </c>
       <c r="I41" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C42" t="s">
         <v>55</v>
@@ -2413,10 +2413,10 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C43" t="s">
         <v>56</v>
@@ -2427,16 +2427,19 @@
       <c r="G43" t="s">
         <v>189</v>
       </c>
+      <c r="H43" t="s">
+        <v>293</v>
+      </c>
       <c r="I43" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C44" t="s">
         <v>57</v>
@@ -2448,18 +2451,18 @@
         <v>190</v>
       </c>
       <c r="H44" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I44" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C45" t="s">
         <v>58</v>
@@ -2471,18 +2474,18 @@
         <v>191</v>
       </c>
       <c r="H45" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I45" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C46" t="s">
         <v>59</v>
@@ -2493,19 +2496,16 @@
       <c r="G46" t="s">
         <v>192</v>
       </c>
-      <c r="H46" t="s">
-        <v>295</v>
-      </c>
       <c r="I46" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C47" t="s">
         <v>60</v>
@@ -2520,15 +2520,15 @@
         <v>296</v>
       </c>
       <c r="I47" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C48" t="s">
         <v>61</v>
@@ -2548,10 +2548,10 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C49" t="s">
         <v>62</v>
@@ -2566,7 +2566,7 @@
         <v>298</v>
       </c>
       <c r="I49" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2594,10 +2594,10 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C51" t="s">
         <v>64</v>
@@ -2617,10 +2617,10 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C52" t="s">
         <v>65</v>
@@ -2640,10 +2640,10 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C53" t="s">
         <v>66</v>
@@ -2658,15 +2658,15 @@
         <v>302</v>
       </c>
       <c r="I53" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C54" t="s">
         <v>67</v>
@@ -2681,15 +2681,15 @@
         <v>303</v>
       </c>
       <c r="I54" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C55" t="s">
         <v>68</v>
@@ -2704,15 +2704,15 @@
         <v>304</v>
       </c>
       <c r="I55" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C56" t="s">
         <v>69</v>
@@ -2727,15 +2727,15 @@
         <v>305</v>
       </c>
       <c r="I56" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C57" t="s">
         <v>70</v>
@@ -2750,15 +2750,15 @@
         <v>306</v>
       </c>
       <c r="I57" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D58" t="s">
         <v>134</v>
@@ -2775,10 +2775,10 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C59" t="s">
         <v>71</v>
@@ -2798,10 +2798,10 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C60" t="s">
         <v>72</v>
@@ -2816,15 +2816,15 @@
         <v>309</v>
       </c>
       <c r="I60" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C61" t="s">
         <v>73</v>
@@ -2839,15 +2839,15 @@
         <v>310</v>
       </c>
       <c r="I61" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C62" t="s">
         <v>74</v>
@@ -2867,13 +2867,13 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B63" t="s">
-        <v>13</v>
-      </c>
-      <c r="C63" t="s">
-        <v>75</v>
+        <v>14</v>
+      </c>
+      <c r="D63" t="s">
+        <v>135</v>
       </c>
       <c r="F63" t="s">
         <v>147</v>
@@ -2881,22 +2881,16 @@
       <c r="G63" t="s">
         <v>209</v>
       </c>
-      <c r="H63" t="s">
-        <v>312</v>
-      </c>
-      <c r="I63" t="s">
-        <v>365</v>
-      </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B64" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C64" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F64" t="s">
         <v>147</v>
@@ -2905,21 +2899,21 @@
         <v>210</v>
       </c>
       <c r="H64" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I64" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B65" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C65" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F65" t="s">
         <v>147</v>
@@ -2928,21 +2922,21 @@
         <v>211</v>
       </c>
       <c r="H65" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I65" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C66" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F66" t="s">
         <v>147</v>
@@ -2951,21 +2945,21 @@
         <v>212</v>
       </c>
       <c r="H66" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I66" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B67" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F67" t="s">
         <v>147</v>
@@ -2974,21 +2968,21 @@
         <v>213</v>
       </c>
       <c r="H67" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I67" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C68" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F68" t="s">
         <v>147</v>
@@ -2997,7 +2991,7 @@
         <v>214</v>
       </c>
       <c r="H68" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I68" t="s">
         <v>365</v>
@@ -3005,13 +2999,13 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>13</v>
-      </c>
-      <c r="D69" t="s">
-        <v>135</v>
+        <v>15</v>
+      </c>
+      <c r="C69" t="s">
+        <v>80</v>
       </c>
       <c r="F69" t="s">
         <v>147</v>
@@ -3019,13 +3013,19 @@
       <c r="G69" t="s">
         <v>215</v>
       </c>
+      <c r="H69" t="s">
+        <v>317</v>
+      </c>
+      <c r="I69" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C70" t="s">
         <v>81</v>
@@ -3042,10 +3042,10 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C71" t="s">
         <v>82</v>
@@ -3060,15 +3060,15 @@
         <v>319</v>
       </c>
       <c r="I71" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B72" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C72" t="s">
         <v>83</v>
@@ -3083,15 +3083,15 @@
         <v>320</v>
       </c>
       <c r="I72" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C73" t="s">
         <v>84</v>
@@ -3106,15 +3106,15 @@
         <v>321</v>
       </c>
       <c r="I73" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B74" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C74" t="s">
         <v>85</v>
@@ -3177,10 +3177,10 @@
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B77" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C77" t="s">
         <v>88</v>
@@ -3195,15 +3195,15 @@
         <v>324</v>
       </c>
       <c r="I77" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B78" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C78" t="s">
         <v>89</v>
@@ -3218,15 +3218,15 @@
         <v>325</v>
       </c>
       <c r="I78" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B79" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C79" t="s">
         <v>90</v>
@@ -3241,15 +3241,15 @@
         <v>326</v>
       </c>
       <c r="I79" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B80" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C80" t="s">
         <v>91</v>
@@ -3269,10 +3269,10 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B81" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C81" t="s">
         <v>92</v>
@@ -3292,10 +3292,10 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B82" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C82" t="s">
         <v>93</v>
@@ -3310,15 +3310,15 @@
         <v>329</v>
       </c>
       <c r="I82" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B83" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C83" t="s">
         <v>94</v>
@@ -3338,10 +3338,10 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B84" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C84" t="s">
         <v>95</v>
@@ -3352,19 +3352,16 @@
       <c r="G84" t="s">
         <v>229</v>
       </c>
-      <c r="H84" t="s">
-        <v>331</v>
-      </c>
       <c r="I84" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B85" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C85" t="s">
         <v>96</v>
@@ -3375,16 +3372,19 @@
       <c r="G85" t="s">
         <v>230</v>
       </c>
+      <c r="H85" t="s">
+        <v>331</v>
+      </c>
       <c r="I85" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B86" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C86" t="s">
         <v>97</v>
@@ -3399,15 +3399,15 @@
         <v>332</v>
       </c>
       <c r="I86" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B87" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C87" t="s">
         <v>98</v>
@@ -3422,15 +3422,15 @@
         <v>333</v>
       </c>
       <c r="I87" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B88" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C88" t="s">
         <v>99</v>
@@ -3450,10 +3450,10 @@
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B89" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C89" t="s">
         <v>100</v>
@@ -3468,15 +3468,15 @@
         <v>335</v>
       </c>
       <c r="I89" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B90" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C90" t="s">
         <v>101</v>
@@ -3491,7 +3491,7 @@
         <v>336</v>
       </c>
       <c r="I90" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3519,10 +3519,10 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B92" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C92" t="s">
         <v>103</v>
@@ -3537,15 +3537,15 @@
         <v>338</v>
       </c>
       <c r="I92" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B93" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C93" t="s">
         <v>104</v>
@@ -3565,10 +3565,10 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B94" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C94" t="s">
         <v>105</v>
@@ -3583,15 +3583,15 @@
         <v>340</v>
       </c>
       <c r="I94" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C95" t="s">
         <v>106</v>
@@ -3606,15 +3606,15 @@
         <v>341</v>
       </c>
       <c r="I95" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B96" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C96" t="s">
         <v>107</v>
@@ -3629,15 +3629,15 @@
         <v>342</v>
       </c>
       <c r="I96" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B97" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C97" t="s">
         <v>108</v>
@@ -3652,15 +3652,15 @@
         <v>343</v>
       </c>
       <c r="I97" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C98" t="s">
         <v>109</v>
@@ -3672,24 +3672,24 @@
         <v>344</v>
       </c>
       <c r="I98" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B99" t="s">
-        <v>13</v>
-      </c>
-      <c r="C99" t="s">
-        <v>110</v>
+        <v>14</v>
+      </c>
+      <c r="D99" t="s">
+        <v>136</v>
       </c>
       <c r="G99" t="s">
         <v>244</v>
       </c>
-      <c r="I99" t="s">
-        <v>366</v>
+      <c r="H99" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3700,136 +3700,130 @@
         <v>14</v>
       </c>
       <c r="C100" t="s">
-        <v>111</v>
-      </c>
-      <c r="D100" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="G100" t="s">
         <v>245</v>
       </c>
-      <c r="H100" t="s">
-        <v>345</v>
-      </c>
       <c r="I100" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B101" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C101" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G101" t="s">
         <v>246</v>
       </c>
       <c r="H101" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I101" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B102" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C102" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G102" t="s">
         <v>247</v>
       </c>
       <c r="H102" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I102" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B103" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C103" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G103" t="s">
         <v>248</v>
       </c>
-      <c r="H103" t="s">
-        <v>348</v>
-      </c>
       <c r="I103" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C104" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G104" t="s">
         <v>249</v>
       </c>
       <c r="H104" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I104" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B105" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C105" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G105" t="s">
         <v>250</v>
       </c>
+      <c r="H105" t="s">
+        <v>348</v>
+      </c>
       <c r="I105" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B106" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C106" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G106" t="s">
         <v>251</v>
       </c>
       <c r="H106" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I106" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -3840,24 +3834,30 @@
         <v>13</v>
       </c>
       <c r="C107" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="D107" t="s">
+        <v>137</v>
       </c>
       <c r="G107" t="s">
         <v>252</v>
       </c>
+      <c r="H107" t="s">
+        <v>350</v>
+      </c>
       <c r="I107" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B108" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C108" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G108" t="s">
         <v>253</v>
@@ -3866,47 +3866,44 @@
         <v>351</v>
       </c>
       <c r="I108" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B109" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C109" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G109" t="s">
         <v>254</v>
       </c>
-      <c r="H109" t="s">
-        <v>352</v>
-      </c>
       <c r="I109" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B110" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C110" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G110" t="s">
         <v>255</v>
       </c>
       <c r="H110" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I110" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -3917,16 +3914,16 @@
         <v>14</v>
       </c>
       <c r="C111" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G111" t="s">
         <v>256</v>
       </c>
       <c r="H111" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I111" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -3937,13 +3934,13 @@
         <v>13</v>
       </c>
       <c r="C112" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G112" t="s">
         <v>257</v>
       </c>
       <c r="H112" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I112" t="s">
         <v>365</v>
@@ -3951,173 +3948,176 @@
     </row>
     <row r="113" spans="1:9">
       <c r="A113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B113" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C113" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G113" t="s">
         <v>258</v>
       </c>
       <c r="H113" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I113" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B114" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C114" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G114" t="s">
         <v>259</v>
       </c>
       <c r="H114" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I114" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B115" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C115" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G115" t="s">
         <v>260</v>
       </c>
       <c r="H115" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I115" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B116" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C116" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G116" t="s">
         <v>261</v>
       </c>
       <c r="H116" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I116" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B117" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C117" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G117" t="s">
         <v>262</v>
       </c>
       <c r="H117" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I117" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B118" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C118" t="s">
-        <v>129</v>
+        <v>128</v>
+      </c>
+      <c r="G118" t="s">
+        <v>263</v>
+      </c>
+      <c r="H118" t="s">
+        <v>360</v>
       </c>
       <c r="I118" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B119" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C119" t="s">
-        <v>130</v>
-      </c>
-      <c r="G119" t="s">
-        <v>263</v>
-      </c>
-      <c r="H119" t="s">
-        <v>361</v>
+        <v>129</v>
       </c>
       <c r="I119" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B120" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C120" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G120" t="s">
         <v>264</v>
       </c>
       <c r="H120" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I120" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B121" t="s">
-        <v>13</v>
-      </c>
-      <c r="D121" t="s">
-        <v>137</v>
+        <v>14</v>
+      </c>
+      <c r="C121" t="s">
+        <v>131</v>
       </c>
       <c r="G121" t="s">
         <v>265</v>
       </c>
       <c r="H121" t="s">
-        <v>341</v>
+        <v>362</v>
+      </c>
+      <c r="I121" t="s">
+        <v>365</v>
       </c>
     </row>
   </sheetData>

--- a/publipostage2/0377z4z10/liste_essais_cliniques_identifies_0377z4z10.xlsx
+++ b/publipostage2/0377z4z10/liste_essais_cliniques_identifies_0377z4z10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="389">
   <si>
     <t>statut</t>
   </si>
@@ -43,109 +43,127 @@
     <t>intervention_type</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>3: résultats postés ou publiés après les 36 mois</t>
-  </si>
-  <si>
-    <t>4: pas de résultats postés ni publiés</t>
-  </si>
-  <si>
-    <t>2: résultats postés ou publiés entre 12 et 36 mois</t>
-  </si>
-  <si>
-    <t>1: résultats postés ou publiés dans les 12 mois</t>
+    <t>4 : pas de résultats postés ni publiés</t>
+  </si>
+  <si>
+    <t>3 : résultats postés ou publiés après les 36 mois</t>
+  </si>
+  <si>
+    <t>2 : résultats postés ou publiés entre 12 et 36 mois</t>
+  </si>
+  <si>
+    <t>1 : résultats postés ou publiés dans les 12 mois</t>
+  </si>
+  <si>
+    <t>NCT00851760</t>
   </si>
   <si>
     <t>NCT00658463</t>
   </si>
   <si>
-    <t>NCT00851760</t>
+    <t>NCT01481987</t>
   </si>
   <si>
     <t>NCT00629044</t>
   </si>
   <si>
-    <t>NCT01481987</t>
+    <t>NCT01907620</t>
+  </si>
+  <si>
+    <t>NCT01599338</t>
   </si>
   <si>
     <t>NCT02873858</t>
   </si>
   <si>
-    <t>NCT01907620</t>
-  </si>
-  <si>
-    <t>NCT01599338</t>
+    <t>NCT01040559</t>
+  </si>
+  <si>
+    <t>NCT00354237</t>
+  </si>
+  <si>
+    <t>NCT03657979</t>
+  </si>
+  <si>
+    <t>NCT00953498</t>
   </si>
   <si>
     <t>NCT01907477</t>
   </si>
   <si>
-    <t>NCT01040559</t>
-  </si>
-  <si>
-    <t>NCT00354237</t>
-  </si>
-  <si>
-    <t>NCT03657979</t>
-  </si>
-  <si>
-    <t>NCT00953498</t>
-  </si>
-  <si>
     <t>NCT03656900</t>
   </si>
   <si>
     <t>NCT01963299</t>
   </si>
   <si>
+    <t>NCT02028936</t>
+  </si>
+  <si>
+    <t>NCT01768078</t>
+  </si>
+  <si>
+    <t>NCT01907399</t>
+  </si>
+  <si>
+    <t>NCT01510314</t>
+  </si>
+  <si>
+    <t>NCT02080728</t>
+  </si>
+  <si>
     <t>NCT02859090</t>
   </si>
   <si>
-    <t>NCT02028936</t>
-  </si>
-  <si>
-    <t>NCT01510314</t>
-  </si>
-  <si>
-    <t>NCT02080728</t>
-  </si>
-  <si>
-    <t>NCT01907399</t>
-  </si>
-  <si>
-    <t>NCT01768078</t>
+    <t>NCT01904812</t>
+  </si>
+  <si>
+    <t>NCT01767038</t>
+  </si>
+  <si>
+    <t>NCT02855866</t>
+  </si>
+  <si>
+    <t>NCT01340222</t>
   </si>
   <si>
     <t>NCT02814240</t>
   </si>
   <si>
-    <t>NCT01767038</t>
-  </si>
-  <si>
-    <t>NCT01904812</t>
-  </si>
-  <si>
-    <t>NCT02855866</t>
+    <t>NCT01766362</t>
   </si>
   <si>
     <t>NCT02810041</t>
   </si>
   <si>
-    <t>NCT01340222</t>
-  </si>
-  <si>
-    <t>NCT01766362</t>
+    <t>NCT01910038</t>
+  </si>
+  <si>
+    <t>NCT02028949</t>
+  </si>
+  <si>
+    <t>NCT01900717</t>
+  </si>
+  <si>
+    <t>NCT02851602</t>
+  </si>
+  <si>
+    <t>NCT03227887</t>
+  </si>
+  <si>
+    <t>NCT02862899</t>
   </si>
   <si>
     <t>NCT02856009</t>
@@ -157,112 +175,97 @@
     <t>NCT02167724</t>
   </si>
   <si>
-    <t>NCT02028949</t>
+    <t>NCT01610258</t>
+  </si>
+  <si>
+    <t>NCT01904929</t>
   </si>
   <si>
     <t>NCT01962116</t>
   </si>
   <si>
-    <t>NCT01900717</t>
+    <t>NCT01762683</t>
+  </si>
+  <si>
+    <t>NCT02806882</t>
   </si>
   <si>
     <t>NCT01618981</t>
   </si>
   <si>
-    <t>NCT02851602</t>
-  </si>
-  <si>
-    <t>NCT01762683</t>
-  </si>
-  <si>
     <t>NCT02851394</t>
   </si>
   <si>
-    <t>NCT02806882</t>
-  </si>
-  <si>
-    <t>NCT01610258</t>
-  </si>
-  <si>
-    <t>NCT01904929</t>
-  </si>
-  <si>
-    <t>NCT02862899</t>
-  </si>
-  <si>
-    <t>NCT01910038</t>
-  </si>
-  <si>
-    <t>NCT03227887</t>
+    <t>NCT02656654</t>
+  </si>
+  <si>
+    <t>NCT02730832</t>
+  </si>
+  <si>
+    <t>NCT03201328</t>
+  </si>
+  <si>
+    <t>NCT01907581</t>
   </si>
   <si>
     <t>NCT02851433</t>
   </si>
   <si>
-    <t>NCT03201328</t>
-  </si>
-  <si>
-    <t>NCT02730832</t>
-  </si>
-  <si>
-    <t>NCT01907581</t>
-  </si>
-  <si>
     <t>NCT02851524</t>
   </si>
   <si>
-    <t>NCT02656654</t>
+    <t>NCT03215420</t>
+  </si>
+  <si>
+    <t>NCT03215446</t>
   </si>
   <si>
     <t>NCT02862860</t>
   </si>
   <si>
+    <t>NCT01798173</t>
+  </si>
+  <si>
     <t>NCT02826083</t>
   </si>
   <si>
-    <t>NCT03215446</t>
-  </si>
-  <si>
-    <t>NCT01798173</t>
-  </si>
-  <si>
-    <t>NCT03215420</t>
-  </si>
-  <si>
     <t>NCT02171897</t>
   </si>
   <si>
+    <t>NCT02859506</t>
+  </si>
+  <si>
+    <t>NCT03317093</t>
+  </si>
+  <si>
+    <t>NCT02824107</t>
+  </si>
+  <si>
+    <t>NCT02156245</t>
+  </si>
+  <si>
     <t>NCT03491423</t>
   </si>
   <si>
-    <t>NCT02156245</t>
+    <t>NCT03864016</t>
+  </si>
+  <si>
+    <t>NCT02857192</t>
+  </si>
+  <si>
+    <t>NCT01904799</t>
+  </si>
+  <si>
+    <t>NCT01766596</t>
   </si>
   <si>
     <t>NCT02851420</t>
   </si>
   <si>
-    <t>NCT02824107</t>
-  </si>
-  <si>
-    <t>NCT03317093</t>
-  </si>
-  <si>
     <t>NCT03830580</t>
   </si>
   <si>
-    <t>NCT01766596</t>
-  </si>
-  <si>
-    <t>NCT02857192</t>
-  </si>
-  <si>
-    <t>NCT03864016</t>
-  </si>
-  <si>
-    <t>NCT01904799</t>
-  </si>
-  <si>
-    <t>NCT02859506</t>
+    <t>NCT03951519</t>
   </si>
   <si>
     <t>NCT02856074</t>
@@ -277,144 +280,156 @@
     <t>NCT02402855</t>
   </si>
   <si>
-    <t>NCT03951519</t>
+    <t>NCT03280875</t>
+  </si>
+  <si>
+    <t>NCT04860414</t>
   </si>
   <si>
     <t>NCT03288727</t>
   </si>
   <si>
+    <t>NCT02505126</t>
+  </si>
+  <si>
     <t>NCT03269058</t>
   </si>
   <si>
     <t>NCT03097276</t>
   </si>
   <si>
-    <t>NCT04860414</t>
-  </si>
-  <si>
-    <t>NCT03280875</t>
-  </si>
-  <si>
-    <t>NCT02505126</t>
+    <t>NCT03334526</t>
+  </si>
+  <si>
+    <t>NCT02816099</t>
   </si>
   <si>
     <t>NCT04820959</t>
   </si>
   <si>
-    <t>NCT03334526</t>
-  </si>
-  <si>
     <t>NCT04591743</t>
   </si>
   <si>
-    <t>NCT02816099</t>
-  </si>
-  <si>
     <t>NCT03818269</t>
   </si>
   <si>
+    <t>NCT03498001</t>
+  </si>
+  <si>
+    <t>NCT05032521</t>
+  </si>
+  <si>
     <t>NCT03773198</t>
   </si>
   <si>
+    <t>NCT02085772</t>
+  </si>
+  <si>
+    <t>NCT04886180</t>
+  </si>
+  <si>
     <t>NCT05739448</t>
   </si>
   <si>
-    <t>NCT04886180</t>
-  </si>
-  <si>
-    <t>NCT05032521</t>
-  </si>
-  <si>
-    <t>NCT03498001</t>
-  </si>
-  <si>
-    <t>NCT02085772</t>
+    <t>NCT04312178</t>
+  </si>
+  <si>
+    <t>NCT03480191</t>
+  </si>
+  <si>
+    <t>NCT05182242</t>
   </si>
   <si>
     <t>NCT04886453</t>
   </si>
   <si>
-    <t>NCT04312178</t>
+    <t>NCT05813431</t>
   </si>
   <si>
     <t>NCT03711448</t>
   </si>
   <si>
-    <t>NCT03480191</t>
+    <t>NCT05331729</t>
+  </si>
+  <si>
+    <t>NCT01950754</t>
+  </si>
+  <si>
+    <t>NCT01884883</t>
+  </si>
+  <si>
+    <t>NCT02055664</t>
+  </si>
+  <si>
+    <t>NCT01950975</t>
+  </si>
+  <si>
+    <t>NCT02042508</t>
   </si>
   <si>
     <t>NCT02557451</t>
   </si>
   <si>
+    <t>NCT02860299</t>
+  </si>
+  <si>
+    <t>NCT02855970</t>
+  </si>
+  <si>
+    <t>NCT02080793</t>
+  </si>
+  <si>
     <t>NCT02814747</t>
   </si>
   <si>
-    <t>NCT01884883</t>
-  </si>
-  <si>
-    <t>NCT01950754</t>
+    <t>NCT01358747</t>
   </si>
   <si>
     <t>NCT02046707</t>
   </si>
   <si>
-    <t>NCT02055664</t>
+    <t>NCT02870010</t>
+  </si>
+  <si>
+    <t>NCT01903694</t>
+  </si>
+  <si>
+    <t>NCT02851680</t>
+  </si>
+  <si>
+    <t>NCT02856191</t>
+  </si>
+  <si>
+    <t>NCT02860260</t>
   </si>
   <si>
     <t>NCT02765685</t>
   </si>
   <si>
-    <t>NCT02080793</t>
-  </si>
-  <si>
-    <t>NCT01358747</t>
-  </si>
-  <si>
-    <t>NCT02855970</t>
-  </si>
-  <si>
-    <t>NCT02042508</t>
-  </si>
-  <si>
-    <t>NCT02860299</t>
-  </si>
-  <si>
     <t>NCT02866474</t>
   </si>
   <si>
-    <t>NCT01950975</t>
-  </si>
-  <si>
-    <t>NCT02870010</t>
+    <t>NCT02820662</t>
   </si>
   <si>
     <t>NCT02812810</t>
   </si>
   <si>
-    <t>NCT02820662</t>
-  </si>
-  <si>
     <t>NCT02862886</t>
   </si>
   <si>
-    <t>NCT02860260</t>
-  </si>
-  <si>
-    <t>NCT02856191</t>
-  </si>
-  <si>
-    <t>NCT01903694</t>
-  </si>
-  <si>
     <t>NCT01950962</t>
   </si>
   <si>
-    <t>NCT02851680</t>
+    <t>2010-022618-19</t>
   </si>
   <si>
     <t>2013-000950-23</t>
   </si>
   <si>
+    <t>2010-022080-34</t>
+  </si>
+  <si>
     <t>2014-005320-10</t>
   </si>
   <si>
@@ -424,12 +439,18 @@
     <t>2016-003917-83</t>
   </si>
   <si>
+    <t>2017-002888-18</t>
+  </si>
+  <si>
     <t>2021-000066-16</t>
   </si>
   <si>
     <t>2010-022844-19</t>
   </si>
   <si>
+    <t>2024-515303-19-00</t>
+  </si>
+  <si>
     <t>2007</t>
   </si>
   <si>
@@ -475,24 +496,27 @@
     <t>2024</t>
   </si>
   <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>Idiopathic Epiretinal Macular Membrane and Cataract Extraction : Combined vs Consecutive Surgery</t>
+  </si>
+  <si>
     <t>Effects of Rosuvastatin on the, in Vivo, Kinetic of VLDL apoB, IDL apoB, LDL apoB and HDL apoA1, Using Stable Isotopes, in Type 2 Diabetic Patients</t>
   </si>
   <si>
-    <t>Idiopathic Epiretinal Macular Membrane and Cataract Extraction : Combined vs Consecutive Surgery</t>
+    <t>Retinal Sensitivity and Optical Coherence Tomography Findings in Eyes With Idiopathic Epiretinal Membrane</t>
   </si>
   <si>
     <t>Etude du Polymorphysme génétique de la cholestérol 24S Hydroxylase et Des Teneurs en 24S hydroxycholestérol Chez Des Patients Atteints de Glaucome ou de dégénérescence Maculaire liée à l'âge.</t>
   </si>
   <si>
-    <t>Retinal Sensitivity and Optical Coherence Tomography Findings in Eyes With Idiopathic Epiretinal Membrane</t>
+    <t>Influence du Victoza (Liraglutide,Analogue GLP-1) Sur Les Performances Gustatives, le Rassasiement Sensoriel spécifique, le Liking et le Wanting Chez Les Patients diabétiques de Type 2.</t>
   </si>
   <si>
     <t>Elucidation of Sensory Characteristics and Food Preferences in the Elderly</t>
   </si>
   <si>
-    <t>Influence du Victoza (Liraglutide,Analogue GLP-1) Sur Les Performances Gustatives, le Rassasiement Sensoriel spécifique, le Liking et le Wanting Chez Les Patients diabétiques de Type 2.</t>
-  </si>
-  <si>
     <t>Chemoembolisation of Non Resectable, Non Metastatic Hepatocellular Carcinomas Combining DC Bead Microspheres Loaded With Idarubicin (Zavedos®): Phase I Trial</t>
   </si>
   <si>
@@ -511,40 +535,58 @@
     <t>Prospective Randomised Double-blind Study to Compare Ropivacaine 10mg/mL Alone Versus Ropivacaine 10mg/mL Associated With Clonidine 1µg/kg for Peribulbar Anesthesia in Posterior Eye Surgery</t>
   </si>
   <si>
+    <t>Study of the Impact of the Regular Consumption of Polyphenol-rich Grape Juice on the Biological Parameters of Oxidative Stress and on Endothelial Function in Healthy Subjects: a Prospective Randomised Double-blind Study</t>
+  </si>
+  <si>
+    <t>Interest of Intravitreal Corticotherapy as the First-line Treatment for Post-operative Endophthalmitis.</t>
+  </si>
+  <si>
+    <t>Comparison of C-reactive Protein and Procalcitonin to Detect Infectious Complications After Elective Colorectal Surgery</t>
+  </si>
+  <si>
+    <t>Transversus Abdominis Plane Block During Kidney Transplant Surgery: Prospective Controlled Randomized Double-blind Trial Comparing Ropivacaine 0.2% With Placebo.</t>
+  </si>
+  <si>
     <t>Single-centre Study of the Expression of Heat Shock Proteins in the Lymphocytes From the Tonsils of Patients With Various Diseases Requiring Tonsillectomy</t>
   </si>
   <si>
-    <t>Study of the Impact of the Regular Consumption of Polyphenol-rich Grape Juice on the Biological Parameters of Oxidative Stress and on Endothelial Function in Healthy Subjects: a Prospective Randomised Double-blind Study</t>
-  </si>
-  <si>
-    <t>Comparison of C-reactive Protein and Procalcitonin to Detect Infectious Complications After Elective Colorectal Surgery</t>
-  </si>
-  <si>
-    <t>Transversus Abdominis Plane Block During Kidney Transplant Surgery: Prospective Controlled Randomized Double-blind Trial Comparing Ropivacaine 0.2% With Placebo.</t>
-  </si>
-  <si>
-    <t>Interest of Intravitreal Corticotherapy as the First-line Treatment for Post-operative Endophthalmitis.</t>
+    <t>Study of Anatomical and Functional Recovery Following Retinal Detachment: Identify Correlations Between Visual Acuity and SD-OCT and Microperimetry Findings.</t>
+  </si>
+  <si>
+    <t>Interest of Cryotherapy or Cortisone Aerosol Therapy in Early Post-operative Swallowing Disorders Following Total Thyroidectomy</t>
+  </si>
+  <si>
+    <t>Intérêt de la cryothérapie ou de l'aérosolisation par corticoïdes sur les troubles de la déglutition en post-opératoire précose après thyroïdectomie totale.</t>
+  </si>
+  <si>
+    <t>Evaluation of the Prognostic Value of Monocytes and Lymphocyte Phenotyping, Along With Intracellular MCP-1 Expression, to Predict Preterm Delivery for Women Hospitalized for Threat of Preterm Labor Between 24 and 34 Weeks of Amenorrhea: PhenoMAP Study</t>
   </si>
   <si>
     <t>Hepatic Steatosis and Pituitary Gland Failure, Evaluation by NMR Imaging</t>
   </si>
   <si>
-    <t>Study of Anatomical and Functional Recovery Following Retinal Detachment: Identify Correlations Between Visual Acuity and SD-OCT and Microperimetry Findings.</t>
-  </si>
-  <si>
-    <t>Intérêt de la cryothérapie ou de l'aérosolisation par corticoïdes sur les troubles de la déglutition en post-opératoire précose après thyroïdectomie totale.</t>
-  </si>
-  <si>
-    <t>Interest of Cryotherapy or Cortisone Aerosol Therapy in Early Post-operative Swallowing Disorders Following Total Thyroidectomy</t>
+    <t>Incidence of Macular Edema After Panretinal Photocoagulation (PRPC) Performed in a Single Session Versus Four Sessions in Diabetic Patients.</t>
   </si>
   <si>
     <t>Randomized Controlled Double-blind Clinical Trial for the Effect of Yoghurts Enriched in XXS vs Without XXS on the Evolution of Weight in Overweight Subjects Aged 50 to 65 Years.</t>
   </si>
   <si>
-    <t>Evaluation of the Prognostic Value of Monocytes and Lymphocyte Phenotyping, Along With Intracellular MCP-1 Expression, to Predict Preterm Delivery for Women Hospitalized for Threat of Preterm Labor Between 24 and 34 Weeks of Amenorrhea: PhenoMAP Study</t>
-  </si>
-  <si>
-    <t>Incidence of Macular Edema After Panretinal Photocoagulation (PRPC) Performed in a Single Session Versus Four Sessions in Diabetic Patients.</t>
+    <t>Evaluation of Tocilizumab as an add-on Therapy to Corticoids in Giant Cell Arteritis: Proof of Concept Study.</t>
+  </si>
+  <si>
+    <t>LIDA-B: Treatment of Cirrhosis-related Hepatocellular Carcinoma With the Intrahepatic Arterial Injection of an Emulsion of Lipiodol and Idarubicin (Zavedos®): Phase I Study</t>
+  </si>
+  <si>
+    <t>Evaluation of Bevacizumab in Combination With First-Line Chemotherapy in Patients Aged 75 Years of Older With Metastatic Colorectal Adenocarcinoma</t>
+  </si>
+  <si>
+    <t>Phospholipid and Sphingolipid Composition of High-density Lipoproteins (HDL) in Obese Non-diabetic Patients With Metabolic Syndrome</t>
+  </si>
+  <si>
+    <t>Evaluation of the Link Between the Characteristics of Oral Physiology and Formation of the Food Bolus During the Consumption of Cereal Products in Elderly People Via a Modelling Approach.</t>
+  </si>
+  <si>
+    <t>Use of a Heating Cable to Obtain Hyperthermia During Intraperitoneal Chemotherapy</t>
   </si>
   <si>
     <t>Impact of Nutritional Status and Frailty on the Prognosis of Patients Over 75 Years Old Who Suffered a Stroke</t>
@@ -556,115 +598,100 @@
     <t>Multicentre Evaluation of Bucco-dental Health in Patients With Schizophrenia in Côte d'Or</t>
   </si>
   <si>
-    <t>LIDA-B: Treatment of Cirrhosis-related Hepatocellular Carcinoma With the Intrahepatic Arterial Injection of an Emulsion of Lipiodol and Idarubicin (Zavedos®): Phase I Study</t>
+    <t>Contribution of the Study of Maternal Plasmatic Regulator T Cells and Th17 for the Diagnosis of Acute Chorioanmionitis Among Women Hospitalized for Premature Rupture of Fetal Membranes (PPROM) Between 24 and 34 Gestation Weeks</t>
+  </si>
+  <si>
+    <t>Evaluation of the Psychometric Properties of the 400m-walk-test at a Self-selected Speed (400m WT) for Stable Coronary Patients</t>
   </si>
   <si>
     <t>Citrate Versus Heparin for the Lock of Non-tunneled Hemodialysis Catheters in Patients Hospitalised in ICU = Multicentre, Controlled, Randomised Superiority Trial</t>
   </si>
   <si>
-    <t>Evaluation of Bevacizumab in Combination With First-Line Chemotherapy in Patients Aged 75 Years of Older With Metastatic Colorectal Adenocarcinoma</t>
+    <t>Study of Role of Mononuclear Cells of Maternal Peripheric Blood in Human Myometrial Primar Cell Lines Differentiation Toward a Contratyl Phenotype: Influence of Preconceptional Obesity</t>
+  </si>
+  <si>
+    <t>Open and Exploratory Trial to Investigate the Pharmacokinetic of Ceftaroline in Patients With CSF Device</t>
   </si>
   <si>
     <t>LEft Atrial Pacing in Diastolic Heart Failure</t>
   </si>
   <si>
-    <t>Phospholipid and Sphingolipid Composition of High-density Lipoproteins (HDL) in Obese Non-diabetic Patients With Metabolic Syndrome</t>
-  </si>
-  <si>
-    <t>Study of Role of Mononuclear Cells of Maternal Peripheric Blood in Human Myometrial Primar Cell Lines Differentiation Toward a Contratyl Phenotype: Influence of Preconceptional Obesity</t>
-  </si>
-  <si>
     <t>Evaluation Of The Efficacy Of A Bolus Infiltration Of The Anaesthetic Tramadol Associated With Continuous Local Anaesthesia Administered Via A Wound Catheter Following Heart Surgery Via Sternotomy At Dijon Chu Single-Centre, Double-Blind, Randomized, Controlled Clinical Trial</t>
   </si>
   <si>
-    <t>Open and Exploratory Trial to Investigate the Pharmacokinetic of Ceftaroline in Patients With CSF Device</t>
-  </si>
-  <si>
-    <t>Contribution of the Study of Maternal Plasmatic Regulator T Cells and Th17 for the Diagnosis of Acute Chorioanmionitis Among Women Hospitalized for Premature Rupture of Fetal Membranes (PPROM) Between 24 and 34 Gestation Weeks</t>
-  </si>
-  <si>
-    <t>Evaluation of the Psychometric Properties of the 400m-walk-test at a Self-selected Speed (400m WT) for Stable Coronary Patients</t>
-  </si>
-  <si>
-    <t>Use of a Heating Cable to Obtain Hyperthermia During Intraperitoneal Chemotherapy</t>
-  </si>
-  <si>
-    <t>Evaluation of Tocilizumab as an add-on Therapy to Corticoids in Giant Cell Arteritis: Proof of Concept Study.</t>
-  </si>
-  <si>
-    <t>Evaluation of the Link Between the Characteristics of Oral Physiology and Formation of the Food Bolus During the Consumption of Cereal Products in Elderly People Via a Modelling Approach.</t>
+    <t>Pilot Study to Evaluate the Efficacy of and the Tolerance to a Body Bandage to Maintain Fluid Balance in Patients With Severe Sepsis or in Septic Shock in an ICU</t>
+  </si>
+  <si>
+    <t>Validation of Scale to Evaluate the Perception of Oral Health in Patients With Schizophrenia</t>
+  </si>
+  <si>
+    <t>Prospective, Single Centre Cohort Study on the Impact of Binaural Audition on Postural Performance and Orientation in Healthy Subjects and Patients With Cochlear Implants.</t>
+  </si>
+  <si>
+    <t>Impact of Socio-economic Vulnerability on Initial Severity and Prognosis in Patients Admitted to an ICU. Prospective, Multi-centre Cohort Study</t>
   </si>
   <si>
     <t>Evaluate the Protective Effect of Conditioning With Sevoflurane Versus Propofol on the Myocardium in Scheduled Aortic Valve Replacement Surgery</t>
   </si>
   <si>
-    <t>Prospective, Single Centre Cohort Study on the Impact of Binaural Audition on Postural Performance and Orientation in Healthy Subjects and Patients With Cochlear Implants.</t>
-  </si>
-  <si>
-    <t>Validation of Scale to Evaluate the Perception of Oral Health in Patients With Schizophrenia</t>
-  </si>
-  <si>
-    <t>Impact of Socio-economic Vulnerability on Initial Severity and Prognosis in Patients Admitted to an ICU. Prospective, Multi-centre Cohort Study</t>
-  </si>
-  <si>
     <t>Proof of Concept Study Concerning Vestibular Stimulation Using a New Method of Dynamic Posturography.</t>
   </si>
   <si>
-    <t>Pilot Study to Evaluate the Efficacy of and the Tolerance to a Body Bandage to Maintain Fluid Balance in Patients With Severe Sepsis or in Septic Shock in an ICU</t>
+    <t>Diagnostic Agreement of Electrophysiological Audiovestibular Examinations With Magnetic Resonance Imaging (MRI) of the Inner Ear in Revealing Endolymphatic Hydrops (EH) in Patients With Certain or Probable Meniere's Disease (MD)</t>
+  </si>
+  <si>
+    <t>Evaluation of Total (Pre and Post) Conditioning on Rhabdomyolysis of Sedation With Sevoflurane Versus Propofol in Vascular Surgery With Clamping</t>
   </si>
   <si>
     <t>Influence of Glycaemic Variability on Oxidative Stress and High-density Lipoprotein (HDL) Function in Type-1 Diabetes</t>
   </si>
   <si>
+    <t>CIRCE: Environmental, Metabolic and Nutritional Factors of Hepatocellular Carcinoma in Cirrhotic Patients</t>
+  </si>
+  <si>
+    <t>Etude préliminaire visant à étudier l’effet de la rTMS et des antidépresseurs ISRS sur l’expression leucocytaire des gènes C-FOS et DUSP1 des patients traités pour un état dépressif</t>
+  </si>
+  <si>
     <t>Randomized, Double-blind Study to Evaluate the Effects of XXS on Oxidative Stress in Patients With Mild or Moderate Hyperlipidemia and on Lipoprotein Kinetics</t>
   </si>
   <si>
-    <t>Evaluation of Total (Pre and Post) Conditioning on Rhabdomyolysis of Sedation With Sevoflurane Versus Propofol in Vascular Surgery With Clamping</t>
-  </si>
-  <si>
-    <t>CIRCE: Environmental, Metabolic and Nutritional Factors of Hepatocellular Carcinoma in Cirrhotic Patients</t>
-  </si>
-  <si>
-    <t>Diagnostic Agreement of Electrophysiological Audiovestibular Examinations With Magnetic Resonance Imaging (MRI) of the Inner Ear in Revealing Endolymphatic Hydrops (EH) in Patients With Certain or Probable Meniere's Disease (MD)</t>
-  </si>
-  <si>
-    <t>Etude préliminaire visant à étudier l’effet de la rTMS et des antidépresseurs ISRS sur l’expression leucocytaire des gènes C-FOS et DUSP1 des patients traités pour un état dépressif</t>
-  </si>
-  <si>
     <t>Comparison of Functional Recovery After Pertrochanter Fracture Treated With Either Total Hip Replacement or Centromedullary Nailing</t>
   </si>
   <si>
+    <t>Eating Behaviour and Gustatory Sensitivity Before and After Liver Transplant in Cirrhotic Patients</t>
+  </si>
+  <si>
+    <t>Open and Exploratory Trial to Investigate the Pharmacokinetic of Ceftobiprole Medocaril in Patients With CSF Device</t>
+  </si>
+  <si>
+    <t>Open and exploratory trial to investigate the pharmacokinetic of ceftobiprole medocaril  in patients with CSF device</t>
+  </si>
+  <si>
+    <t>INEqualities in Health Psychosocial Determinants of Neuro and Cardio-V@scuLar Disease: Identification of Novel Levers for Secondary Prevention</t>
+  </si>
+  <si>
+    <t>Evaluation of the Effects of Eccentric Training on a Cycle Ergometer, Versus Conventional Concentric Training</t>
+  </si>
+  <si>
     <t>Short and Fast Step Test: Feasibility, Validity and Tolerance of a Functional Evaluation Test of Lactic Anaerobic Capacities in Patients With Coronary Artery Disease</t>
   </si>
   <si>
-    <t>Evaluation of the Effects of Eccentric Training on a Cycle Ergometer, Versus Conventional Concentric Training</t>
+    <t>Ability of Pupillometry to Reduce Sufentanil Consumption in Planned Cardiac Surgery: Randomized, Controlled, Single-center Clinical Superiority Trial</t>
+  </si>
+  <si>
+    <t>Study of Phenotypic and Functional Characteristics of Regulatory T Lymphocytes in Giant Cell Arteritis (Horton's Disease)</t>
+  </si>
+  <si>
+    <t>Study the Signs of Ocular Degeneration in a Population Cohort (Dijon 3C Montrachet Cohort): Seek Correlations Between Signs of Neurological and Vascular Degeneration and Signs of Ocular Aging</t>
   </si>
   <si>
     <t>Interest of Spectroscopy in the Diagnosis of Cancerous and Precancerous Lesions of the Upper Airways (UA): Pilot Study</t>
   </si>
   <si>
-    <t>Open and exploratory trial to investigate the pharmacokinetic of ceftobiprole medocaril  in patients with CSF device</t>
-  </si>
-  <si>
-    <t>INEqualities in Health Psychosocial Determinants of Neuro and Cardio-V@scuLar Disease: Identification of Novel Levers for Secondary Prevention</t>
-  </si>
-  <si>
-    <t>Open and Exploratory Trial to Investigate the Pharmacokinetic of Ceftobiprole Medocaril in Patients With CSF Device</t>
-  </si>
-  <si>
     <t>Benefit of Singing in the Care of Premature Children Undergoing Screening for Retinopathy of Prematurity in the Neonatology and Neonatal Resuscitation Unit of the Dijon University Hospital</t>
   </si>
   <si>
-    <t>Study the Signs of Ocular Degeneration in a Population Cohort (Dijon 3C Montrachet Cohort): Seek Correlations Between Signs of Neurological and Vascular Degeneration and Signs of Ocular Aging</t>
-  </si>
-  <si>
-    <t>Study of Phenotypic and Functional Characteristics of Regulatory T Lymphocytes in Giant Cell Arteritis (Horton's Disease)</t>
-  </si>
-  <si>
-    <t>Ability of Pupillometry to Reduce Sufentanil Consumption in Planned Cardiac Surgery: Randomized, Controlled, Single-center Clinical Superiority Trial</t>
-  </si>
-  <si>
-    <t>Eating Behaviour and Gustatory Sensitivity Before and After Liver Transplant in Cirrhotic Patients</t>
+    <t>Effect of Oral Water on the Quality of Volume Expansion in Resuscitation Patients: Pilot Study (The Water Study)</t>
   </si>
   <si>
     <t>Prognosis After Revascularization Therapy in the Dijon Ischemic Stroke Evaluation Study</t>
@@ -679,141 +706,151 @@
     <t>Impact of Conditional Financial Support on Pregnancy Outcomes in Pregnant Women With Low Incomes: Pragmatic Randomized Cluster Trial, With Parallel Arms</t>
   </si>
   <si>
-    <t>Effect of Oral Water on the Quality of Volume Expansion in Resuscitation Patients: Pilot Study (The Water Study)</t>
+    <t>Personalisation of Exercise by Muscle Modulation, Step 1: Construction and Validation of an Algorithm for Personalisation for Pedalling Exercises</t>
+  </si>
+  <si>
+    <t>Prospective Monocentric Study of Taste in Patients With Minor or Major Cognitive Disorders Such as Alzheimer's, Through the Analysis of Gustatory Evoked Potentials</t>
   </si>
   <si>
     <t>Incidental Findings Produced by Diagnostic HTS: From the Needs of Patients to Organisational Considerations</t>
   </si>
   <si>
+    <t>A Randomized Double-blind Clinical Trial on the Efficacy of Transcranial Direct Current Stimulation (tDCS) in Reducing Alcohol Consumption in Non-abstinent Patients With Alcohol Use Disorder</t>
+  </si>
+  <si>
     <t>Effects of Dapagliflozin on Lipoprotein Kinetics in Patients With Type 2 Diabetes</t>
   </si>
   <si>
     <t>Management of Patients With High C-reactive Protein After Scheduled Resection of Colorectal Cancer: Pilot Study</t>
   </si>
   <si>
-    <t>Prospective Monocentric Study of Taste in Patients With Minor or Major Cognitive Disorders Such as Alzheimer's, Through the Analysis of Gustatory Evoked Potentials</t>
-  </si>
-  <si>
-    <t>Personalisation of Exercise by Muscle Modulation, Step 1: Construction and Validation of an Algorithm for Personalisation for Pedalling Exercises</t>
-  </si>
-  <si>
-    <t>A Randomized Double-blind Clinical Trial on the Efficacy of Transcranial Direct Current Stimulation (tDCS) in Reducing Alcohol Consumption in Non-abstinent Patients With Alcohol Use Disorder</t>
+    <t>Corticospinal and Neuromuscular Plasticity Induced by Real and Imaginary Contractions.</t>
+  </si>
+  <si>
+    <t>Study of the Influence of Glycaemic Balance on the Ability of Apolipoprotein C1 to Inhibit Cholesterol Ester Transfer Protein (CETP) in Type-1 Diabetes Patients</t>
   </si>
   <si>
     <t>Validation of New Therapeutic Targets to Prevent Collagen Accumulation During Cardiac Fibrosis: Procollagen C-proteinase Enhancers</t>
   </si>
   <si>
-    <t>Corticospinal and Neuromuscular Plasticity Induced by Real and Imaginary Contractions.</t>
-  </si>
-  <si>
     <t>Effectiveness of Transcranial Magnetic Stimulation (TMS) in Smoking Cessation, Combining Withdrawal Stimulation Followed by Maintenance Stimulation to Prevent Relapse: Single-center, Randomized, Controlled, Blinded Pilot Study</t>
   </si>
   <si>
-    <t>Study of the Influence of Glycaemic Balance on the Ability of Apolipoprotein C1 to Inhibit Cholesterol Ester Transfer Protein (CETP) in Type-1 Diabetes Patients</t>
-  </si>
-  <si>
     <t>Study of Subcutaneous Interstitial Pressure During Sepsis</t>
   </si>
   <si>
+    <t>Effects of GLP-1 Agonists on CArdiac Steatosis Evaluated by Magnetic Resonance Imaging</t>
+  </si>
+  <si>
+    <t>Treatment of Hyperlactatemia in Acute Circulatory Failure Based on Analysis of CO2: a Prospective Randomized Superiority Study (The LACTEL Study)</t>
+  </si>
+  <si>
     <t>Effectiveness of Energy Resonance by Skin Stimulation in the Management of Anxious Patients Who Require Scheduled Orthopaedic Surgery</t>
   </si>
   <si>
+    <t>Is Impaired Activation and Migration of Circulating Leukocytes Associated With Overdue Birth in Obese Women?</t>
+  </si>
+  <si>
+    <t>Evaluation of Oxiris Membrane as a Treatment for Ischemia-reperfusion Syndrome in Cardiogenic Shock Treated With Extracorporeal Life Support (ECMO/ECLS): A Randomized Pilot Study ECMORIX</t>
+  </si>
+  <si>
     <t>Impact of an Intervention Combining Fortified Meals and Physical Activity in the Prevention of Undernutrition in Seniors : a Randomized Controlled Trial</t>
   </si>
   <si>
-    <t>Evaluation of Oxiris Membrane as a Treatment for Ischemia-reperfusion Syndrome in Cardiogenic Shock Treated With Extracorporeal Life Support (ECMO/ECLS): A Randomized Pilot Study ECMORIX</t>
-  </si>
-  <si>
-    <t>Treatment of Hyperlactatemia in Acute Circulatory Failure Based on Analysis of CO2: a Prospective Randomized Superiority Study (The LACTEL Study)</t>
-  </si>
-  <si>
-    <t>Effects of GLP-1 Agonists on CArdiac Steatosis Evaluated by Magnetic Resonance Imaging</t>
-  </si>
-  <si>
-    <t>Is Impaired Activation and Migration of Circulating Leukocytes Associated With Overdue Birth in Obese Women?</t>
+    <t>Combined Incentive Actions, Focusing on Primary Care, to Improve Cervical Cancer Screening in Women Residing in Socio-economically Disadvantaged and Untracked Geographical Areas: a Hybrid Efficacy and Implementation Trial</t>
+  </si>
+  <si>
+    <t>Adjunction of Daptomycin for the Treatment of Pneumococcal Meningitis: AddaMAP Study</t>
+  </si>
+  <si>
+    <t>Comparison of the Non-invasive Approach and Fetal Exome Sequencing in Prenatal Diagnosis When Fetal Ultrasound Signs Are Discovered</t>
   </si>
   <si>
     <t>Evaluation of Non-opioid Balanced General Anesthesia in Cardiac Surgery With Extracorporeal Circulation: a Randomized, Controlled, Multicenter Superiority Trial</t>
   </si>
   <si>
-    <t>Combined Incentive Actions, Focusing on Primary Care, to Improve Cervical Cancer Screening in Women Residing in Socio-economically Disadvantaged and Untracked Geographical Areas: a Hybrid Efficacy and Implementation Trial</t>
+    <t>Randomized Controlled Pilot Study of Methods for Identifying Patients At High Risk of Worsening in the Adult Emergency Department</t>
   </si>
   <si>
     <t>Ustekinumab for the Treatment of Relapse of Refractory Giant Cell Arteritis</t>
   </si>
   <si>
-    <t>Adjunction of Daptomycin for the Treatment of Pneumococcal Meningitis: AddaMAP Study</t>
+    <t>Evaluation of the Value of 18F-Fluoromisonidazole (18F-FMISO) Positron Emission Tomography Hypoxia Imaging in Idiopathic Pulmonary Fibrosis - a Non-randomized Proof-of-concept Study Comparing Patients with Idiopathic Pulmonary Fibrosis and Healthy Subjects</t>
+  </si>
+  <si>
+    <t>Study of the Effect of a Cognitive Task on Static Balance in Depressive Elderly Subjects According to the Double Task Principle</t>
+  </si>
+  <si>
+    <t>Evaluation of a Distraction-rotation Knee Unloader Brace in Patients With Medial Knee Osteoarthritis.</t>
+  </si>
+  <si>
+    <t>Adjunction of daptomycin for the treatment of pneumococcal meningitis AddaMAP study 
+ Daptomycine en traitement adjuvant des méningites à pneumocoque.  Etude ADDAMAP</t>
+  </si>
+  <si>
+    <t>ÉVALUATION D’UNE ANESTHÉSIE GÉNÉRALE BALANCÉE NON OPIOÏDE EN CHIRURGIE CARDIAQUE AVEC CIRCULATION EXTRA-CORPORELLE : ESSAI CLINIQUE RANDOMISÉ, CONTRÔLE, MULTICENTRIQUE DE SUPÉRIORITÉ</t>
+  </si>
+  <si>
+    <t>THE TAP BLOCK TECHNIQUE VIA THE ANTERIOR APPROACH IN ELECTIVE SURGERY OF THE SPINE: Prospective, Randomised, Double Blind Trial, Comparing TAP BLOCK With Continuous Infiltration of Ropivacaine Versus Placebo</t>
+  </si>
+  <si>
+    <t>Screening for Chromosomal Microarrangements by CGH-array in Developmental Anomalies of the Skin Suggestive of Mosaicism. National Multicentre Descriptive Study.</t>
+  </si>
+  <si>
+    <t>Evaluation of a Hybrid Prototype Strategy (Electrostimulation of Lower Limb Muscles Associated With Voluntary Strengthening of the Upper Limbs) in Reconditioning to Effort in Patients With Chronic Paraplegia.</t>
   </si>
   <si>
     <t>Subretinal Haematoma in AMD: Randomized Controlled Study of 2 Therapeutic Approaches in the Antiangiogenic Era</t>
   </si>
   <si>
-    <t>ÉVALUATION D’UNE ANESTHÉSIE GÉNÉRALE BALANCÉE NON OPIOÏDE EN CHIRURGIE CARDIAQUE AVEC CIRCULATION EXTRA-CORPORELLE : ESSAI CLINIQUE RANDOMISÉ, CONTRÔLE, MULTICENTRIQUE DE SUPÉRIORITÉ</t>
+    <t>Evaluation of Systemic Leakage When a Heparin or Citrate Lock is Injected and Biological and Clinical Repercussions: Ancillary Study of the VERROU-REA Randomized Controlled Trial</t>
+  </si>
+  <si>
+    <t>Development and Validation of a French Quality Of Life Scale Specific to Patients Who Have Suffered a Stroke</t>
+  </si>
+  <si>
+    <t>STUDY OF PREFERENCES IN MEN FACED WITH THE DIFFERENT TREATMENT OPTIONS FOR LOCALIZED PROSTRATE CANCER WITH A GOOD OR INTERMEDIATE PROGNOSIS</t>
   </si>
   <si>
     <t>Preferences and Representations Concerning High-throughput Sequencing Technologies in Medical Genetics. The Case of Development Anomalies.</t>
   </si>
   <si>
-    <t>Evaluation of a Distraction-rotation Knee Unloader Brace in Patients With Medial Knee Osteoarthritis.</t>
-  </si>
-  <si>
-    <t>Study of the Effect of a Cognitive Task on Static Balance in Depressive Elderly Subjects According to the Double Task Principle</t>
+    <t>Randomized Phase III Study of a Treatment Driven by Early PET Response Compared to a Treatment Not Monitored by Early PET in Patients With Ann Arbor Stage III-IV or High Risk IIB Hodgkin Lymphoma</t>
   </si>
   <si>
     <t>Evaluation of the Effects of Eccentric Muscle Training Versus Conventional Concentric Training in Chronic Heart Failure</t>
   </si>
   <si>
-    <t>THE TAP BLOCK TECHNIQUE VIA THE ANTERIOR APPROACH IN ELECTIVE SURGERY OF THE SPINE: Prospective, Randomised, Double Blind Trial, Comparing TAP BLOCK With Continuous Infiltration of Ropivacaine Versus Placebo</t>
+    <t>Chemoembolization of Non-resectable Non-metastatic Hepatocellular Carcinoma Using Embolization Microspheres (DC Bead™) Loaded With Idarubicin (Zavedos®): Phase 1 Study</t>
+  </si>
+  <si>
+    <t>Prospective Study on the Interest of ß 1-3 D Glucan Assays in Screening for the Onset of Invasive Aspergillosis in Neutropenic Patients With Acute Leukaemia.</t>
+  </si>
+  <si>
+    <t>Prospective Study on the Frequency of de Novo Atrial Fibrillation in Septic Shock in Medical Intensive Care</t>
+  </si>
+  <si>
+    <t>Kinetics of Plasma and Serum Levels of Brain-Derived Neurotrophic Factor (BDNF) in Patients With Ischemic Stroke: Effect of Intravenous Fibrinolysis With Rt-PA</t>
   </si>
   <si>
     <t>Randomized Controlled Trial in Internal Compartment Knee Osteoarthritis: ODRA Made-to-measure Hinged Knee Brace Versus Usual Care.</t>
   </si>
   <si>
-    <t>STUDY OF PREFERENCES IN MEN FACED WITH THE DIFFERENT TREATMENT OPTIONS FOR LOCALIZED PROSTRATE CANCER WITH A GOOD OR INTERMEDIATE PROGNOSIS</t>
-  </si>
-  <si>
-    <t>Randomized Phase III Study of a Treatment Driven by Early PET Response Compared to a Treatment Not Monitored by Early PET in Patients With Ann Arbor Stage III-IV or High Risk IIB Hodgkin Lymphoma</t>
-  </si>
-  <si>
-    <t>Development and Validation of a French Quality Of Life Scale Specific to Patients Who Have Suffered a Stroke</t>
-  </si>
-  <si>
-    <t>Evaluation of a Hybrid Prototype Strategy (Electrostimulation of Lower Limb Muscles Associated With Voluntary Strengthening of the Upper Limbs) in Reconditioning to Effort in Patients With Chronic Paraplegia.</t>
-  </si>
-  <si>
-    <t>Evaluation of Systemic Leakage When a Heparin or Citrate Lock is Injected and Biological and Clinical Repercussions: Ancillary Study of the VERROU-REA Randomized Controlled Trial</t>
-  </si>
-  <si>
     <t>Efficacy of the Implementation of a Food and Nutritional Support Strategy Adapted to Dependent Elderly Subjects: Controlled Trial.</t>
   </si>
   <si>
-    <t>Screening for Chromosomal Microarrangements by CGH-array in Developmental Anomalies of the Skin Suggestive of Mosaicism. National Multicentre Descriptive Study.</t>
-  </si>
-  <si>
-    <t>Chemoembolization of Non-resectable Non-metastatic Hepatocellular Carcinoma Using Embolization Microspheres (DC Bead™) Loaded With Idarubicin (Zavedos®): Phase 1 Study</t>
+    <t>Study of the Implication of Omega-3 Polyunsaturated Fatty Acids in Retinopathy of Prematurity in Newborns</t>
   </si>
   <si>
     <t>Evaluation of the Efficacy of Low-frequency rTMS on Craving in Smoking Dependence: Single-centre Randomized, Controlled Blinded Pilot Study</t>
   </si>
   <si>
-    <t>Study of the Implication of Omega-3 Polyunsaturated Fatty Acids in Retinopathy of Prematurity in Newborns</t>
-  </si>
-  <si>
     <t>Study of the Effect of Beta-3 Adrenergic Receptor Agonists on Oxidative Stress and Signalling Pathways Implicated in Remodelling of the Uteroplacental Space: Experimental in Vitro Approach on Myometrial Tissue Explants</t>
   </si>
   <si>
-    <t>Kinetics of Plasma and Serum Levels of Brain-Derived Neurotrophic Factor (BDNF) in Patients With Ischemic Stroke: Effect of Intravenous Fibrinolysis With Rt-PA</t>
-  </si>
-  <si>
-    <t>Prospective Study on the Frequency of de Novo Atrial Fibrillation in Septic Shock in Medical Intensive Care</t>
-  </si>
-  <si>
     <t>ROLE OF PHOSPHOLIPID TRANSFER PROTEINS (PLTP) ON ENDOTOXEMIA CAUSED BY BUCCAL INFLAMMATION</t>
   </si>
   <si>
-    <t>Prospective Study on the Interest of ß 1-3 D Glucan Assays in Screening for the Onset of Invasive Aspergillosis in Neutropenic Patients With Acute Leukaemia.</t>
-  </si>
-  <si>
     <t>AUPALESENS</t>
   </si>
   <si>
@@ -826,40 +863,52 @@
     <t>CRAPO</t>
   </si>
   <si>
+    <t>Fijus Raisol</t>
+  </si>
+  <si>
+    <t>Endophtalmitis</t>
+  </si>
+  <si>
+    <t>IMMUNOBEDIA</t>
+  </si>
+  <si>
+    <t>IMACORS</t>
+  </si>
+  <si>
     <t>HOTLYMPHO</t>
   </si>
   <si>
-    <t>Fijus Raisol</t>
-  </si>
-  <si>
-    <t>IMACORS</t>
-  </si>
-  <si>
-    <t>IMMUNOBEDIA</t>
-  </si>
-  <si>
-    <t>Endophtalmitis</t>
+    <t>EQUAL</t>
+  </si>
+  <si>
+    <t>DOREFA</t>
+  </si>
+  <si>
+    <t>DEGLUTHYR</t>
+  </si>
+  <si>
+    <t>PHENOMAP</t>
   </si>
   <si>
     <t>SHAH</t>
   </si>
   <si>
-    <t>DOREFA</t>
-  </si>
-  <si>
-    <t>DEGLUTHYR</t>
-  </si>
-  <si>
-    <t>EQUAL</t>
+    <t>Pascal</t>
   </si>
   <si>
     <t>VITALIM Senior</t>
   </si>
   <si>
-    <t>PHENOMAP</t>
-  </si>
-  <si>
-    <t>Pascal</t>
+    <t>HORTOCI</t>
+  </si>
+  <si>
+    <t>Prodige20</t>
+  </si>
+  <si>
+    <t>SPHINGO</t>
+  </si>
+  <si>
+    <t>CHIPOFIL</t>
   </si>
   <si>
     <t>INFRA</t>
@@ -871,109 +920,100 @@
     <t>BUCCODOR</t>
   </si>
   <si>
+    <t>ICAR</t>
+  </si>
+  <si>
+    <t>TML 400 m</t>
+  </si>
+  <si>
     <t>VERROU-REA</t>
   </si>
   <si>
-    <t>Prodige20</t>
+    <t>ObeDi</t>
+  </si>
+  <si>
+    <t>Ceftaroline</t>
   </si>
   <si>
     <t>LEAD</t>
   </si>
   <si>
-    <t>SPHINGO</t>
-  </si>
-  <si>
-    <t>ObeDi</t>
-  </si>
-  <si>
     <t>ATLAS</t>
   </si>
   <si>
-    <t>Ceftaroline</t>
-  </si>
-  <si>
-    <t>ICAR</t>
-  </si>
-  <si>
-    <t>TML 400 m</t>
-  </si>
-  <si>
-    <t>CHIPOFIL</t>
-  </si>
-  <si>
-    <t>HORTOCI</t>
+    <t>COCOON</t>
+  </si>
+  <si>
+    <t>QUALITY</t>
+  </si>
+  <si>
+    <t>AUDIPIC</t>
+  </si>
+  <si>
+    <t>IVOIRE</t>
   </si>
   <si>
     <t>SUPRA</t>
   </si>
   <si>
-    <t>AUDIPIC</t>
-  </si>
-  <si>
-    <t>QUALITY</t>
-  </si>
-  <si>
-    <t>IVOIRE</t>
-  </si>
-  <si>
     <t>POSTURODYN</t>
   </si>
   <si>
-    <t>COCOON</t>
+    <t>MRI Meniere</t>
+  </si>
+  <si>
+    <t>PHAR</t>
   </si>
   <si>
     <t>Holter Gly</t>
   </si>
   <si>
+    <t>CIRCE</t>
+  </si>
+  <si>
+    <t>TMSFOS</t>
+  </si>
+  <si>
     <t>XXS SYMPA</t>
   </si>
   <si>
-    <t>PHAR</t>
-  </si>
-  <si>
-    <t>CIRCE</t>
-  </si>
-  <si>
-    <t>MRI Meniere</t>
-  </si>
-  <si>
-    <t>TMSFOS</t>
-  </si>
-  <si>
     <t>PAVO</t>
   </si>
   <si>
+    <t>GREFFE</t>
+  </si>
+  <si>
+    <t>BASILE</t>
+  </si>
+  <si>
+    <t>INEV@L</t>
+  </si>
+  <si>
+    <t>ENERGETIC</t>
+  </si>
+  <si>
     <t>CORANAE</t>
   </si>
   <si>
-    <t>ENERGETIC</t>
+    <t>PUCCAR</t>
+  </si>
+  <si>
+    <t>ACG et TREG</t>
+  </si>
+  <si>
+    <t>Casper</t>
+  </si>
+  <si>
+    <t>3C</t>
   </si>
   <si>
     <t>SpectrORL1</t>
   </si>
   <si>
-    <t>INEV@L</t>
-  </si>
-  <si>
-    <t>BASILE</t>
-  </si>
-  <si>
     <t>Voix Chantée</t>
   </si>
   <si>
-    <t>3C</t>
-  </si>
-  <si>
-    <t>ACG et TREG</t>
-  </si>
-  <si>
-    <t>PUCCAR</t>
-  </si>
-  <si>
-    <t>Casper</t>
-  </si>
-  <si>
-    <t>GREFFE</t>
+    <t>WATER</t>
   </si>
   <si>
     <t>PARADISE</t>
@@ -985,25 +1025,25 @@
     <t>Algo Fréq</t>
   </si>
   <si>
-    <t>WATER</t>
+    <t>EXOMODE</t>
+  </si>
+  <si>
+    <t>MAPEG</t>
   </si>
   <si>
     <t>FIND</t>
   </si>
   <si>
+    <t>REDSTIM</t>
+  </si>
+  <si>
     <t>Cinétique DAPA</t>
   </si>
   <si>
     <t>GESPACE</t>
   </si>
   <si>
-    <t>MAPEG</t>
-  </si>
-  <si>
-    <t>EXOMODE</t>
-  </si>
-  <si>
-    <t>REDSTIM</t>
+    <t>ApoC1</t>
   </si>
   <si>
     <t>CARDIACTIV</t>
@@ -1012,124 +1052,136 @@
     <t>TabacStim2</t>
   </si>
   <si>
-    <t>ApoC1</t>
-  </si>
-  <si>
     <t>PISEP</t>
   </si>
   <si>
+    <t>LICAS-MR</t>
+  </si>
+  <si>
+    <t>LACTEL</t>
+  </si>
+  <si>
     <t>ERESCAO</t>
   </si>
   <si>
+    <t>LOST</t>
+  </si>
+  <si>
+    <t>ECMORIX</t>
+  </si>
+  <si>
     <t>FORTIPHY</t>
   </si>
   <si>
-    <t>ECMORIX</t>
-  </si>
-  <si>
-    <t>LACTEL</t>
-  </si>
-  <si>
-    <t>LICAS-MR</t>
-  </si>
-  <si>
-    <t>LOST</t>
+    <t>RESISTE</t>
+  </si>
+  <si>
+    <t>AddaMAP</t>
+  </si>
+  <si>
+    <t>DPNI-Exome</t>
   </si>
   <si>
     <t>OFACAR</t>
   </si>
   <si>
-    <t>RESISTE</t>
+    <t>Quick-TRI</t>
   </si>
   <si>
     <t>ULTRA</t>
   </si>
   <si>
-    <t>AddaMAP</t>
+    <t>FIPOXY</t>
+  </si>
+  <si>
+    <t>DOUBLE TACHE</t>
+  </si>
+  <si>
+    <t>ORFEVRE</t>
+  </si>
+  <si>
+    <t>ADDAMAP Study</t>
+  </si>
+  <si>
+    <t>TAPBloc Rachis</t>
+  </si>
+  <si>
+    <t>MOSAÏQUE</t>
   </si>
   <si>
     <t>STAR</t>
   </si>
   <si>
-    <t>ORFEVRE</t>
-  </si>
-  <si>
-    <t>DOUBLE TACHE</t>
-  </si>
-  <si>
-    <t>TAPBloc Rachis</t>
+    <t>VERROU HEMOST</t>
+  </si>
+  <si>
+    <t>QUALI STROKE</t>
+  </si>
+  <si>
+    <t>CALIPSO</t>
+  </si>
+  <si>
+    <t>AHL 2011</t>
+  </si>
+  <si>
+    <t>IDASPHERE</t>
+  </si>
+  <si>
+    <t>BETA GLUCAN</t>
+  </si>
+  <si>
+    <t>FACS</t>
+  </si>
+  <si>
+    <t>BDNF</t>
   </si>
   <si>
     <t>ERGONOMIE</t>
   </si>
   <si>
-    <t>CALIPSO</t>
-  </si>
-  <si>
-    <t>AHL 2011</t>
-  </si>
-  <si>
-    <t>QUALI STROKE</t>
-  </si>
-  <si>
-    <t>VERROU HEMOST</t>
-  </si>
-  <si>
     <t>RENES+</t>
   </si>
   <si>
-    <t>MOSAÏQUE</t>
-  </si>
-  <si>
-    <t>IDASPHERE</t>
+    <t>OMEGAROP</t>
   </si>
   <si>
     <t>rTMS TABAC</t>
   </si>
   <si>
-    <t>OMEGAROP</t>
-  </si>
-  <si>
     <t>STRESSOX</t>
   </si>
   <si>
-    <t>BDNF</t>
-  </si>
-  <si>
-    <t>FACS</t>
-  </si>
-  <si>
     <t>TOXIB</t>
   </si>
   <si>
-    <t>BETA GLUCAN</t>
+    <t>PROCEDURE</t>
   </si>
   <si>
     <t>DRUG</t>
   </si>
   <si>
-    <t>PROCEDURE</t>
-  </si>
-  <si>
     <t>BIOLOGICAL</t>
   </si>
   <si>
     <t>OTHER</t>
   </si>
   <si>
+    <t>DEVICE</t>
+  </si>
+  <si>
+    <t>DRUG (presumed)</t>
+  </si>
+  <si>
+    <t>DIETARY_SUPPLEMENT</t>
+  </si>
+  <si>
+    <t>DIAGNOSTIC_TEST</t>
+  </si>
+  <si>
+    <t>BEHAVIORAL</t>
+  </si>
+  <si>
     <t>RADIATION</t>
-  </si>
-  <si>
-    <t>DIETARY_SUPPLEMENT</t>
-  </si>
-  <si>
-    <t>DEVICE</t>
-  </si>
-  <si>
-    <t>DIAGNOSTIC_TEST</t>
-  </si>
-  <si>
-    <t>BEHAVIORAL</t>
   </si>
 </sst>
 </file>
@@ -1487,7 +1539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I121"/>
+  <dimension ref="A1:I125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1533,13 +1585,13 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="G2" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="I2" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1553,130 +1605,136 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="G3" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="I3" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="G4" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="I4" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="G5" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="I5" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>139</v>
-      </c>
-      <c r="G6" t="s">
-        <v>157</v>
-      </c>
-      <c r="H6" t="s">
-        <v>266</v>
+        <v>146</v>
       </c>
       <c r="I6" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
       </c>
+      <c r="D7" t="s">
+        <v>135</v>
+      </c>
       <c r="F7" t="s">
-        <v>139</v>
+        <v>146</v>
+      </c>
+      <c r="G7" t="s">
+        <v>165</v>
       </c>
       <c r="I7" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="G8" t="s">
-        <v>158</v>
+        <v>166</v>
+      </c>
+      <c r="H8" t="s">
+        <v>278</v>
       </c>
       <c r="I8" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>140</v>
+        <v>147</v>
+      </c>
+      <c r="G9" t="s">
+        <v>167</v>
       </c>
       <c r="I9" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1690,33 +1748,36 @@
         <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="G10" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="I10" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
         <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="G11" t="s">
-        <v>160</v>
+        <v>169</v>
+      </c>
+      <c r="H11" t="s">
+        <v>279</v>
       </c>
       <c r="I11" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1730,16 +1791,13 @@
         <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="G12" t="s">
-        <v>161</v>
-      </c>
-      <c r="H12" t="s">
-        <v>267</v>
+        <v>170</v>
       </c>
       <c r="I12" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1753,191 +1811,188 @@
         <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>140</v>
-      </c>
-      <c r="G13" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="I13" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="G14" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="H14" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="I14" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="G15" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="H15" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="I15" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
         <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="G16" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="H16" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="I16" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
         <v>32</v>
       </c>
       <c r="F17" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="G17" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="H17" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="I17" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
         <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>142</v>
-      </c>
-      <c r="G18" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="H18" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="I18" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
         <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="G19" t="s">
-        <v>168</v>
+        <v>175</v>
+      </c>
+      <c r="H19" t="s">
+        <v>285</v>
       </c>
       <c r="I19" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
         <v>35</v>
       </c>
       <c r="F20" t="s">
-        <v>142</v>
-      </c>
-      <c r="H20" t="s">
-        <v>273</v>
+        <v>149</v>
+      </c>
+      <c r="G20" t="s">
+        <v>176</v>
       </c>
       <c r="I20" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
         <v>36</v>
       </c>
       <c r="F21" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="G21" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="H21" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="I21" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1951,59 +2006,59 @@
         <v>37</v>
       </c>
       <c r="F22" t="s">
-        <v>143</v>
-      </c>
-      <c r="G22" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="H22" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="I22" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C23" t="s">
         <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="G23" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="H23" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="I23" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" t="s">
-        <v>132</v>
+        <v>13</v>
+      </c>
+      <c r="C24" t="s">
+        <v>39</v>
       </c>
       <c r="F24" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="G24" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="H24" t="s">
-        <v>277</v>
+        <v>289</v>
+      </c>
+      <c r="I24" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2013,155 +2068,155 @@
       <c r="B25" t="s">
         <v>13</v>
       </c>
-      <c r="C25" t="s">
-        <v>39</v>
+      <c r="D25" t="s">
+        <v>136</v>
       </c>
       <c r="F25" t="s">
-        <v>143</v>
+        <v>150</v>
+      </c>
+      <c r="G25" t="s">
+        <v>180</v>
       </c>
       <c r="H25" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="I25" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
         <v>40</v>
       </c>
       <c r="F26" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="G26" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="H26" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="I26" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27" t="s">
         <v>41</v>
       </c>
       <c r="F27" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="G27" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="H27" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="I27" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
         <v>42</v>
       </c>
       <c r="F28" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="G28" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="H28" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="I28" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C29" t="s">
         <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="G29" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="H29" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="I29" t="s">
-        <v>364</v>
+        <v>385</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C30" t="s">
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="G30" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="H30" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="I30" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C31" t="s">
         <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="G31" t="s">
-        <v>178</v>
-      </c>
-      <c r="H31" t="s">
-        <v>283</v>
+        <v>186</v>
       </c>
       <c r="I31" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2174,60 +2229,63 @@
       <c r="C32" t="s">
         <v>46</v>
       </c>
+      <c r="D32" t="s">
+        <v>137</v>
+      </c>
       <c r="F32" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="G32" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="H32" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="I32" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C33" t="s">
         <v>47</v>
       </c>
       <c r="F33" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="G33" t="s">
-        <v>180</v>
+        <v>188</v>
+      </c>
+      <c r="H33" t="s">
+        <v>296</v>
       </c>
       <c r="I33" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C34" t="s">
         <v>48</v>
       </c>
       <c r="F34" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="G34" t="s">
-        <v>181</v>
-      </c>
-      <c r="H34" t="s">
-        <v>285</v>
+        <v>189</v>
       </c>
       <c r="I34" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2241,332 +2299,338 @@
         <v>49</v>
       </c>
       <c r="F35" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="G35" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="H35" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="I35" t="s">
-        <v>363</v>
+        <v>383</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C36" t="s">
         <v>50</v>
       </c>
       <c r="F36" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="G36" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="H36" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="I36" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C37" t="s">
         <v>51</v>
       </c>
       <c r="F37" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="G37" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="H37" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="I37" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C38" t="s">
         <v>52</v>
       </c>
       <c r="F38" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="G38" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="H38" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="I38" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" t="s">
-        <v>133</v>
+        <v>13</v>
+      </c>
+      <c r="C39" t="s">
+        <v>53</v>
       </c>
       <c r="F39" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="G39" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="H39" t="s">
-        <v>283</v>
+        <v>301</v>
+      </c>
+      <c r="I39" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F40" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="G40" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="H40" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="I40" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F41" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="G41" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="H41" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="I41" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F42" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="G42" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="H42" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="I42" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
-      </c>
-      <c r="C43" t="s">
-        <v>56</v>
+        <v>13</v>
+      </c>
+      <c r="D43" t="s">
+        <v>138</v>
       </c>
       <c r="F43" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="G43" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="H43" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="I43" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C44" t="s">
         <v>57</v>
       </c>
       <c r="F44" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="G44" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="H44" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="I44" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C45" t="s">
         <v>58</v>
       </c>
       <c r="F45" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="G45" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="H45" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="I45" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C46" t="s">
         <v>59</v>
       </c>
       <c r="F46" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="G46" t="s">
-        <v>192</v>
+        <v>200</v>
+      </c>
+      <c r="H46" t="s">
+        <v>307</v>
       </c>
       <c r="I46" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C47" t="s">
         <v>60</v>
       </c>
       <c r="F47" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G47" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="H47" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="I47" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C48" t="s">
         <v>61</v>
       </c>
       <c r="F48" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G48" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="H48" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="I48" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C49" t="s">
         <v>62</v>
       </c>
       <c r="F49" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G49" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="H49" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="I49" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2580,154 +2644,154 @@
         <v>63</v>
       </c>
       <c r="F50" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G50" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="H50" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="I50" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C51" t="s">
         <v>64</v>
       </c>
       <c r="F51" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G51" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="H51" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="I51" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C52" t="s">
         <v>65</v>
       </c>
       <c r="F52" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="G52" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="H52" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="I52" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C53" t="s">
         <v>66</v>
       </c>
       <c r="F53" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="G53" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="H53" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="I53" t="s">
-        <v>365</v>
+        <v>386</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C54" t="s">
         <v>67</v>
       </c>
       <c r="F54" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="G54" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="H54" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="I54" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C55" t="s">
         <v>68</v>
       </c>
       <c r="F55" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="G55" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="H55" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="I55" t="s">
-        <v>363</v>
+        <v>383</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C56" t="s">
         <v>69</v>
       </c>
       <c r="F56" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="G56" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="H56" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="I56" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2737,20 +2801,20 @@
       <c r="B57" t="s">
         <v>14</v>
       </c>
-      <c r="C57" t="s">
-        <v>70</v>
+      <c r="D57" t="s">
+        <v>139</v>
       </c>
       <c r="F57" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="G57" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="H57" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="I57" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2760,195 +2824,201 @@
       <c r="B58" t="s">
         <v>13</v>
       </c>
-      <c r="D58" t="s">
-        <v>134</v>
+      <c r="C58" t="s">
+        <v>70</v>
       </c>
       <c r="F58" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="G58" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="H58" t="s">
-        <v>307</v>
+        <v>319</v>
+      </c>
+      <c r="I58" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C59" t="s">
         <v>71</v>
       </c>
       <c r="F59" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="G59" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="H59" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="I59" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C60" t="s">
         <v>72</v>
       </c>
       <c r="F60" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="G60" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="H60" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="I60" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C61" t="s">
         <v>73</v>
       </c>
       <c r="F61" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="G61" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="H61" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="I61" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B62" t="s">
-        <v>14</v>
-      </c>
-      <c r="C62" t="s">
-        <v>74</v>
+        <v>13</v>
+      </c>
+      <c r="D62" t="s">
+        <v>140</v>
       </c>
       <c r="F62" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="G62" t="s">
-        <v>208</v>
-      </c>
-      <c r="H62" t="s">
-        <v>311</v>
+        <v>216</v>
       </c>
       <c r="I62" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B63" t="s">
-        <v>14</v>
-      </c>
-      <c r="D63" t="s">
-        <v>135</v>
+        <v>13</v>
+      </c>
+      <c r="C63" t="s">
+        <v>74</v>
       </c>
       <c r="F63" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="G63" t="s">
-        <v>209</v>
+        <v>217</v>
+      </c>
+      <c r="H63" t="s">
+        <v>323</v>
+      </c>
+      <c r="I63" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C64" t="s">
         <v>75</v>
       </c>
       <c r="F64" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="G64" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="H64" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="I64" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B65" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C65" t="s">
         <v>76</v>
       </c>
       <c r="F65" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="G65" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="H65" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="I65" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C66" t="s">
         <v>77</v>
       </c>
       <c r="F66" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="G66" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="H66" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="I66" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2962,16 +3032,16 @@
         <v>78</v>
       </c>
       <c r="F67" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="G67" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="H67" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="I67" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2985,171 +3055,174 @@
         <v>79</v>
       </c>
       <c r="F68" t="s">
-        <v>147</v>
-      </c>
-      <c r="G68" t="s">
-        <v>214</v>
+        <v>154</v>
       </c>
       <c r="H68" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="I68" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B69" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C69" t="s">
         <v>80</v>
       </c>
       <c r="F69" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="G69" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="H69" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="I69" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B70" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C70" t="s">
         <v>81</v>
       </c>
       <c r="F70" t="s">
-        <v>147</v>
+        <v>154</v>
+      </c>
+      <c r="G70" t="s">
+        <v>223</v>
       </c>
       <c r="H70" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="I70" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B71" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C71" t="s">
         <v>82</v>
       </c>
       <c r="F71" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="G71" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="H71" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="I71" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C72" t="s">
         <v>83</v>
       </c>
       <c r="F72" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="G72" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="H72" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="I72" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B73" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C73" t="s">
         <v>84</v>
       </c>
       <c r="F73" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="G73" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="H73" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="I73" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
     </row>
     <row r="74" spans="1:9">
       <c r="A74" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B74" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C74" t="s">
         <v>85</v>
       </c>
       <c r="F74" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="G74" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="H74" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="I74" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C75" t="s">
         <v>86</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="G75" t="s">
-        <v>220</v>
+        <v>228</v>
+      </c>
+      <c r="H75" t="s">
+        <v>335</v>
       </c>
       <c r="I75" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3163,647 +3236,665 @@
         <v>87</v>
       </c>
       <c r="F76" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="G76" t="s">
-        <v>221</v>
-      </c>
-      <c r="H76" t="s">
-        <v>323</v>
+        <v>229</v>
       </c>
       <c r="I76" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B77" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C77" t="s">
         <v>88</v>
       </c>
       <c r="F77" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="G77" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="H77" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="I77" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B78" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C78" t="s">
         <v>89</v>
       </c>
       <c r="F78" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="G78" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="H78" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="I78" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B79" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C79" t="s">
         <v>90</v>
       </c>
       <c r="F79" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="G79" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="H79" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="I79" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B80" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C80" t="s">
         <v>91</v>
       </c>
       <c r="F80" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="G80" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="H80" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="I80" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B81" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C81" t="s">
         <v>92</v>
       </c>
       <c r="F81" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="G81" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="H81" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="I81" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B82" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C82" t="s">
         <v>93</v>
       </c>
       <c r="F82" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="G82" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="H82" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="I82" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
     </row>
     <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B83" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C83" t="s">
         <v>94</v>
       </c>
       <c r="F83" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="G83" t="s">
-        <v>228</v>
-      </c>
-      <c r="H83" t="s">
-        <v>330</v>
+        <v>236</v>
       </c>
       <c r="I83" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
     </row>
     <row r="84" spans="1:9">
       <c r="A84" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B84" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C84" t="s">
         <v>95</v>
       </c>
       <c r="F84" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="G84" t="s">
-        <v>229</v>
+        <v>237</v>
+      </c>
+      <c r="H84" t="s">
+        <v>342</v>
       </c>
       <c r="I84" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B85" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C85" t="s">
         <v>96</v>
       </c>
       <c r="F85" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="G85" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="H85" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="I85" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
     </row>
     <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B86" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C86" t="s">
         <v>97</v>
       </c>
       <c r="F86" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="G86" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="H86" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="I86" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
     </row>
     <row r="87" spans="1:9">
       <c r="A87" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B87" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C87" t="s">
         <v>98</v>
       </c>
       <c r="F87" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="G87" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="H87" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="I87" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B88" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C88" t="s">
         <v>99</v>
       </c>
       <c r="F88" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="G88" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="H88" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="I88" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B89" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C89" t="s">
         <v>100</v>
       </c>
       <c r="F89" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="G89" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="H89" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="I89" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B90" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C90" t="s">
         <v>101</v>
       </c>
       <c r="F90" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="G90" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="H90" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="I90" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B91" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C91" t="s">
         <v>102</v>
       </c>
       <c r="F91" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="G91" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="H91" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="I91" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
     </row>
     <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B92" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C92" t="s">
         <v>103</v>
       </c>
       <c r="F92" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="G92" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="H92" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="I92" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
     </row>
     <row r="93" spans="1:9">
       <c r="A93" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B93" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C93" t="s">
         <v>104</v>
       </c>
       <c r="F93" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="G93" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="H93" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="I93" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C94" t="s">
         <v>105</v>
       </c>
       <c r="F94" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="G94" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="H94" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="I94" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B95" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C95" t="s">
         <v>106</v>
       </c>
       <c r="F95" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="G95" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="H95" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="I95" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B96" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C96" t="s">
         <v>107</v>
       </c>
       <c r="F96" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="G96" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="H96" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="I96" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
     </row>
     <row r="97" spans="1:9">
       <c r="A97" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B97" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C97" t="s">
         <v>108</v>
       </c>
       <c r="F97" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="G97" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="H97" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="I97" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B98" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C98" t="s">
         <v>109</v>
       </c>
+      <c r="F98" t="s">
+        <v>159</v>
+      </c>
       <c r="G98" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="H98" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="I98" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B99" t="s">
-        <v>14</v>
-      </c>
-      <c r="D99" t="s">
-        <v>136</v>
+        <v>13</v>
+      </c>
+      <c r="C99" t="s">
+        <v>110</v>
+      </c>
+      <c r="F99" t="s">
+        <v>159</v>
       </c>
       <c r="G99" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="H99" t="s">
-        <v>340</v>
+        <v>357</v>
+      </c>
+      <c r="I99" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B100" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C100" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="E100" t="s">
+        <v>144</v>
+      </c>
+      <c r="F100" t="s">
+        <v>160</v>
       </c>
       <c r="G100" t="s">
-        <v>245</v>
+        <v>253</v>
+      </c>
+      <c r="H100" t="s">
+        <v>358</v>
       </c>
       <c r="I100" t="s">
-        <v>366</v>
+        <v>388</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B101" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C101" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G101" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="H101" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="I101" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
     </row>
     <row r="102" spans="1:9">
       <c r="A102" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B102" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C102" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G102" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="H102" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="I102" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B103" t="s">
-        <v>14</v>
-      </c>
-      <c r="C103" t="s">
-        <v>113</v>
+        <v>13</v>
+      </c>
+      <c r="D103" t="s">
+        <v>141</v>
       </c>
       <c r="G103" t="s">
-        <v>248</v>
+        <v>256</v>
+      </c>
+      <c r="H103" t="s">
+        <v>361</v>
       </c>
       <c r="I103" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B104" t="s">
-        <v>14</v>
-      </c>
-      <c r="C104" t="s">
-        <v>114</v>
+        <v>13</v>
+      </c>
+      <c r="D104" t="s">
+        <v>142</v>
       </c>
       <c r="G104" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="H104" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="I104" t="s">
-        <v>363</v>
+        <v>384</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B105" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C105" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G105" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="H105" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="I105" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -3814,16 +3905,16 @@
         <v>14</v>
       </c>
       <c r="C106" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G106" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="H106" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="I106" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -3834,96 +3925,93 @@
         <v>13</v>
       </c>
       <c r="C107" t="s">
-        <v>117</v>
-      </c>
-      <c r="D107" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="G107" t="s">
-        <v>252</v>
-      </c>
-      <c r="H107" t="s">
-        <v>350</v>
+        <v>260</v>
       </c>
       <c r="I107" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B108" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C108" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G108" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="H108" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="I108" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B109" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C109" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G109" t="s">
-        <v>254</v>
+        <v>262</v>
+      </c>
+      <c r="H109" t="s">
+        <v>365</v>
       </c>
       <c r="I109" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B110" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C110" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G110" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="H110" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="I110" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B111" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C111" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G111" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="H111" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="I111" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -3934,16 +4022,13 @@
         <v>13</v>
       </c>
       <c r="C112" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G112" t="s">
-        <v>257</v>
-      </c>
-      <c r="H112" t="s">
-        <v>354</v>
+        <v>265</v>
       </c>
       <c r="I112" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -3954,170 +4039,250 @@
         <v>14</v>
       </c>
       <c r="C113" t="s">
-        <v>123</v>
+        <v>122</v>
+      </c>
+      <c r="D113" t="s">
+        <v>143</v>
       </c>
       <c r="G113" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="H113" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="I113" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B114" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C114" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G114" t="s">
-        <v>259</v>
-      </c>
-      <c r="H114" t="s">
-        <v>356</v>
+        <v>267</v>
       </c>
       <c r="I114" t="s">
-        <v>369</v>
+        <v>382</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C115" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G115" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="H115" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="I115" t="s">
-        <v>365</v>
+        <v>388</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B116" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C116" t="s">
-        <v>126</v>
-      </c>
-      <c r="G116" t="s">
-        <v>261</v>
-      </c>
-      <c r="H116" t="s">
-        <v>358</v>
+        <v>125</v>
       </c>
       <c r="I116" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B117" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C117" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G117" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="H117" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="I117" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B118" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C118" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G118" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="H118" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="I118" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B119" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C119" t="s">
-        <v>129</v>
+        <v>128</v>
+      </c>
+      <c r="G119" t="s">
+        <v>271</v>
+      </c>
+      <c r="H119" t="s">
+        <v>372</v>
       </c>
       <c r="I119" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B120" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C120" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G120" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="H120" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="I120" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B121" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C121" t="s">
+        <v>130</v>
+      </c>
+      <c r="G121" t="s">
+        <v>273</v>
+      </c>
+      <c r="H121" t="s">
+        <v>374</v>
+      </c>
+      <c r="I121" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" t="s">
+        <v>9</v>
+      </c>
+      <c r="B122" t="s">
+        <v>13</v>
+      </c>
+      <c r="C122" t="s">
         <v>131</v>
       </c>
-      <c r="G121" t="s">
-        <v>265</v>
-      </c>
-      <c r="H121" t="s">
-        <v>362</v>
-      </c>
-      <c r="I121" t="s">
-        <v>365</v>
+      <c r="G122" t="s">
+        <v>274</v>
+      </c>
+      <c r="H122" t="s">
+        <v>375</v>
+      </c>
+      <c r="I122" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" t="s">
+        <v>9</v>
+      </c>
+      <c r="B123" t="s">
+        <v>13</v>
+      </c>
+      <c r="C123" t="s">
+        <v>132</v>
+      </c>
+      <c r="G123" t="s">
+        <v>275</v>
+      </c>
+      <c r="H123" t="s">
+        <v>376</v>
+      </c>
+      <c r="I123" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" t="s">
+        <v>9</v>
+      </c>
+      <c r="B124" t="s">
+        <v>13</v>
+      </c>
+      <c r="C124" t="s">
+        <v>133</v>
+      </c>
+      <c r="G124" t="s">
+        <v>276</v>
+      </c>
+      <c r="H124" t="s">
+        <v>377</v>
+      </c>
+      <c r="I124" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" t="s">
+        <v>9</v>
+      </c>
+      <c r="B125" t="s">
+        <v>13</v>
+      </c>
+      <c r="C125" t="s">
+        <v>134</v>
+      </c>
+      <c r="G125" t="s">
+        <v>277</v>
+      </c>
+      <c r="H125" t="s">
+        <v>378</v>
+      </c>
+      <c r="I125" t="s">
+        <v>382</v>
       </c>
     </row>
   </sheetData>
